--- a/df_recommendation_related_parameters.xlsx
+++ b/df_recommendation_related_parameters.xlsx
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G7" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
         <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>100</v>
       </c>
       <c r="J14" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G22" t="n">
         <v>16.67</v>
@@ -1364,7 +1364,7 @@
         <v>100</v>
       </c>
       <c r="J22" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>100</v>
       </c>
       <c r="J26" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>100</v>
       </c>
       <c r="J28" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G35" t="n">
         <v>16.67</v>
@@ -1910,7 +1910,7 @@
         <v>100</v>
       </c>
       <c r="J35" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>100</v>
       </c>
       <c r="J38" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>100</v>
       </c>
       <c r="J42" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>38.45</v>
+        <v>13.64</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>99.26000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G53" t="n">
         <v>100</v>
@@ -2662,7 +2662,7 @@
         <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G54" t="n">
         <v>100</v>
@@ -2704,7 +2704,7 @@
         <v>100</v>
       </c>
       <c r="J54" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="G55" t="n">
         <v>100</v>
@@ -2746,7 +2746,7 @@
         <v>60</v>
       </c>
       <c r="J55" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G56" t="n">
         <v>27.78</v>
@@ -2788,7 +2788,7 @@
         <v>100</v>
       </c>
       <c r="J56" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>100</v>
       </c>
       <c r="J60" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>100</v>
       </c>
       <c r="J69" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G71" t="n">
         <v>100</v>
@@ -3414,7 +3414,7 @@
         <v>100</v>
       </c>
       <c r="J71" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>100</v>
       </c>
       <c r="J74" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>74.97</v>
+        <v>70</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>100</v>
       </c>
       <c r="J84" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G95" t="n">
         <v>16.67</v>
@@ -4414,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="J95" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>100</v>
       </c>
       <c r="J102" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103">
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>100</v>
       </c>
       <c r="J113" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>100</v>
       </c>
       <c r="J116" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117">
@@ -5738,7 +5738,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>100</v>
       </c>
       <c r="J127" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G129" t="n">
         <v>16.67</v>
@@ -5834,7 +5834,7 @@
         <v>100</v>
       </c>
       <c r="J129" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130">
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G130" t="n">
         <v>5.56</v>
@@ -5876,7 +5876,7 @@
         <v>100</v>
       </c>
       <c r="J130" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131">
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G131" t="n">
         <v>100</v>
@@ -5918,7 +5918,7 @@
         <v>100</v>
       </c>
       <c r="J131" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132">
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G132" t="n">
         <v>100</v>
@@ -5960,7 +5960,7 @@
         <v>100</v>
       </c>
       <c r="J132" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133">
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>68.13</v>
+        <v>58.18</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>100</v>
       </c>
       <c r="J141" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142">
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>100</v>
       </c>
       <c r="J142" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143">
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G147" t="n">
         <v>5.56</v>
@@ -6590,7 +6590,7 @@
         <v>100</v>
       </c>
       <c r="J147" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148">
@@ -6620,7 +6620,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G148" t="n">
         <v>100</v>
@@ -6632,7 +6632,7 @@
         <v>100</v>
       </c>
       <c r="J148" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="G149" t="n">
         <v>100</v>
@@ -6674,7 +6674,7 @@
         <v>60</v>
       </c>
       <c r="J149" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150">
@@ -6704,7 +6704,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G150" t="n">
         <v>100</v>
@@ -6716,7 +6716,7 @@
         <v>100</v>
       </c>
       <c r="J150" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151">
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G152" t="n">
         <v>16.67</v>
@@ -6800,7 +6800,7 @@
         <v>100</v>
       </c>
       <c r="J152" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153">
@@ -7124,7 +7124,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G160" t="n">
         <v>27.78</v>
@@ -7136,7 +7136,7 @@
         <v>100</v>
       </c>
       <c r="J160" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161">
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G161" t="n">
         <v>5.56</v>
@@ -7178,7 +7178,7 @@
         <v>100</v>
       </c>
       <c r="J161" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162">
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G162" t="n">
         <v>100</v>
@@ -7220,7 +7220,7 @@
         <v>100</v>
       </c>
       <c r="J162" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163">
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="G163" t="n">
         <v>100</v>
@@ -7262,7 +7262,7 @@
         <v>60</v>
       </c>
       <c r="J163" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164">
@@ -7544,7 +7544,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G170" t="n">
         <v>16.67</v>
@@ -7556,7 +7556,7 @@
         <v>100</v>
       </c>
       <c r="J170" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G172" t="n">
         <v>27.78</v>
@@ -7640,7 +7640,7 @@
         <v>100</v>
       </c>
       <c r="J172" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173">
@@ -7670,7 +7670,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G173" t="n">
         <v>5.56</v>
@@ -7682,7 +7682,7 @@
         <v>100</v>
       </c>
       <c r="J173" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G174" t="n">
         <v>100</v>
@@ -7724,7 +7724,7 @@
         <v>100</v>
       </c>
       <c r="J174" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175">
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G179" t="n">
         <v>16.67</v>
@@ -7934,7 +7934,7 @@
         <v>100</v>
       </c>
       <c r="J179" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180">
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G180" t="n">
         <v>100</v>
@@ -7976,7 +7976,7 @@
         <v>100</v>
       </c>
       <c r="J180" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181">
@@ -8006,7 +8006,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G181" t="n">
         <v>5.56</v>
@@ -8018,7 +8018,7 @@
         <v>100</v>
       </c>
       <c r="J181" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182">
@@ -8048,7 +8048,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G182" t="n">
         <v>100</v>
@@ -8060,7 +8060,7 @@
         <v>100</v>
       </c>
       <c r="J182" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183">
@@ -8090,7 +8090,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G183" t="n">
         <v>100</v>
@@ -8102,7 +8102,7 @@
         <v>100</v>
       </c>
       <c r="J183" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="184">
@@ -8174,7 +8174,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G185" t="n">
         <v>27.78</v>
@@ -8186,7 +8186,7 @@
         <v>100</v>
       </c>
       <c r="J185" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186">
@@ -8426,7 +8426,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G191" t="n">
         <v>16.67</v>
@@ -8438,7 +8438,7 @@
         <v>100</v>
       </c>
       <c r="J191" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192">
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G199" t="n">
         <v>27.78</v>
@@ -8770,7 +8770,7 @@
         <v>100</v>
       </c>
       <c r="J199" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200">
@@ -8800,7 +8800,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G200" t="n">
         <v>5.56</v>
@@ -8812,7 +8812,7 @@
         <v>100</v>
       </c>
       <c r="J200" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201">
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G201" t="n">
         <v>100</v>
@@ -8854,7 +8854,7 @@
         <v>100</v>
       </c>
       <c r="J201" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202">
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="G202" t="n">
         <v>100</v>
@@ -8896,7 +8896,7 @@
         <v>60</v>
       </c>
       <c r="J202" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="203">
@@ -8968,7 +8968,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G204" t="n">
         <v>16.67</v>
@@ -8980,7 +8980,7 @@
         <v>100</v>
       </c>
       <c r="J204" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205">
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G213" t="n">
         <v>27.78</v>
@@ -9354,7 +9354,7 @@
         <v>100</v>
       </c>
       <c r="J213" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="214">
@@ -9384,7 +9384,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G214" t="n">
         <v>5.56</v>
@@ -9396,7 +9396,7 @@
         <v>100</v>
       </c>
       <c r="J214" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G215" t="n">
         <v>100</v>
@@ -9438,7 +9438,7 @@
         <v>100</v>
       </c>
       <c r="J215" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216">
@@ -9468,7 +9468,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="G216" t="n">
         <v>100</v>
@@ -9480,7 +9480,7 @@
         <v>60</v>
       </c>
       <c r="J216" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="217">
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G217" t="n">
         <v>100</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="J217" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218">
@@ -9594,7 +9594,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G219" t="n">
         <v>16.67</v>
@@ -9606,7 +9606,7 @@
         <v>100</v>
       </c>
       <c r="J219" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="220">
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G220" t="n">
         <v>5.56</v>
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="J220" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221">
@@ -9678,7 +9678,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G221" t="n">
         <v>100</v>
@@ -9690,7 +9690,7 @@
         <v>100</v>
       </c>
       <c r="J221" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222">
@@ -9720,7 +9720,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G222" t="n">
         <v>100</v>
@@ -9732,7 +9732,7 @@
         <v>100</v>
       </c>
       <c r="J222" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223">
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G226" t="n">
         <v>27.78</v>
@@ -9900,7 +9900,7 @@
         <v>100</v>
       </c>
       <c r="J226" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="227">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G228" t="n">
         <v>16.67</v>
@@ -9984,7 +9984,7 @@
         <v>100</v>
       </c>
       <c r="J228" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="229">
@@ -10014,7 +10014,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="G229" t="n">
         <v>100</v>
@@ -10026,7 +10026,7 @@
         <v>60</v>
       </c>
       <c r="J229" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="230">
@@ -10056,7 +10056,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G230" t="n">
         <v>5.56</v>
@@ -10068,7 +10068,7 @@
         <v>100</v>
       </c>
       <c r="J230" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231">
@@ -10098,7 +10098,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G231" t="n">
         <v>100</v>
@@ -10110,7 +10110,7 @@
         <v>100</v>
       </c>
       <c r="J231" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232">
@@ -10140,7 +10140,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G232" t="n">
         <v>100</v>
@@ -10152,7 +10152,7 @@
         <v>100</v>
       </c>
       <c r="J232" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233">
@@ -10350,7 +10350,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G237" t="n">
         <v>27.78</v>
@@ -10362,7 +10362,7 @@
         <v>100</v>
       </c>
       <c r="J237" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238">
@@ -10434,7 +10434,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G239" t="n">
         <v>16.67</v>
@@ -10446,7 +10446,7 @@
         <v>100</v>
       </c>
       <c r="J239" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240">
@@ -10476,7 +10476,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="G240" t="n">
         <v>100</v>
@@ -10488,7 +10488,7 @@
         <v>60</v>
       </c>
       <c r="J240" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="241">
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>39.75</v>
+        <v>34.77</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>50</v>
       </c>
       <c r="J243" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244">
@@ -10850,7 +10850,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G249" t="n">
         <v>16.67</v>
@@ -10862,7 +10862,7 @@
         <v>100</v>
       </c>
       <c r="J249" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="250">
@@ -10892,7 +10892,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G250" t="n">
         <v>16.67</v>
@@ -10904,7 +10904,7 @@
         <v>100</v>
       </c>
       <c r="J250" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="251">
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -11198,7 +11198,7 @@
         <v>100</v>
       </c>
       <c r="J257" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258">
@@ -11228,7 +11228,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G258" t="n">
         <v>0</v>
@@ -11240,7 +11240,7 @@
         <v>100</v>
       </c>
       <c r="J258" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259">
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G260" t="n">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>100</v>
       </c>
       <c r="J260" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G262" t="n">
         <v>16.67</v>
@@ -11408,7 +11408,7 @@
         <v>100</v>
       </c>
       <c r="J262" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263">
@@ -11648,7 +11648,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G268" t="n">
         <v>0</v>
@@ -11660,7 +11660,7 @@
         <v>100</v>
       </c>
       <c r="J268" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269">
@@ -11774,7 +11774,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G271" t="n">
         <v>16.67</v>
@@ -11786,7 +11786,7 @@
         <v>100</v>
       </c>
       <c r="J271" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="272">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G277" t="n">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>100</v>
       </c>
       <c r="J277" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="278">
@@ -12152,7 +12152,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G280" t="n">
         <v>16.67</v>
@@ -12164,7 +12164,7 @@
         <v>100</v>
       </c>
       <c r="J280" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="281">
@@ -12404,7 +12404,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
@@ -12416,7 +12416,7 @@
         <v>100</v>
       </c>
       <c r="J286" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287">
@@ -12530,7 +12530,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G289" t="n">
         <v>16.67</v>
@@ -12542,7 +12542,7 @@
         <v>100</v>
       </c>
       <c r="J289" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290">
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G295" t="n">
         <v>0</v>
@@ -12794,7 +12794,7 @@
         <v>100</v>
       </c>
       <c r="J295" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="296">
@@ -12908,7 +12908,7 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G298" t="n">
         <v>16.67</v>
@@ -12920,7 +12920,7 @@
         <v>100</v>
       </c>
       <c r="J298" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299">
@@ -13160,7 +13160,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G304" t="n">
         <v>0</v>
@@ -13172,7 +13172,7 @@
         <v>100</v>
       </c>
       <c r="J304" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305">
@@ -13286,7 +13286,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G307" t="n">
         <v>16.67</v>
@@ -13298,7 +13298,7 @@
         <v>100</v>
       </c>
       <c r="J307" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308">
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G313" t="n">
         <v>0</v>
@@ -13550,7 +13550,7 @@
         <v>100</v>
       </c>
       <c r="J313" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="314">
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G316" t="n">
         <v>16.67</v>
@@ -13676,7 +13676,7 @@
         <v>100</v>
       </c>
       <c r="J316" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317">
@@ -14084,7 +14084,7 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G326" t="n">
         <v>16.67</v>
@@ -14096,7 +14096,7 @@
         <v>100</v>
       </c>
       <c r="J326" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="327">
@@ -14462,7 +14462,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G335" t="n">
         <v>0</v>
@@ -14474,7 +14474,7 @@
         <v>100</v>
       </c>
       <c r="J335" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="336">
@@ -14840,7 +14840,7 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G344" t="n">
         <v>5.56</v>
@@ -14852,7 +14852,7 @@
         <v>100</v>
       </c>
       <c r="J344" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="345">
@@ -14882,7 +14882,7 @@
         </is>
       </c>
       <c r="F345" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G345" t="n">
         <v>100</v>
@@ -14894,7 +14894,7 @@
         <v>100</v>
       </c>
       <c r="J345" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="346">
@@ -15008,7 +15008,7 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>65.90000000000001</v>
+        <v>63.41</v>
       </c>
       <c r="G348" t="n">
         <v>0</v>
@@ -15020,7 +15020,7 @@
         <v>100</v>
       </c>
       <c r="J348" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="349">
@@ -15134,7 +15134,7 @@
         </is>
       </c>
       <c r="F351" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G351" t="n">
         <v>27.78</v>
@@ -15146,7 +15146,7 @@
         <v>100</v>
       </c>
       <c r="J351" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="352">
@@ -15218,7 +15218,7 @@
         </is>
       </c>
       <c r="F353" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G353" t="n">
         <v>16.67</v>
@@ -15230,7 +15230,7 @@
         <v>100</v>
       </c>
       <c r="J353" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="354">
@@ -15550,7 +15550,7 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G361" t="n">
         <v>27.78</v>
@@ -15562,7 +15562,7 @@
         <v>100</v>
       </c>
       <c r="J361" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="362">
@@ -16180,7 +16180,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>77.23</v>
+        <v>69.77</v>
       </c>
       <c r="G376" t="n">
         <v>100</v>
@@ -16192,7 +16192,7 @@
         <v>100</v>
       </c>
       <c r="J376" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="377">
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G377" t="n">
         <v>100</v>
@@ -16234,7 +16234,7 @@
         <v>100</v>
       </c>
       <c r="J377" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="378">
@@ -16344,7 +16344,7 @@
       </c>
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
@@ -16356,7 +16356,7 @@
         <v>100</v>
       </c>
       <c r="J380" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="381">
@@ -16680,7 +16680,7 @@
         </is>
       </c>
       <c r="F388" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G388" t="n">
         <v>0</v>
@@ -16692,7 +16692,7 @@
         <v>100</v>
       </c>
       <c r="J388" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="389">
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="F390" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G390" t="n">
         <v>16.67</v>
@@ -16776,7 +16776,7 @@
         <v>100</v>
       </c>
       <c r="J390" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="391">
@@ -17016,7 +17016,7 @@
         </is>
       </c>
       <c r="F396" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G396" t="n">
         <v>100</v>
@@ -17028,7 +17028,7 @@
         <v>100</v>
       </c>
       <c r="J396" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="397">
@@ -17058,7 +17058,7 @@
         </is>
       </c>
       <c r="F397" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -17070,7 +17070,7 @@
         <v>100</v>
       </c>
       <c r="J397" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="398">
@@ -17474,7 +17474,7 @@
         </is>
       </c>
       <c r="F407" t="n">
-        <v>39.75</v>
+        <v>34.77</v>
       </c>
       <c r="G407" t="n">
         <v>0</v>
@@ -17486,7 +17486,7 @@
         <v>50</v>
       </c>
       <c r="J407" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="408">
@@ -17516,7 +17516,7 @@
         </is>
       </c>
       <c r="F408" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G408" t="n">
         <v>27.78</v>
@@ -17528,7 +17528,7 @@
         <v>100</v>
       </c>
       <c r="J408" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="409">
@@ -18180,7 +18180,7 @@
         </is>
       </c>
       <c r="F424" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G424" t="n">
         <v>0</v>
@@ -18192,7 +18192,7 @@
         <v>100</v>
       </c>
       <c r="J424" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="425">
@@ -18218,7 +18218,7 @@
       </c>
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G425" t="n">
         <v>0</v>
@@ -18230,7 +18230,7 @@
         <v>100</v>
       </c>
       <c r="J425" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="426">
@@ -18512,7 +18512,7 @@
         </is>
       </c>
       <c r="F432" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G432" t="n">
         <v>0</v>
@@ -18524,7 +18524,7 @@
         <v>100</v>
       </c>
       <c r="J432" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="433">
@@ -18554,7 +18554,7 @@
         </is>
       </c>
       <c r="F433" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G433" t="n">
         <v>0</v>
@@ -18566,7 +18566,7 @@
         <v>100</v>
       </c>
       <c r="J433" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="434">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="F434" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G434" t="n">
         <v>0</v>
@@ -18608,7 +18608,7 @@
         <v>100</v>
       </c>
       <c r="J434" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="435">
@@ -18764,7 +18764,7 @@
         </is>
       </c>
       <c r="F438" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="G438" t="n">
         <v>100</v>
@@ -18776,7 +18776,7 @@
         <v>60</v>
       </c>
       <c r="J438" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="439">
@@ -18806,7 +18806,7 @@
         </is>
       </c>
       <c r="F439" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G439" t="n">
         <v>100</v>
@@ -18818,7 +18818,7 @@
         <v>100</v>
       </c>
       <c r="J439" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="440">
@@ -18966,7 +18966,7 @@
       </c>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G443" t="n">
         <v>0</v>
@@ -18978,7 +18978,7 @@
         <v>100</v>
       </c>
       <c r="J443" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="444">
@@ -19050,7 +19050,7 @@
         </is>
       </c>
       <c r="F445" t="n">
-        <v>77.23</v>
+        <v>69.77</v>
       </c>
       <c r="G445" t="n">
         <v>100</v>
@@ -19062,7 +19062,7 @@
         <v>100</v>
       </c>
       <c r="J445" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="446">
@@ -19386,7 +19386,7 @@
         </is>
       </c>
       <c r="F453" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G453" t="n">
         <v>16.67</v>
@@ -19398,7 +19398,7 @@
         <v>100</v>
       </c>
       <c r="J453" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="454">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G462" t="n">
         <v>0</v>
@@ -19768,7 +19768,7 @@
         <v>100</v>
       </c>
       <c r="J462" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="463">
@@ -19798,7 +19798,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G463" t="n">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>100</v>
       </c>
       <c r="J463" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="464">
@@ -20088,7 +20088,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G470" t="n">
         <v>0</v>
@@ -20100,7 +20100,7 @@
         <v>100</v>
       </c>
       <c r="J470" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="471">
@@ -20126,7 +20126,7 @@
       </c>
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G471" t="n">
         <v>0</v>
@@ -20138,7 +20138,7 @@
         <v>100</v>
       </c>
       <c r="J471" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="472">
@@ -20294,7 +20294,7 @@
         </is>
       </c>
       <c r="F475" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G475" t="n">
         <v>0</v>
@@ -20306,7 +20306,7 @@
         <v>100</v>
       </c>
       <c r="J475" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="476">
@@ -20584,7 +20584,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G482" t="n">
         <v>0</v>
@@ -20596,7 +20596,7 @@
         <v>100</v>
       </c>
       <c r="J482" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="483">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="E483" t="inlineStr"/>
       <c r="F483" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G483" t="n">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>100</v>
       </c>
       <c r="J483" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="484">
@@ -21042,7 +21042,7 @@
         </is>
       </c>
       <c r="F493" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G493" t="n">
         <v>0</v>
@@ -21054,7 +21054,7 @@
         <v>100</v>
       </c>
       <c r="J493" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="494">
@@ -21080,7 +21080,7 @@
       </c>
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G494" t="n">
         <v>0</v>
@@ -21092,7 +21092,7 @@
         <v>100</v>
       </c>
       <c r="J494" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="495">
@@ -21164,7 +21164,7 @@
         </is>
       </c>
       <c r="F496" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G496" t="n">
         <v>0</v>
@@ -21176,7 +21176,7 @@
         <v>100</v>
       </c>
       <c r="J496" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="497">
@@ -21248,7 +21248,7 @@
         </is>
       </c>
       <c r="F498" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G498" t="n">
         <v>0</v>
@@ -21260,7 +21260,7 @@
         <v>100</v>
       </c>
       <c r="J498" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="499">
@@ -21580,7 +21580,7 @@
         </is>
       </c>
       <c r="F506" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G506" t="n">
         <v>0</v>
@@ -21592,7 +21592,7 @@
         <v>100</v>
       </c>
       <c r="J506" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="507">
@@ -21874,7 +21874,7 @@
         </is>
       </c>
       <c r="F513" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G513" t="n">
         <v>0</v>
@@ -21886,7 +21886,7 @@
         <v>100</v>
       </c>
       <c r="J513" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="514">
@@ -22080,7 +22080,7 @@
         </is>
       </c>
       <c r="F518" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G518" t="n">
         <v>0</v>
@@ -22092,7 +22092,7 @@
         <v>100</v>
       </c>
       <c r="J518" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="519">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="E526" t="inlineStr"/>
       <c r="F526" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G526" t="n">
         <v>0</v>
@@ -22420,7 +22420,7 @@
         <v>100</v>
       </c>
       <c r="J526" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="527">
@@ -22866,7 +22866,7 @@
       </c>
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G537" t="n">
         <v>0</v>
@@ -22878,7 +22878,7 @@
         <v>100</v>
       </c>
       <c r="J537" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="538">
@@ -23362,7 +23362,7 @@
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G549" t="n">
         <v>0</v>
@@ -23374,7 +23374,7 @@
         <v>100</v>
       </c>
       <c r="J549" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="550">
@@ -23652,7 +23652,7 @@
       </c>
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G556" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>100</v>
       </c>
       <c r="J556" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="557">
@@ -23694,7 +23694,7 @@
         </is>
       </c>
       <c r="F557" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G557" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>100</v>
       </c>
       <c r="J557" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="558">
@@ -23904,7 +23904,7 @@
         </is>
       </c>
       <c r="F562" t="n">
-        <v>27.23</v>
+        <v>19.77</v>
       </c>
       <c r="G562" t="n">
         <v>0</v>
@@ -23916,7 +23916,7 @@
         <v>0</v>
       </c>
       <c r="J562" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="563">
@@ -23988,7 +23988,7 @@
         </is>
       </c>
       <c r="F564" t="n">
-        <v>27.23</v>
+        <v>19.77</v>
       </c>
       <c r="G564" t="n">
         <v>0</v>
@@ -24000,7 +24000,7 @@
         <v>0</v>
       </c>
       <c r="J564" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="565">
@@ -24114,7 +24114,7 @@
         </is>
       </c>
       <c r="F567" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G567" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         <v>100</v>
       </c>
       <c r="J567" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="568">
@@ -24492,7 +24492,7 @@
         </is>
       </c>
       <c r="F576" t="n">
-        <v>70.42</v>
+        <v>62.95</v>
       </c>
       <c r="G576" t="n">
         <v>0</v>
@@ -24504,7 +24504,7 @@
         <v>100</v>
       </c>
       <c r="J576" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="577">
@@ -24576,7 +24576,7 @@
         </is>
       </c>
       <c r="F578" t="n">
-        <v>27.23</v>
+        <v>19.77</v>
       </c>
       <c r="G578" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="J578" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="579">
@@ -24870,7 +24870,7 @@
         </is>
       </c>
       <c r="F585" t="n">
-        <v>65.90000000000001</v>
+        <v>63.41</v>
       </c>
       <c r="G585" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>100</v>
       </c>
       <c r="J585" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="586">
@@ -24912,7 +24912,7 @@
         </is>
       </c>
       <c r="F586" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G586" t="n">
         <v>100</v>
@@ -24924,7 +24924,7 @@
         <v>100</v>
       </c>
       <c r="J586" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="587">
@@ -24954,7 +24954,7 @@
         </is>
       </c>
       <c r="F587" t="n">
-        <v>27.22</v>
+        <v>17.27</v>
       </c>
       <c r="G587" t="n">
         <v>0</v>
@@ -24966,7 +24966,7 @@
         <v>0</v>
       </c>
       <c r="J587" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="588">
@@ -25080,7 +25080,7 @@
         </is>
       </c>
       <c r="F590" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G590" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>100</v>
       </c>
       <c r="J590" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="591">
@@ -25248,7 +25248,7 @@
         </is>
       </c>
       <c r="F594" t="n">
-        <v>27.22</v>
+        <v>17.27</v>
       </c>
       <c r="G594" t="n">
         <v>0</v>
@@ -25260,7 +25260,7 @@
         <v>0</v>
       </c>
       <c r="J594" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="595">
@@ -25290,7 +25290,7 @@
         </is>
       </c>
       <c r="F595" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G595" t="n">
         <v>100</v>
@@ -25302,7 +25302,7 @@
         <v>100</v>
       </c>
       <c r="J595" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="596">
@@ -25542,7 +25542,7 @@
         </is>
       </c>
       <c r="F601" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G601" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>100</v>
       </c>
       <c r="J601" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="602">
@@ -25626,7 +25626,7 @@
         </is>
       </c>
       <c r="F603" t="n">
-        <v>74.97</v>
+        <v>70</v>
       </c>
       <c r="G603" t="n">
         <v>0</v>
@@ -25638,7 +25638,7 @@
         <v>100</v>
       </c>
       <c r="J603" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="604">
@@ -25668,7 +25668,7 @@
         </is>
       </c>
       <c r="F604" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G604" t="n">
         <v>0</v>
@@ -25680,7 +25680,7 @@
         <v>100</v>
       </c>
       <c r="J604" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="605">
@@ -25794,7 +25794,7 @@
         </is>
       </c>
       <c r="F607" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G607" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>100</v>
       </c>
       <c r="J607" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="608">
@@ -26000,7 +26000,7 @@
         </is>
       </c>
       <c r="F612" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G612" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>100</v>
       </c>
       <c r="J612" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="613">
@@ -26038,7 +26038,7 @@
       </c>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G613" t="n">
         <v>0</v>
@@ -26050,7 +26050,7 @@
         <v>100</v>
       </c>
       <c r="J613" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="614">
@@ -26080,7 +26080,7 @@
         </is>
       </c>
       <c r="F614" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G614" t="n">
         <v>0</v>
@@ -26092,7 +26092,7 @@
         <v>100</v>
       </c>
       <c r="J614" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="615">
@@ -26122,7 +26122,7 @@
         </is>
       </c>
       <c r="F615" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G615" t="n">
         <v>0</v>
@@ -26134,7 +26134,7 @@
         <v>100</v>
       </c>
       <c r="J615" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="616">
@@ -26206,7 +26206,7 @@
         </is>
       </c>
       <c r="F617" t="n">
-        <v>68.13</v>
+        <v>58.18</v>
       </c>
       <c r="G617" t="n">
         <v>0</v>
@@ -26218,7 +26218,7 @@
         <v>100</v>
       </c>
       <c r="J617" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="618">
@@ -26412,7 +26412,7 @@
         </is>
       </c>
       <c r="F622" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G622" t="n">
         <v>5.56</v>
@@ -26424,7 +26424,7 @@
         <v>100</v>
       </c>
       <c r="J622" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="623">
@@ -26454,7 +26454,7 @@
         </is>
       </c>
       <c r="F623" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="G623" t="n">
         <v>27.78</v>
@@ -26466,7 +26466,7 @@
         <v>100</v>
       </c>
       <c r="J623" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="624">
@@ -26576,7 +26576,7 @@
       </c>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="G626" t="n">
         <v>0</v>
@@ -26588,7 +26588,7 @@
         <v>100</v>
       </c>
       <c r="J626" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="627">
@@ -26660,7 +26660,7 @@
         </is>
       </c>
       <c r="F628" t="n">
-        <v>34.75</v>
+        <v>29.77</v>
       </c>
       <c r="G628" t="n">
         <v>0</v>
@@ -26672,7 +26672,7 @@
         <v>30</v>
       </c>
       <c r="J628" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="629">
@@ -26702,7 +26702,7 @@
         </is>
       </c>
       <c r="F629" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G629" t="n">
         <v>0</v>
@@ -26714,7 +26714,7 @@
         <v>100</v>
       </c>
       <c r="J629" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="630">
@@ -26744,7 +26744,7 @@
         </is>
       </c>
       <c r="F630" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G630" t="n">
         <v>0</v>
@@ -26756,7 +26756,7 @@
         <v>100</v>
       </c>
       <c r="J630" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="631">
@@ -26870,7 +26870,7 @@
         </is>
       </c>
       <c r="F633" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G633" t="n">
         <v>0</v>
@@ -26882,7 +26882,7 @@
         <v>100</v>
       </c>
       <c r="J633" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="634">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="F636" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G636" t="n">
         <v>0</v>
@@ -27008,7 +27008,7 @@
         <v>100</v>
       </c>
       <c r="J636" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="637">
@@ -27038,7 +27038,7 @@
         </is>
       </c>
       <c r="F637" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G637" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>100</v>
       </c>
       <c r="J637" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="638">
@@ -27206,7 +27206,7 @@
         </is>
       </c>
       <c r="F641" t="n">
-        <v>34.75</v>
+        <v>29.77</v>
       </c>
       <c r="G641" t="n">
         <v>0</v>
@@ -27218,7 +27218,7 @@
         <v>30</v>
       </c>
       <c r="J641" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="642">
@@ -27370,7 +27370,7 @@
         </is>
       </c>
       <c r="F645" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G645" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>100</v>
       </c>
       <c r="J645" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="646">
@@ -27454,7 +27454,7 @@
         </is>
       </c>
       <c r="F647" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G647" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>100</v>
       </c>
       <c r="J647" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="648">
@@ -28168,7 +28168,7 @@
         </is>
       </c>
       <c r="F664" t="n">
-        <v>34.75</v>
+        <v>29.77</v>
       </c>
       <c r="G664" t="n">
         <v>0</v>
@@ -28180,7 +28180,7 @@
         <v>30</v>
       </c>
       <c r="J664" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="665">
@@ -28336,7 +28336,7 @@
         </is>
       </c>
       <c r="F668" t="n">
-        <v>34.75</v>
+        <v>29.77</v>
       </c>
       <c r="G668" t="n">
         <v>0</v>
@@ -28348,7 +28348,7 @@
         <v>30</v>
       </c>
       <c r="J668" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="669">
@@ -28462,7 +28462,7 @@
         </is>
       </c>
       <c r="F671" t="n">
-        <v>39.75</v>
+        <v>34.77</v>
       </c>
       <c r="G671" t="n">
         <v>0</v>
@@ -28474,7 +28474,7 @@
         <v>50</v>
       </c>
       <c r="J671" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="672">
@@ -28630,7 +28630,7 @@
         </is>
       </c>
       <c r="F675" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G675" t="n">
         <v>0</v>
@@ -28642,7 +28642,7 @@
         <v>100</v>
       </c>
       <c r="J675" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="676">
@@ -28672,7 +28672,7 @@
         </is>
       </c>
       <c r="F676" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G676" t="n">
         <v>0</v>
@@ -28684,7 +28684,7 @@
         <v>100</v>
       </c>
       <c r="J676" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="677">
@@ -28714,7 +28714,7 @@
         </is>
       </c>
       <c r="F677" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G677" t="n">
         <v>0</v>
@@ -28726,7 +28726,7 @@
         <v>100</v>
       </c>
       <c r="J677" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="678">
@@ -28878,7 +28878,7 @@
         </is>
       </c>
       <c r="F681" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G681" t="n">
         <v>0</v>
@@ -28890,7 +28890,7 @@
         <v>100</v>
       </c>
       <c r="J681" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="682">
@@ -29130,7 +29130,7 @@
         </is>
       </c>
       <c r="F687" t="n">
-        <v>77.23</v>
+        <v>69.77</v>
       </c>
       <c r="G687" t="n">
         <v>100</v>
@@ -29142,7 +29142,7 @@
         <v>100</v>
       </c>
       <c r="J687" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="688">
@@ -29172,7 +29172,7 @@
         </is>
       </c>
       <c r="F688" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G688" t="n">
         <v>100</v>
@@ -29184,7 +29184,7 @@
         <v>100</v>
       </c>
       <c r="J688" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="689">
@@ -29214,7 +29214,7 @@
         </is>
       </c>
       <c r="F689" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G689" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>100</v>
       </c>
       <c r="J689" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="690">
@@ -29508,7 +29508,7 @@
         </is>
       </c>
       <c r="F696" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="G696" t="n">
         <v>16.67</v>
@@ -29520,7 +29520,7 @@
         <v>100</v>
       </c>
       <c r="J696" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="697">
@@ -29550,7 +29550,7 @@
         </is>
       </c>
       <c r="F697" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G697" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>100</v>
       </c>
       <c r="J697" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="698">
@@ -29966,7 +29966,7 @@
         </is>
       </c>
       <c r="F707" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G707" t="n">
         <v>0</v>
@@ -29978,7 +29978,7 @@
         <v>100</v>
       </c>
       <c r="J707" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="708">
@@ -30172,7 +30172,7 @@
         </is>
       </c>
       <c r="F712" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G712" t="n">
         <v>0</v>
@@ -30184,7 +30184,7 @@
         <v>100</v>
       </c>
       <c r="J712" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="713">
@@ -30214,7 +30214,7 @@
         </is>
       </c>
       <c r="F713" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G713" t="n">
         <v>100</v>
@@ -30226,7 +30226,7 @@
         <v>100</v>
       </c>
       <c r="J713" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="714">
@@ -30256,7 +30256,7 @@
         </is>
       </c>
       <c r="F714" t="n">
-        <v>77.23</v>
+        <v>69.77</v>
       </c>
       <c r="G714" t="n">
         <v>100</v>
@@ -30268,7 +30268,7 @@
         <v>100</v>
       </c>
       <c r="J714" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="715">
@@ -30424,7 +30424,7 @@
         </is>
       </c>
       <c r="F718" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G718" t="n">
         <v>0</v>
@@ -30436,7 +30436,7 @@
         <v>100</v>
       </c>
       <c r="J718" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="719">
@@ -31264,7 +31264,7 @@
         </is>
       </c>
       <c r="F738" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G738" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>100</v>
       </c>
       <c r="J738" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="739">
@@ -32012,7 +32012,7 @@
         </is>
       </c>
       <c r="F756" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G756" t="n">
         <v>0</v>
@@ -32024,7 +32024,7 @@
         <v>100</v>
       </c>
       <c r="J756" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="757">
@@ -32138,7 +32138,7 @@
         </is>
       </c>
       <c r="F759" t="n">
-        <v>27.23</v>
+        <v>19.77</v>
       </c>
       <c r="G759" t="n">
         <v>0</v>
@@ -32150,7 +32150,7 @@
         <v>0</v>
       </c>
       <c r="J759" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="760">
@@ -32180,7 +32180,7 @@
         </is>
       </c>
       <c r="F760" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G760" t="n">
         <v>0</v>
@@ -32192,7 +32192,7 @@
         <v>100</v>
       </c>
       <c r="J760" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="761">
@@ -32222,7 +32222,7 @@
         </is>
       </c>
       <c r="F761" t="n">
-        <v>38.74</v>
+        <v>13.86</v>
       </c>
       <c r="G761" t="n">
         <v>0</v>
@@ -32234,7 +32234,7 @@
         <v>10</v>
       </c>
       <c r="J761" t="n">
-        <v>99.51000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -32264,7 +32264,7 @@
         </is>
       </c>
       <c r="F762" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G762" t="n">
         <v>100</v>
@@ -32276,7 +32276,7 @@
         <v>100</v>
       </c>
       <c r="J762" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="763">
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="F763" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G763" t="n">
         <v>100</v>
@@ -32318,7 +32318,7 @@
         <v>100</v>
       </c>
       <c r="J763" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="764">
@@ -32516,7 +32516,7 @@
         </is>
       </c>
       <c r="F768" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G768" t="n">
         <v>0</v>
@@ -32528,7 +32528,7 @@
         <v>100</v>
       </c>
       <c r="J768" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="769">
@@ -32680,7 +32680,7 @@
         </is>
       </c>
       <c r="F772" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="G772" t="n">
         <v>100</v>
@@ -32692,7 +32692,7 @@
         <v>100</v>
       </c>
       <c r="J772" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="773">
@@ -32722,7 +32722,7 @@
         </is>
       </c>
       <c r="F773" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G773" t="n">
         <v>100</v>
@@ -32734,7 +32734,7 @@
         <v>100</v>
       </c>
       <c r="J773" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="774">
@@ -32890,7 +32890,7 @@
         </is>
       </c>
       <c r="F777" t="n">
-        <v>27.23</v>
+        <v>19.77</v>
       </c>
       <c r="G777" t="n">
         <v>0</v>
@@ -32902,7 +32902,7 @@
         <v>0</v>
       </c>
       <c r="J777" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="778">
@@ -32974,7 +32974,7 @@
         </is>
       </c>
       <c r="F779" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G779" t="n">
         <v>0</v>
@@ -32986,7 +32986,7 @@
         <v>100</v>
       </c>
       <c r="J779" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="780">
@@ -33058,7 +33058,7 @@
         </is>
       </c>
       <c r="F781" t="n">
-        <v>61.35</v>
+        <v>58.86</v>
       </c>
       <c r="G781" t="n">
         <v>0</v>
@@ -33070,7 +33070,7 @@
         <v>100</v>
       </c>
       <c r="J781" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="782">
@@ -33138,7 +33138,7 @@
         </is>
       </c>
       <c r="F783" t="n">
-        <v>77.23</v>
+        <v>69.77</v>
       </c>
       <c r="G783" t="n">
         <v>100</v>
@@ -33150,7 +33150,7 @@
         <v>100</v>
       </c>
       <c r="J783" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="784">
@@ -33264,7 +33264,7 @@
         </is>
       </c>
       <c r="F786" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="G786" t="n">
         <v>100</v>
@@ -33276,7 +33276,7 @@
         <v>100</v>
       </c>
       <c r="J786" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="787">
@@ -33306,7 +33306,7 @@
         </is>
       </c>
       <c r="F787" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G787" t="n">
         <v>0</v>
@@ -33318,7 +33318,7 @@
         <v>100</v>
       </c>
       <c r="J787" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="788">
@@ -33600,7 +33600,7 @@
         </is>
       </c>
       <c r="F794" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G794" t="n">
         <v>0</v>
@@ -33612,7 +33612,7 @@
         <v>100</v>
       </c>
       <c r="J794" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="795">
@@ -33764,7 +33764,7 @@
         </is>
       </c>
       <c r="F798" t="n">
-        <v>74.97</v>
+        <v>70</v>
       </c>
       <c r="G798" t="n">
         <v>0</v>
@@ -33776,7 +33776,7 @@
         <v>100</v>
       </c>
       <c r="J798" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="799">
@@ -33844,7 +33844,7 @@
         </is>
       </c>
       <c r="F800" t="n">
-        <v>65.90000000000001</v>
+        <v>63.41</v>
       </c>
       <c r="G800" t="n">
         <v>0</v>
@@ -33856,7 +33856,7 @@
         <v>100</v>
       </c>
       <c r="J800" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="801">
@@ -33970,7 +33970,7 @@
         </is>
       </c>
       <c r="F803" t="n">
-        <v>72.69</v>
+        <v>65.23</v>
       </c>
       <c r="G803" t="n">
         <v>0</v>
@@ -33982,7 +33982,7 @@
         <v>100</v>
       </c>
       <c r="J803" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="804">
@@ -34264,7 +34264,7 @@
         </is>
       </c>
       <c r="F810" t="n">
-        <v>77.23</v>
+        <v>69.77</v>
       </c>
       <c r="G810" t="n">
         <v>100</v>
@@ -34276,7 +34276,7 @@
         <v>100</v>
       </c>
       <c r="J810" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="811">
@@ -34348,7 +34348,7 @@
         </is>
       </c>
       <c r="F812" t="n">
-        <v>77.23</v>
+        <v>69.77</v>
       </c>
       <c r="G812" t="n">
         <v>100</v>
@@ -34360,7 +34360,7 @@
         <v>100</v>
       </c>
       <c r="J812" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="813">
@@ -34432,7 +34432,7 @@
         </is>
       </c>
       <c r="F814" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="G814" t="n">
         <v>100</v>
@@ -34444,7 +34444,7 @@
         <v>60</v>
       </c>
       <c r="J814" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="815">
@@ -34474,7 +34474,7 @@
         </is>
       </c>
       <c r="F815" t="n">
-        <v>52.22</v>
+        <v>42.27</v>
       </c>
       <c r="G815" t="n">
         <v>0</v>
@@ -34486,7 +34486,7 @@
         <v>100</v>
       </c>
       <c r="J815" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="816">
@@ -34516,7 +34516,7 @@
         </is>
       </c>
       <c r="F816" t="n">
-        <v>66.72</v>
+        <v>51.79</v>
       </c>
       <c r="G816" t="n">
         <v>94.44</v>
@@ -34528,7 +34528,7 @@
         <v>0</v>
       </c>
       <c r="J816" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="817">
@@ -34642,7 +34642,7 @@
         </is>
       </c>
       <c r="F819" t="n">
-        <v>74.97</v>
+        <v>70</v>
       </c>
       <c r="G819" t="n">
         <v>0</v>
@@ -34654,7 +34654,7 @@
         <v>100</v>
       </c>
       <c r="J819" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="820">
@@ -34684,7 +34684,7 @@
         </is>
       </c>
       <c r="F820" t="n">
-        <v>50.66</v>
+        <v>45.68</v>
       </c>
       <c r="G820" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>30</v>
       </c>
       <c r="J820" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="821">
@@ -34810,7 +34810,7 @@
         </is>
       </c>
       <c r="F823" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G823" t="n">
         <v>0</v>
@@ -34822,7 +34822,7 @@
         <v>100</v>
       </c>
       <c r="J823" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="824">
@@ -35100,7 +35100,7 @@
         </is>
       </c>
       <c r="F830" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G830" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>100</v>
       </c>
       <c r="J830" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="831">
@@ -35142,7 +35142,7 @@
         </is>
       </c>
       <c r="F831" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G831" t="n">
         <v>0</v>
@@ -35154,7 +35154,7 @@
         <v>100</v>
       </c>
       <c r="J831" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="832">
@@ -35268,7 +35268,7 @@
         </is>
       </c>
       <c r="F834" t="n">
-        <v>77.23</v>
+        <v>69.77</v>
       </c>
       <c r="G834" t="n">
         <v>100</v>
@@ -35280,7 +35280,7 @@
         <v>100</v>
       </c>
       <c r="J834" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="835">
@@ -35310,7 +35310,7 @@
         </is>
       </c>
       <c r="F835" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="G835" t="n">
         <v>5.56</v>
@@ -35322,7 +35322,7 @@
         <v>100</v>
       </c>
       <c r="J835" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="836">
@@ -35520,7 +35520,7 @@
         </is>
       </c>
       <c r="F840" t="n">
-        <v>77.23</v>
+        <v>69.77</v>
       </c>
       <c r="G840" t="n">
         <v>100</v>
@@ -35532,7 +35532,7 @@
         <v>100</v>
       </c>
       <c r="J840" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="841">
@@ -35562,7 +35562,7 @@
         </is>
       </c>
       <c r="F841" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G841" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>100</v>
       </c>
       <c r="J841" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="842">
@@ -35772,7 +35772,7 @@
         </is>
       </c>
       <c r="F846" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G846" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>100</v>
       </c>
       <c r="J846" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="847">
@@ -35898,7 +35898,7 @@
         </is>
       </c>
       <c r="F849" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="G849" t="n">
         <v>0</v>
@@ -35910,7 +35910,7 @@
         <v>100</v>
       </c>
       <c r="J849" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="850">
@@ -35940,7 +35940,7 @@
         </is>
       </c>
       <c r="F850" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="G850" t="n">
         <v>0</v>
@@ -35952,7 +35952,7 @@
         <v>100</v>
       </c>
       <c r="J850" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="851">
@@ -35982,7 +35982,7 @@
         </is>
       </c>
       <c r="F851" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G851" t="n">
         <v>0</v>
@@ -35994,7 +35994,7 @@
         <v>100</v>
       </c>
       <c r="J851" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="852">
@@ -36024,7 +36024,7 @@
         </is>
       </c>
       <c r="F852" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="G852" t="n">
         <v>100</v>
@@ -36036,7 +36036,7 @@
         <v>60</v>
       </c>
       <c r="J852" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="853">
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="F853" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="G853" t="n">
         <v>0</v>
@@ -36078,7 +36078,7 @@
         <v>100</v>
       </c>
       <c r="J853" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="854">
@@ -36234,7 +36234,7 @@
         </is>
       </c>
       <c r="F857" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G857" t="n">
         <v>0</v>
@@ -36246,7 +36246,7 @@
         <v>100</v>
       </c>
       <c r="J857" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/df_recommendation_related_parameters.xlsx
+++ b/df_recommendation_related_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J857"/>
+  <dimension ref="A1:K857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>Recent (%)</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Occurence</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,9 @@
       <c r="J2" t="n">
         <v>100</v>
       </c>
+      <c r="K2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +576,9 @@
       <c r="J3" t="n">
         <v>100</v>
       </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +621,9 @@
       <c r="J4" t="n">
         <v>100</v>
       </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +666,9 @@
       <c r="J5" t="n">
         <v>100</v>
       </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +711,9 @@
       <c r="J6" t="n">
         <v>100</v>
       </c>
+      <c r="K6" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +756,9 @@
       <c r="J7" t="n">
         <v>90</v>
       </c>
+      <c r="K7" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +801,9 @@
       <c r="J8" t="n">
         <v>100</v>
       </c>
+      <c r="K8" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +846,9 @@
       <c r="J9" t="n">
         <v>90</v>
       </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -862,6 +891,9 @@
       <c r="J10" t="n">
         <v>100</v>
       </c>
+      <c r="K10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -904,6 +936,9 @@
       <c r="J11" t="n">
         <v>100</v>
       </c>
+      <c r="K11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -946,6 +981,9 @@
       <c r="J12" t="n">
         <v>100</v>
       </c>
+      <c r="K12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -988,6 +1026,9 @@
       <c r="J13" t="n">
         <v>100</v>
       </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1030,6 +1071,9 @@
       <c r="J14" t="n">
         <v>90</v>
       </c>
+      <c r="K14" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1072,6 +1116,9 @@
       <c r="J15" t="n">
         <v>100</v>
       </c>
+      <c r="K15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1114,6 +1161,9 @@
       <c r="J16" t="n">
         <v>100</v>
       </c>
+      <c r="K16" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1156,6 +1206,9 @@
       <c r="J17" t="n">
         <v>100</v>
       </c>
+      <c r="K17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1198,6 +1251,9 @@
       <c r="J18" t="n">
         <v>100</v>
       </c>
+      <c r="K18" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1240,6 +1296,9 @@
       <c r="J19" t="n">
         <v>100</v>
       </c>
+      <c r="K19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1282,6 +1341,9 @@
       <c r="J20" t="n">
         <v>100</v>
       </c>
+      <c r="K20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1324,6 +1386,9 @@
       <c r="J21" t="n">
         <v>100</v>
       </c>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1366,6 +1431,9 @@
       <c r="J22" t="n">
         <v>90</v>
       </c>
+      <c r="K22" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1408,6 +1476,9 @@
       <c r="J23" t="n">
         <v>100</v>
       </c>
+      <c r="K23" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1450,6 +1521,9 @@
       <c r="J24" t="n">
         <v>100</v>
       </c>
+      <c r="K24" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1492,6 +1566,9 @@
       <c r="J25" t="n">
         <v>100</v>
       </c>
+      <c r="K25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1534,6 +1611,9 @@
       <c r="J26" t="n">
         <v>70</v>
       </c>
+      <c r="K26" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1576,6 +1656,9 @@
       <c r="J27" t="n">
         <v>100</v>
       </c>
+      <c r="K27" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1618,6 +1701,9 @@
       <c r="J28" t="n">
         <v>90</v>
       </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1660,6 +1746,9 @@
       <c r="J29" t="n">
         <v>100</v>
       </c>
+      <c r="K29" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1702,6 +1791,9 @@
       <c r="J30" t="n">
         <v>100</v>
       </c>
+      <c r="K30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1744,6 +1836,9 @@
       <c r="J31" t="n">
         <v>100</v>
       </c>
+      <c r="K31" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1786,6 +1881,9 @@
       <c r="J32" t="n">
         <v>100</v>
       </c>
+      <c r="K32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1828,6 +1926,9 @@
       <c r="J33" t="n">
         <v>100</v>
       </c>
+      <c r="K33" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1870,6 +1971,9 @@
       <c r="J34" t="n">
         <v>100</v>
       </c>
+      <c r="K34" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1912,6 +2016,9 @@
       <c r="J35" t="n">
         <v>90</v>
       </c>
+      <c r="K35" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1954,6 +2061,9 @@
       <c r="J36" t="n">
         <v>100</v>
       </c>
+      <c r="K36" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1996,6 +2106,9 @@
       <c r="J37" t="n">
         <v>100</v>
       </c>
+      <c r="K37" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2038,6 +2151,9 @@
       <c r="J38" t="n">
         <v>70</v>
       </c>
+      <c r="K38" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2080,6 +2196,9 @@
       <c r="J39" t="n">
         <v>100</v>
       </c>
+      <c r="K39" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2122,6 +2241,9 @@
       <c r="J40" t="n">
         <v>100</v>
       </c>
+      <c r="K40" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2164,6 +2286,9 @@
       <c r="J41" t="n">
         <v>100</v>
       </c>
+      <c r="K41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2206,6 +2331,9 @@
       <c r="J42" t="n">
         <v>90</v>
       </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2248,6 +2376,9 @@
       <c r="J43" t="n">
         <v>100</v>
       </c>
+      <c r="K43" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2290,6 +2421,9 @@
       <c r="J44" t="n">
         <v>0</v>
       </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2332,6 +2466,9 @@
       <c r="J45" t="n">
         <v>100</v>
       </c>
+      <c r="K45" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2374,6 +2511,9 @@
       <c r="J46" t="n">
         <v>100</v>
       </c>
+      <c r="K46" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2416,6 +2556,9 @@
       <c r="J47" t="n">
         <v>0</v>
       </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2458,6 +2601,9 @@
       <c r="J48" t="n">
         <v>100</v>
       </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2500,6 +2646,9 @@
       <c r="J49" t="n">
         <v>100</v>
       </c>
+      <c r="K49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2541,6 +2690,9 @@
       </c>
       <c r="J50" t="n">
         <v>100</v>
+      </c>
+      <c r="K50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2580,6 +2732,9 @@
       <c r="J51" t="n">
         <v>100</v>
       </c>
+      <c r="K51" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2622,6 +2777,9 @@
       <c r="J52" t="n">
         <v>100</v>
       </c>
+      <c r="K52" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2664,6 +2822,9 @@
       <c r="J53" t="n">
         <v>70</v>
       </c>
+      <c r="K53" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2706,6 +2867,9 @@
       <c r="J54" t="n">
         <v>60</v>
       </c>
+      <c r="K54" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2748,6 +2912,9 @@
       <c r="J55" t="n">
         <v>40</v>
       </c>
+      <c r="K55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2790,6 +2957,9 @@
       <c r="J56" t="n">
         <v>80</v>
       </c>
+      <c r="K56" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2832,6 +3002,9 @@
       <c r="J57" t="n">
         <v>100</v>
       </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2874,6 +3047,9 @@
       <c r="J58" t="n">
         <v>100</v>
       </c>
+      <c r="K58" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2916,6 +3092,9 @@
       <c r="J59" t="n">
         <v>100</v>
       </c>
+      <c r="K59" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2957,6 +3136,9 @@
       </c>
       <c r="J60" t="n">
         <v>70</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -2996,6 +3178,9 @@
       <c r="J61" t="n">
         <v>100</v>
       </c>
+      <c r="K61" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3038,6 +3223,9 @@
       <c r="J62" t="n">
         <v>100</v>
       </c>
+      <c r="K62" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3080,6 +3268,9 @@
       <c r="J63" t="n">
         <v>100</v>
       </c>
+      <c r="K63" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3122,6 +3313,9 @@
       <c r="J64" t="n">
         <v>100</v>
       </c>
+      <c r="K64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3164,6 +3358,9 @@
       <c r="J65" t="n">
         <v>100</v>
       </c>
+      <c r="K65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3206,6 +3403,9 @@
       <c r="J66" t="n">
         <v>100</v>
       </c>
+      <c r="K66" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3248,6 +3448,9 @@
       <c r="J67" t="n">
         <v>100</v>
       </c>
+      <c r="K67" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3290,6 +3493,9 @@
       <c r="J68" t="n">
         <v>100</v>
       </c>
+      <c r="K68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3332,6 +3538,9 @@
       <c r="J69" t="n">
         <v>60</v>
       </c>
+      <c r="K69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3374,6 +3583,9 @@
       <c r="J70" t="n">
         <v>100</v>
       </c>
+      <c r="K70" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3416,6 +3628,9 @@
       <c r="J71" t="n">
         <v>60</v>
       </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3458,6 +3673,9 @@
       <c r="J72" t="n">
         <v>100</v>
       </c>
+      <c r="K72" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3500,6 +3718,9 @@
       <c r="J73" t="n">
         <v>100</v>
       </c>
+      <c r="K73" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3541,6 +3762,9 @@
       </c>
       <c r="J74" t="n">
         <v>70</v>
+      </c>
+      <c r="K74" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -3580,6 +3804,9 @@
       <c r="J75" t="n">
         <v>100</v>
       </c>
+      <c r="K75" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3622,6 +3849,9 @@
       <c r="J76" t="n">
         <v>100</v>
       </c>
+      <c r="K76" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3664,6 +3894,9 @@
       <c r="J77" t="n">
         <v>100</v>
       </c>
+      <c r="K77" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3706,6 +3939,9 @@
       <c r="J78" t="n">
         <v>100</v>
       </c>
+      <c r="K78" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3748,6 +3984,9 @@
       <c r="J79" t="n">
         <v>100</v>
       </c>
+      <c r="K79" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3790,6 +4029,9 @@
       <c r="J80" t="n">
         <v>100</v>
       </c>
+      <c r="K80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3832,6 +4074,9 @@
       <c r="J81" t="n">
         <v>100</v>
       </c>
+      <c r="K81" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3874,6 +4119,9 @@
       <c r="J82" t="n">
         <v>100</v>
       </c>
+      <c r="K82" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3916,6 +4164,9 @@
       <c r="J83" t="n">
         <v>100</v>
       </c>
+      <c r="K83" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3958,6 +4209,9 @@
       <c r="J84" t="n">
         <v>80</v>
       </c>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4000,6 +4254,9 @@
       <c r="J85" t="n">
         <v>100</v>
       </c>
+      <c r="K85" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4042,6 +4299,9 @@
       <c r="J86" t="n">
         <v>100</v>
       </c>
+      <c r="K86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4084,6 +4344,9 @@
       <c r="J87" t="n">
         <v>100</v>
       </c>
+      <c r="K87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4126,6 +4389,9 @@
       <c r="J88" t="n">
         <v>100</v>
       </c>
+      <c r="K88" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4168,6 +4434,9 @@
       <c r="J89" t="n">
         <v>100</v>
       </c>
+      <c r="K89" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4209,6 +4478,9 @@
       </c>
       <c r="J90" t="n">
         <v>100</v>
+      </c>
+      <c r="K90" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="91">
@@ -4248,6 +4520,9 @@
       <c r="J91" t="n">
         <v>100</v>
       </c>
+      <c r="K91" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4290,6 +4565,9 @@
       <c r="J92" t="n">
         <v>100</v>
       </c>
+      <c r="K92" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4332,6 +4610,9 @@
       <c r="J93" t="n">
         <v>100</v>
       </c>
+      <c r="K93" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4374,6 +4655,9 @@
       <c r="J94" t="n">
         <v>100</v>
       </c>
+      <c r="K94" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4416,6 +4700,9 @@
       <c r="J95" t="n">
         <v>90</v>
       </c>
+      <c r="K95" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4458,6 +4745,9 @@
       <c r="J96" t="n">
         <v>100</v>
       </c>
+      <c r="K96" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4500,6 +4790,9 @@
       <c r="J97" t="n">
         <v>100</v>
       </c>
+      <c r="K97" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4542,6 +4835,9 @@
       <c r="J98" t="n">
         <v>100</v>
       </c>
+      <c r="K98" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4584,6 +4880,9 @@
       <c r="J99" t="n">
         <v>100</v>
       </c>
+      <c r="K99" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4626,6 +4925,9 @@
       <c r="J100" t="n">
         <v>100</v>
       </c>
+      <c r="K100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4668,6 +4970,9 @@
       <c r="J101" t="n">
         <v>100</v>
       </c>
+      <c r="K101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4709,6 +5014,9 @@
       </c>
       <c r="J102" t="n">
         <v>70</v>
+      </c>
+      <c r="K102" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -4748,6 +5056,9 @@
       <c r="J103" t="n">
         <v>100</v>
       </c>
+      <c r="K103" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4790,6 +5101,9 @@
       <c r="J104" t="n">
         <v>100</v>
       </c>
+      <c r="K104" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4832,6 +5146,9 @@
       <c r="J105" t="n">
         <v>100</v>
       </c>
+      <c r="K105" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4874,6 +5191,9 @@
       <c r="J106" t="n">
         <v>100</v>
       </c>
+      <c r="K106" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4916,6 +5236,9 @@
       <c r="J107" t="n">
         <v>100</v>
       </c>
+      <c r="K107" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4958,6 +5281,9 @@
       <c r="J108" t="n">
         <v>100</v>
       </c>
+      <c r="K108" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5000,6 +5326,9 @@
       <c r="J109" t="n">
         <v>100</v>
       </c>
+      <c r="K109" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5042,6 +5371,9 @@
       <c r="J110" t="n">
         <v>100</v>
       </c>
+      <c r="K110" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5084,6 +5416,9 @@
       <c r="J111" t="n">
         <v>100</v>
       </c>
+      <c r="K111" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5126,6 +5461,9 @@
       <c r="J112" t="n">
         <v>100</v>
       </c>
+      <c r="K112" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5168,6 +5506,9 @@
       <c r="J113" t="n">
         <v>90</v>
       </c>
+      <c r="K113" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5210,6 +5551,9 @@
       <c r="J114" t="n">
         <v>100</v>
       </c>
+      <c r="K114" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5252,6 +5596,9 @@
       <c r="J115" t="n">
         <v>100</v>
       </c>
+      <c r="K115" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5293,6 +5640,9 @@
       </c>
       <c r="J116" t="n">
         <v>70</v>
+      </c>
+      <c r="K116" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -5332,6 +5682,9 @@
       <c r="J117" t="n">
         <v>100</v>
       </c>
+      <c r="K117" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5374,6 +5727,9 @@
       <c r="J118" t="n">
         <v>100</v>
       </c>
+      <c r="K118" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5416,6 +5772,9 @@
       <c r="J119" t="n">
         <v>100</v>
       </c>
+      <c r="K119" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5458,6 +5817,9 @@
       <c r="J120" t="n">
         <v>100</v>
       </c>
+      <c r="K120" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5500,6 +5862,9 @@
       <c r="J121" t="n">
         <v>100</v>
       </c>
+      <c r="K121" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5542,6 +5907,9 @@
       <c r="J122" t="n">
         <v>100</v>
       </c>
+      <c r="K122" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5584,6 +5952,9 @@
       <c r="J123" t="n">
         <v>100</v>
       </c>
+      <c r="K123" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5626,6 +5997,9 @@
       <c r="J124" t="n">
         <v>100</v>
       </c>
+      <c r="K124" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5668,6 +6042,9 @@
       <c r="J125" t="n">
         <v>100</v>
       </c>
+      <c r="K125" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5710,6 +6087,9 @@
       <c r="J126" t="n">
         <v>100</v>
       </c>
+      <c r="K126" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5752,6 +6132,9 @@
       <c r="J127" t="n">
         <v>90</v>
       </c>
+      <c r="K127" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5794,6 +6177,9 @@
       <c r="J128" t="n">
         <v>100</v>
       </c>
+      <c r="K128" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5836,6 +6222,9 @@
       <c r="J129" t="n">
         <v>90</v>
       </c>
+      <c r="K129" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5878,6 +6267,9 @@
       <c r="J130" t="n">
         <v>60</v>
       </c>
+      <c r="K130" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5920,6 +6312,9 @@
       <c r="J131" t="n">
         <v>60</v>
       </c>
+      <c r="K131" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5962,6 +6357,9 @@
       <c r="J132" t="n">
         <v>70</v>
       </c>
+      <c r="K132" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6004,6 +6402,9 @@
       <c r="J133" t="n">
         <v>100</v>
       </c>
+      <c r="K133" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6046,6 +6447,9 @@
       <c r="J134" t="n">
         <v>100</v>
       </c>
+      <c r="K134" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6088,6 +6492,9 @@
       <c r="J135" t="n">
         <v>100</v>
       </c>
+      <c r="K135" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6130,6 +6537,9 @@
       <c r="J136" t="n">
         <v>100</v>
       </c>
+      <c r="K136" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6172,6 +6582,9 @@
       <c r="J137" t="n">
         <v>100</v>
       </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6214,6 +6627,9 @@
       <c r="J138" t="n">
         <v>100</v>
       </c>
+      <c r="K138" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6256,6 +6672,9 @@
       <c r="J139" t="n">
         <v>100</v>
       </c>
+      <c r="K139" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6298,6 +6717,9 @@
       <c r="J140" t="n">
         <v>100</v>
       </c>
+      <c r="K140" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6340,6 +6762,9 @@
       <c r="J141" t="n">
         <v>60</v>
       </c>
+      <c r="K141" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6382,6 +6807,9 @@
       <c r="J142" t="n">
         <v>60</v>
       </c>
+      <c r="K142" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6424,6 +6852,9 @@
       <c r="J143" t="n">
         <v>100</v>
       </c>
+      <c r="K143" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6466,6 +6897,9 @@
       <c r="J144" t="n">
         <v>100</v>
       </c>
+      <c r="K144" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6508,6 +6942,9 @@
       <c r="J145" t="n">
         <v>100</v>
       </c>
+      <c r="K145" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6550,6 +6987,9 @@
       <c r="J146" t="n">
         <v>100</v>
       </c>
+      <c r="K146" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6592,6 +7032,9 @@
       <c r="J147" t="n">
         <v>60</v>
       </c>
+      <c r="K147" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6634,6 +7077,9 @@
       <c r="J148" t="n">
         <v>60</v>
       </c>
+      <c r="K148" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6676,6 +7122,9 @@
       <c r="J149" t="n">
         <v>40</v>
       </c>
+      <c r="K149" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6718,6 +7167,9 @@
       <c r="J150" t="n">
         <v>70</v>
       </c>
+      <c r="K150" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6760,6 +7212,9 @@
       <c r="J151" t="n">
         <v>100</v>
       </c>
+      <c r="K151" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6802,6 +7257,9 @@
       <c r="J152" t="n">
         <v>90</v>
       </c>
+      <c r="K152" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6844,6 +7302,9 @@
       <c r="J153" t="n">
         <v>100</v>
       </c>
+      <c r="K153" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6886,6 +7347,9 @@
       <c r="J154" t="n">
         <v>100</v>
       </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6928,6 +7392,9 @@
       <c r="J155" t="n">
         <v>100</v>
       </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6970,6 +7437,9 @@
       <c r="J156" t="n">
         <v>100</v>
       </c>
+      <c r="K156" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7012,6 +7482,9 @@
       <c r="J157" t="n">
         <v>100</v>
       </c>
+      <c r="K157" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7054,6 +7527,9 @@
       <c r="J158" t="n">
         <v>100</v>
       </c>
+      <c r="K158" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7096,6 +7572,9 @@
       <c r="J159" t="n">
         <v>100</v>
       </c>
+      <c r="K159" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7138,6 +7617,9 @@
       <c r="J160" t="n">
         <v>80</v>
       </c>
+      <c r="K160" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7180,6 +7662,9 @@
       <c r="J161" t="n">
         <v>60</v>
       </c>
+      <c r="K161" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7222,6 +7707,9 @@
       <c r="J162" t="n">
         <v>60</v>
       </c>
+      <c r="K162" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7264,6 +7752,9 @@
       <c r="J163" t="n">
         <v>40</v>
       </c>
+      <c r="K163" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7306,6 +7797,9 @@
       <c r="J164" t="n">
         <v>100</v>
       </c>
+      <c r="K164" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7348,6 +7842,9 @@
       <c r="J165" t="n">
         <v>100</v>
       </c>
+      <c r="K165" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7390,6 +7887,9 @@
       <c r="J166" t="n">
         <v>100</v>
       </c>
+      <c r="K166" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7432,6 +7932,9 @@
       <c r="J167" t="n">
         <v>100</v>
       </c>
+      <c r="K167" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7474,6 +7977,9 @@
       <c r="J168" t="n">
         <v>100</v>
       </c>
+      <c r="K168" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7516,6 +8022,9 @@
       <c r="J169" t="n">
         <v>100</v>
       </c>
+      <c r="K169" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7558,6 +8067,9 @@
       <c r="J170" t="n">
         <v>90</v>
       </c>
+      <c r="K170" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7600,6 +8112,9 @@
       <c r="J171" t="n">
         <v>100</v>
       </c>
+      <c r="K171" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7642,6 +8157,9 @@
       <c r="J172" t="n">
         <v>80</v>
       </c>
+      <c r="K172" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7684,6 +8202,9 @@
       <c r="J173" t="n">
         <v>60</v>
       </c>
+      <c r="K173" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7726,6 +8247,9 @@
       <c r="J174" t="n">
         <v>60</v>
       </c>
+      <c r="K174" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7768,6 +8292,9 @@
       <c r="J175" t="n">
         <v>100</v>
       </c>
+      <c r="K175" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7810,6 +8337,9 @@
       <c r="J176" t="n">
         <v>100</v>
       </c>
+      <c r="K176" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7852,6 +8382,9 @@
       <c r="J177" t="n">
         <v>100</v>
       </c>
+      <c r="K177" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7894,6 +8427,9 @@
       <c r="J178" t="n">
         <v>100</v>
       </c>
+      <c r="K178" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7936,6 +8472,9 @@
       <c r="J179" t="n">
         <v>90</v>
       </c>
+      <c r="K179" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7978,6 +8517,9 @@
       <c r="J180" t="n">
         <v>70</v>
       </c>
+      <c r="K180" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8020,6 +8562,9 @@
       <c r="J181" t="n">
         <v>60</v>
       </c>
+      <c r="K181" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8062,6 +8607,9 @@
       <c r="J182" t="n">
         <v>60</v>
       </c>
+      <c r="K182" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8104,6 +8652,9 @@
       <c r="J183" t="n">
         <v>70</v>
       </c>
+      <c r="K183" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8146,6 +8697,9 @@
       <c r="J184" t="n">
         <v>100</v>
       </c>
+      <c r="K184" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8188,6 +8742,9 @@
       <c r="J185" t="n">
         <v>80</v>
       </c>
+      <c r="K185" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8230,6 +8787,9 @@
       <c r="J186" t="n">
         <v>100</v>
       </c>
+      <c r="K186" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8272,6 +8832,9 @@
       <c r="J187" t="n">
         <v>100</v>
       </c>
+      <c r="K187" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8314,6 +8877,9 @@
       <c r="J188" t="n">
         <v>100</v>
       </c>
+      <c r="K188" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8356,6 +8922,9 @@
       <c r="J189" t="n">
         <v>0</v>
       </c>
+      <c r="K189" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8398,6 +8967,9 @@
       <c r="J190" t="n">
         <v>100</v>
       </c>
+      <c r="K190" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8440,6 +9012,9 @@
       <c r="J191" t="n">
         <v>90</v>
       </c>
+      <c r="K191" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8482,6 +9057,9 @@
       <c r="J192" t="n">
         <v>100</v>
       </c>
+      <c r="K192" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8523,6 +9101,9 @@
       </c>
       <c r="J193" t="n">
         <v>100</v>
+      </c>
+      <c r="K193" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="194">
@@ -8562,6 +9143,9 @@
       <c r="J194" t="n">
         <v>100</v>
       </c>
+      <c r="K194" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8604,6 +9188,9 @@
       <c r="J195" t="n">
         <v>100</v>
       </c>
+      <c r="K195" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8646,6 +9233,9 @@
       <c r="J196" t="n">
         <v>100</v>
       </c>
+      <c r="K196" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8688,6 +9278,9 @@
       <c r="J197" t="n">
         <v>100</v>
       </c>
+      <c r="K197" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8730,6 +9323,9 @@
       <c r="J198" t="n">
         <v>100</v>
       </c>
+      <c r="K198" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8772,6 +9368,9 @@
       <c r="J199" t="n">
         <v>80</v>
       </c>
+      <c r="K199" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8814,6 +9413,9 @@
       <c r="J200" t="n">
         <v>60</v>
       </c>
+      <c r="K200" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8856,6 +9458,9 @@
       <c r="J201" t="n">
         <v>60</v>
       </c>
+      <c r="K201" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8898,6 +9503,9 @@
       <c r="J202" t="n">
         <v>40</v>
       </c>
+      <c r="K202" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8940,6 +9548,9 @@
       <c r="J203" t="n">
         <v>100</v>
       </c>
+      <c r="K203" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8982,6 +9593,9 @@
       <c r="J204" t="n">
         <v>90</v>
       </c>
+      <c r="K204" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9024,6 +9638,9 @@
       <c r="J205" t="n">
         <v>100</v>
       </c>
+      <c r="K205" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9066,6 +9683,9 @@
       <c r="J206" t="n">
         <v>100</v>
       </c>
+      <c r="K206" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9108,6 +9728,9 @@
       <c r="J207" t="n">
         <v>100</v>
       </c>
+      <c r="K207" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9150,6 +9773,9 @@
       <c r="J208" t="n">
         <v>100</v>
       </c>
+      <c r="K208" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9192,6 +9818,9 @@
       <c r="J209" t="n">
         <v>100</v>
       </c>
+      <c r="K209" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9233,6 +9862,9 @@
       </c>
       <c r="J210" t="n">
         <v>100</v>
+      </c>
+      <c r="K210" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="211">
@@ -9272,6 +9904,9 @@
       <c r="J211" t="n">
         <v>100</v>
       </c>
+      <c r="K211" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9314,6 +9949,9 @@
       <c r="J212" t="n">
         <v>100</v>
       </c>
+      <c r="K212" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9356,6 +9994,9 @@
       <c r="J213" t="n">
         <v>80</v>
       </c>
+      <c r="K213" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9398,6 +10039,9 @@
       <c r="J214" t="n">
         <v>60</v>
       </c>
+      <c r="K214" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9440,6 +10084,9 @@
       <c r="J215" t="n">
         <v>60</v>
       </c>
+      <c r="K215" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9482,6 +10129,9 @@
       <c r="J216" t="n">
         <v>40</v>
       </c>
+      <c r="K216" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9524,6 +10174,9 @@
       <c r="J217" t="n">
         <v>70</v>
       </c>
+      <c r="K217" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9566,6 +10219,9 @@
       <c r="J218" t="n">
         <v>100</v>
       </c>
+      <c r="K218" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9608,6 +10264,9 @@
       <c r="J219" t="n">
         <v>90</v>
       </c>
+      <c r="K219" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9650,6 +10309,9 @@
       <c r="J220" t="n">
         <v>60</v>
       </c>
+      <c r="K220" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9692,6 +10354,9 @@
       <c r="J221" t="n">
         <v>60</v>
       </c>
+      <c r="K221" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9734,6 +10399,9 @@
       <c r="J222" t="n">
         <v>70</v>
       </c>
+      <c r="K222" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9776,6 +10444,9 @@
       <c r="J223" t="n">
         <v>100</v>
       </c>
+      <c r="K223" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9818,6 +10489,9 @@
       <c r="J224" t="n">
         <v>100</v>
       </c>
+      <c r="K224" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9860,6 +10534,9 @@
       <c r="J225" t="n">
         <v>100</v>
       </c>
+      <c r="K225" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9902,6 +10579,9 @@
       <c r="J226" t="n">
         <v>80</v>
       </c>
+      <c r="K226" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9944,6 +10624,9 @@
       <c r="J227" t="n">
         <v>100</v>
       </c>
+      <c r="K227" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9986,6 +10669,9 @@
       <c r="J228" t="n">
         <v>90</v>
       </c>
+      <c r="K228" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10028,6 +10714,9 @@
       <c r="J229" t="n">
         <v>40</v>
       </c>
+      <c r="K229" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -10070,6 +10759,9 @@
       <c r="J230" t="n">
         <v>60</v>
       </c>
+      <c r="K230" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10112,6 +10804,9 @@
       <c r="J231" t="n">
         <v>60</v>
       </c>
+      <c r="K231" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10154,6 +10849,9 @@
       <c r="J232" t="n">
         <v>70</v>
       </c>
+      <c r="K232" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10196,6 +10894,9 @@
       <c r="J233" t="n">
         <v>100</v>
       </c>
+      <c r="K233" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10238,6 +10939,9 @@
       <c r="J234" t="n">
         <v>100</v>
       </c>
+      <c r="K234" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10280,6 +10984,9 @@
       <c r="J235" t="n">
         <v>100</v>
       </c>
+      <c r="K235" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10322,6 +11029,9 @@
       <c r="J236" t="n">
         <v>100</v>
       </c>
+      <c r="K236" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10364,6 +11074,9 @@
       <c r="J237" t="n">
         <v>80</v>
       </c>
+      <c r="K237" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10406,6 +11119,9 @@
       <c r="J238" t="n">
         <v>100</v>
       </c>
+      <c r="K238" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10448,6 +11164,9 @@
       <c r="J239" t="n">
         <v>90</v>
       </c>
+      <c r="K239" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10490,6 +11209,9 @@
       <c r="J240" t="n">
         <v>40</v>
       </c>
+      <c r="K240" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10532,6 +11254,9 @@
       <c r="J241" t="n">
         <v>100</v>
       </c>
+      <c r="K241" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10574,6 +11299,9 @@
       <c r="J242" t="n">
         <v>100</v>
       </c>
+      <c r="K242" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10616,6 +11344,9 @@
       <c r="J243" t="n">
         <v>80</v>
       </c>
+      <c r="K243" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10658,6 +11389,9 @@
       <c r="J244" t="n">
         <v>100</v>
       </c>
+      <c r="K244" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10699,6 +11433,9 @@
       </c>
       <c r="J245" t="n">
         <v>100</v>
+      </c>
+      <c r="K245" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="246">
@@ -10738,6 +11475,9 @@
       <c r="J246" t="n">
         <v>100</v>
       </c>
+      <c r="K246" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10780,6 +11520,9 @@
       <c r="J247" t="n">
         <v>100</v>
       </c>
+      <c r="K247" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10822,6 +11565,9 @@
       <c r="J248" t="n">
         <v>100</v>
       </c>
+      <c r="K248" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10864,6 +11610,9 @@
       <c r="J249" t="n">
         <v>90</v>
       </c>
+      <c r="K249" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10906,6 +11655,9 @@
       <c r="J250" t="n">
         <v>90</v>
       </c>
+      <c r="K250" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10948,6 +11700,9 @@
       <c r="J251" t="n">
         <v>100</v>
       </c>
+      <c r="K251" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10990,6 +11745,9 @@
       <c r="J252" t="n">
         <v>100</v>
       </c>
+      <c r="K252" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -11032,6 +11790,9 @@
       <c r="J253" t="n">
         <v>100</v>
       </c>
+      <c r="K253" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -11074,6 +11835,9 @@
       <c r="J254" t="n">
         <v>100</v>
       </c>
+      <c r="K254" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11116,6 +11880,9 @@
       <c r="J255" t="n">
         <v>100</v>
       </c>
+      <c r="K255" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11158,6 +11925,9 @@
       <c r="J256" t="n">
         <v>100</v>
       </c>
+      <c r="K256" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -11200,6 +11970,9 @@
       <c r="J257" t="n">
         <v>90</v>
       </c>
+      <c r="K257" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11242,6 +12015,9 @@
       <c r="J258" t="n">
         <v>60</v>
       </c>
+      <c r="K258" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11284,6 +12060,9 @@
       <c r="J259" t="n">
         <v>100</v>
       </c>
+      <c r="K259" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11326,6 +12105,9 @@
       <c r="J260" t="n">
         <v>90</v>
       </c>
+      <c r="K260" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11368,6 +12150,9 @@
       <c r="J261" t="n">
         <v>100</v>
       </c>
+      <c r="K261" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11410,6 +12195,9 @@
       <c r="J262" t="n">
         <v>90</v>
       </c>
+      <c r="K262" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11452,6 +12240,9 @@
       <c r="J263" t="n">
         <v>100</v>
       </c>
+      <c r="K263" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11494,6 +12285,9 @@
       <c r="J264" t="n">
         <v>100</v>
       </c>
+      <c r="K264" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11536,6 +12330,9 @@
       <c r="J265" t="n">
         <v>100</v>
       </c>
+      <c r="K265" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11578,6 +12375,9 @@
       <c r="J266" t="n">
         <v>100</v>
       </c>
+      <c r="K266" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11620,6 +12420,9 @@
       <c r="J267" t="n">
         <v>100</v>
       </c>
+      <c r="K267" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11662,6 +12465,9 @@
       <c r="J268" t="n">
         <v>60</v>
       </c>
+      <c r="K268" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11704,6 +12510,9 @@
       <c r="J269" t="n">
         <v>100</v>
       </c>
+      <c r="K269" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11746,6 +12555,9 @@
       <c r="J270" t="n">
         <v>100</v>
       </c>
+      <c r="K270" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11788,6 +12600,9 @@
       <c r="J271" t="n">
         <v>90</v>
       </c>
+      <c r="K271" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11830,6 +12645,9 @@
       <c r="J272" t="n">
         <v>100</v>
       </c>
+      <c r="K272" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11872,6 +12690,9 @@
       <c r="J273" t="n">
         <v>100</v>
       </c>
+      <c r="K273" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11914,6 +12735,9 @@
       <c r="J274" t="n">
         <v>100</v>
       </c>
+      <c r="K274" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11956,6 +12780,9 @@
       <c r="J275" t="n">
         <v>100</v>
       </c>
+      <c r="K275" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -11998,6 +12825,9 @@
       <c r="J276" t="n">
         <v>100</v>
       </c>
+      <c r="K276" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -12040,6 +12870,9 @@
       <c r="J277" t="n">
         <v>60</v>
       </c>
+      <c r="K277" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12082,6 +12915,9 @@
       <c r="J278" t="n">
         <v>100</v>
       </c>
+      <c r="K278" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12124,6 +12960,9 @@
       <c r="J279" t="n">
         <v>100</v>
       </c>
+      <c r="K279" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12166,6 +13005,9 @@
       <c r="J280" t="n">
         <v>90</v>
       </c>
+      <c r="K280" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -12208,6 +13050,9 @@
       <c r="J281" t="n">
         <v>100</v>
       </c>
+      <c r="K281" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12250,6 +13095,9 @@
       <c r="J282" t="n">
         <v>100</v>
       </c>
+      <c r="K282" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12292,6 +13140,9 @@
       <c r="J283" t="n">
         <v>100</v>
       </c>
+      <c r="K283" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12334,6 +13185,9 @@
       <c r="J284" t="n">
         <v>100</v>
       </c>
+      <c r="K284" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12376,6 +13230,9 @@
       <c r="J285" t="n">
         <v>100</v>
       </c>
+      <c r="K285" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12418,6 +13275,9 @@
       <c r="J286" t="n">
         <v>60</v>
       </c>
+      <c r="K286" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12460,6 +13320,9 @@
       <c r="J287" t="n">
         <v>100</v>
       </c>
+      <c r="K287" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12502,6 +13365,9 @@
       <c r="J288" t="n">
         <v>100</v>
       </c>
+      <c r="K288" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12544,6 +13410,9 @@
       <c r="J289" t="n">
         <v>90</v>
       </c>
+      <c r="K289" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12586,6 +13455,9 @@
       <c r="J290" t="n">
         <v>100</v>
       </c>
+      <c r="K290" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12628,6 +13500,9 @@
       <c r="J291" t="n">
         <v>100</v>
       </c>
+      <c r="K291" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12670,6 +13545,9 @@
       <c r="J292" t="n">
         <v>100</v>
       </c>
+      <c r="K292" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12712,6 +13590,9 @@
       <c r="J293" t="n">
         <v>100</v>
       </c>
+      <c r="K293" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12754,6 +13635,9 @@
       <c r="J294" t="n">
         <v>100</v>
       </c>
+      <c r="K294" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12796,6 +13680,9 @@
       <c r="J295" t="n">
         <v>60</v>
       </c>
+      <c r="K295" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12838,6 +13725,9 @@
       <c r="J296" t="n">
         <v>100</v>
       </c>
+      <c r="K296" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12880,6 +13770,9 @@
       <c r="J297" t="n">
         <v>100</v>
       </c>
+      <c r="K297" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12922,6 +13815,9 @@
       <c r="J298" t="n">
         <v>90</v>
       </c>
+      <c r="K298" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12964,6 +13860,9 @@
       <c r="J299" t="n">
         <v>100</v>
       </c>
+      <c r="K299" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -13006,6 +13905,9 @@
       <c r="J300" t="n">
         <v>100</v>
       </c>
+      <c r="K300" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -13048,6 +13950,9 @@
       <c r="J301" t="n">
         <v>100</v>
       </c>
+      <c r="K301" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -13090,6 +13995,9 @@
       <c r="J302" t="n">
         <v>100</v>
       </c>
+      <c r="K302" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -13132,6 +14040,9 @@
       <c r="J303" t="n">
         <v>100</v>
       </c>
+      <c r="K303" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -13174,6 +14085,9 @@
       <c r="J304" t="n">
         <v>60</v>
       </c>
+      <c r="K304" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -13216,6 +14130,9 @@
       <c r="J305" t="n">
         <v>100</v>
       </c>
+      <c r="K305" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -13258,6 +14175,9 @@
       <c r="J306" t="n">
         <v>100</v>
       </c>
+      <c r="K306" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13300,6 +14220,9 @@
       <c r="J307" t="n">
         <v>90</v>
       </c>
+      <c r="K307" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -13342,6 +14265,9 @@
       <c r="J308" t="n">
         <v>100</v>
       </c>
+      <c r="K308" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13384,6 +14310,9 @@
       <c r="J309" t="n">
         <v>100</v>
       </c>
+      <c r="K309" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -13426,6 +14355,9 @@
       <c r="J310" t="n">
         <v>100</v>
       </c>
+      <c r="K310" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13468,6 +14400,9 @@
       <c r="J311" t="n">
         <v>100</v>
       </c>
+      <c r="K311" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13510,6 +14445,9 @@
       <c r="J312" t="n">
         <v>100</v>
       </c>
+      <c r="K312" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13552,6 +14490,9 @@
       <c r="J313" t="n">
         <v>60</v>
       </c>
+      <c r="K313" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13594,6 +14535,9 @@
       <c r="J314" t="n">
         <v>100</v>
       </c>
+      <c r="K314" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13636,6 +14580,9 @@
       <c r="J315" t="n">
         <v>100</v>
       </c>
+      <c r="K315" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13678,6 +14625,9 @@
       <c r="J316" t="n">
         <v>90</v>
       </c>
+      <c r="K316" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13720,6 +14670,9 @@
       <c r="J317" t="n">
         <v>100</v>
       </c>
+      <c r="K317" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13762,6 +14715,9 @@
       <c r="J318" t="n">
         <v>100</v>
       </c>
+      <c r="K318" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13804,6 +14760,9 @@
       <c r="J319" t="n">
         <v>100</v>
       </c>
+      <c r="K319" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13846,6 +14805,9 @@
       <c r="J320" t="n">
         <v>100</v>
       </c>
+      <c r="K320" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13888,6 +14850,9 @@
       <c r="J321" t="n">
         <v>100</v>
       </c>
+      <c r="K321" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13930,6 +14895,9 @@
       <c r="J322" t="n">
         <v>100</v>
       </c>
+      <c r="K322" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13972,6 +14940,9 @@
       <c r="J323" t="n">
         <v>100</v>
       </c>
+      <c r="K323" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -14014,6 +14985,9 @@
       <c r="J324" t="n">
         <v>100</v>
       </c>
+      <c r="K324" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -14056,6 +15030,9 @@
       <c r="J325" t="n">
         <v>100</v>
       </c>
+      <c r="K325" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -14098,6 +15075,9 @@
       <c r="J326" t="n">
         <v>90</v>
       </c>
+      <c r="K326" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -14140,6 +15120,9 @@
       <c r="J327" t="n">
         <v>100</v>
       </c>
+      <c r="K327" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -14182,6 +15165,9 @@
       <c r="J328" t="n">
         <v>100</v>
       </c>
+      <c r="K328" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -14224,6 +15210,9 @@
       <c r="J329" t="n">
         <v>100</v>
       </c>
+      <c r="K329" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -14266,6 +15255,9 @@
       <c r="J330" t="n">
         <v>100</v>
       </c>
+      <c r="K330" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -14308,6 +15300,9 @@
       <c r="J331" t="n">
         <v>100</v>
       </c>
+      <c r="K331" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -14350,6 +15345,9 @@
       <c r="J332" t="n">
         <v>100</v>
       </c>
+      <c r="K332" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14392,6 +15390,9 @@
       <c r="J333" t="n">
         <v>100</v>
       </c>
+      <c r="K333" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14434,6 +15435,9 @@
       <c r="J334" t="n">
         <v>100</v>
       </c>
+      <c r="K334" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14476,6 +15480,9 @@
       <c r="J335" t="n">
         <v>60</v>
       </c>
+      <c r="K335" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14518,6 +15525,9 @@
       <c r="J336" t="n">
         <v>100</v>
       </c>
+      <c r="K336" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14560,6 +15570,9 @@
       <c r="J337" t="n">
         <v>100</v>
       </c>
+      <c r="K337" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14602,6 +15615,9 @@
       <c r="J338" t="n">
         <v>100</v>
       </c>
+      <c r="K338" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -14644,6 +15660,9 @@
       <c r="J339" t="n">
         <v>100</v>
       </c>
+      <c r="K339" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14686,6 +15705,9 @@
       <c r="J340" t="n">
         <v>100</v>
       </c>
+      <c r="K340" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14728,6 +15750,9 @@
       <c r="J341" t="n">
         <v>100</v>
       </c>
+      <c r="K341" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14770,6 +15795,9 @@
       <c r="J342" t="n">
         <v>100</v>
       </c>
+      <c r="K342" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14812,6 +15840,9 @@
       <c r="J343" t="n">
         <v>0</v>
       </c>
+      <c r="K343" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14854,6 +15885,9 @@
       <c r="J344" t="n">
         <v>60</v>
       </c>
+      <c r="K344" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14896,6 +15930,9 @@
       <c r="J345" t="n">
         <v>60</v>
       </c>
+      <c r="K345" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14938,6 +15975,9 @@
       <c r="J346" t="n">
         <v>100</v>
       </c>
+      <c r="K346" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -14980,6 +16020,9 @@
       <c r="J347" t="n">
         <v>100</v>
       </c>
+      <c r="K347" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -15022,6 +16065,9 @@
       <c r="J348" t="n">
         <v>90</v>
       </c>
+      <c r="K348" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -15064,6 +16110,9 @@
       <c r="J349" t="n">
         <v>100</v>
       </c>
+      <c r="K349" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -15106,6 +16155,9 @@
       <c r="J350" t="n">
         <v>100</v>
       </c>
+      <c r="K350" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -15148,6 +16200,9 @@
       <c r="J351" t="n">
         <v>80</v>
       </c>
+      <c r="K351" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -15190,6 +16245,9 @@
       <c r="J352" t="n">
         <v>100</v>
       </c>
+      <c r="K352" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -15232,6 +16290,9 @@
       <c r="J353" t="n">
         <v>90</v>
       </c>
+      <c r="K353" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -15274,6 +16335,9 @@
       <c r="J354" t="n">
         <v>100</v>
       </c>
+      <c r="K354" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -15316,6 +16380,9 @@
       <c r="J355" t="n">
         <v>0</v>
       </c>
+      <c r="K355" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15358,6 +16425,9 @@
       <c r="J356" t="n">
         <v>100</v>
       </c>
+      <c r="K356" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15400,6 +16470,9 @@
       <c r="J357" t="n">
         <v>100</v>
       </c>
+      <c r="K357" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -15441,6 +16514,9 @@
       </c>
       <c r="J358" t="n">
         <v>100</v>
+      </c>
+      <c r="K358" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="359">
@@ -15480,6 +16556,9 @@
       <c r="J359" t="n">
         <v>100</v>
       </c>
+      <c r="K359" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -15522,6 +16601,9 @@
       <c r="J360" t="n">
         <v>100</v>
       </c>
+      <c r="K360" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15564,6 +16646,9 @@
       <c r="J361" t="n">
         <v>80</v>
       </c>
+      <c r="K361" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15606,6 +16691,9 @@
       <c r="J362" t="n">
         <v>100</v>
       </c>
+      <c r="K362" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -15648,6 +16736,9 @@
       <c r="J363" t="n">
         <v>100</v>
       </c>
+      <c r="K363" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15690,6 +16781,9 @@
       <c r="J364" t="n">
         <v>100</v>
       </c>
+      <c r="K364" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15732,6 +16826,9 @@
       <c r="J365" t="n">
         <v>100</v>
       </c>
+      <c r="K365" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15774,6 +16871,9 @@
       <c r="J366" t="n">
         <v>100</v>
       </c>
+      <c r="K366" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -15816,6 +16916,9 @@
       <c r="J367" t="n">
         <v>100</v>
       </c>
+      <c r="K367" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -15858,6 +16961,9 @@
       <c r="J368" t="n">
         <v>100</v>
       </c>
+      <c r="K368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15900,6 +17006,9 @@
       <c r="J369" t="n">
         <v>100</v>
       </c>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15942,6 +17051,9 @@
       <c r="J370" t="n">
         <v>100</v>
       </c>
+      <c r="K370" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -15984,6 +17096,9 @@
       <c r="J371" t="n">
         <v>100</v>
       </c>
+      <c r="K371" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -16026,6 +17141,9 @@
       <c r="J372" t="n">
         <v>100</v>
       </c>
+      <c r="K372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -16068,6 +17186,9 @@
       <c r="J373" t="n">
         <v>100</v>
       </c>
+      <c r="K373" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -16110,6 +17231,9 @@
       <c r="J374" t="n">
         <v>100</v>
       </c>
+      <c r="K374" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -16152,6 +17276,9 @@
       <c r="J375" t="n">
         <v>0</v>
       </c>
+      <c r="K375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -16194,6 +17321,9 @@
       <c r="J376" t="n">
         <v>70</v>
       </c>
+      <c r="K376" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -16236,6 +17366,9 @@
       <c r="J377" t="n">
         <v>70</v>
       </c>
+      <c r="K377" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -16278,6 +17411,9 @@
       <c r="J378" t="n">
         <v>100</v>
       </c>
+      <c r="K378" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -16319,6 +17455,9 @@
       </c>
       <c r="J379" t="n">
         <v>100</v>
+      </c>
+      <c r="K379" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="380">
@@ -16358,6 +17497,9 @@
       <c r="J380" t="n">
         <v>90</v>
       </c>
+      <c r="K380" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16400,6 +17542,9 @@
       <c r="J381" t="n">
         <v>100</v>
       </c>
+      <c r="K381" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16442,6 +17587,9 @@
       <c r="J382" t="n">
         <v>100</v>
       </c>
+      <c r="K382" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -16484,6 +17632,9 @@
       <c r="J383" t="n">
         <v>100</v>
       </c>
+      <c r="K383" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16526,6 +17677,9 @@
       <c r="J384" t="n">
         <v>100</v>
       </c>
+      <c r="K384" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16568,6 +17722,9 @@
       <c r="J385" t="n">
         <v>100</v>
       </c>
+      <c r="K385" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16610,6 +17767,9 @@
       <c r="J386" t="n">
         <v>100</v>
       </c>
+      <c r="K386" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -16652,6 +17812,9 @@
       <c r="J387" t="n">
         <v>100</v>
       </c>
+      <c r="K387" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -16694,6 +17857,9 @@
       <c r="J388" t="n">
         <v>60</v>
       </c>
+      <c r="K388" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -16736,6 +17902,9 @@
       <c r="J389" t="n">
         <v>100</v>
       </c>
+      <c r="K389" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16778,6 +17947,9 @@
       <c r="J390" t="n">
         <v>90</v>
       </c>
+      <c r="K390" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -16820,6 +17992,9 @@
       <c r="J391" t="n">
         <v>100</v>
       </c>
+      <c r="K391" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -16862,6 +18037,9 @@
       <c r="J392" t="n">
         <v>100</v>
       </c>
+      <c r="K392" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -16904,6 +18082,9 @@
       <c r="J393" t="n">
         <v>100</v>
       </c>
+      <c r="K393" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -16946,6 +18127,9 @@
       <c r="J394" t="n">
         <v>100</v>
       </c>
+      <c r="K394" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -16988,6 +18172,9 @@
       <c r="J395" t="n">
         <v>100</v>
       </c>
+      <c r="K395" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -17030,6 +18217,9 @@
       <c r="J396" t="n">
         <v>60</v>
       </c>
+      <c r="K396" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -17072,6 +18262,9 @@
       <c r="J397" t="n">
         <v>90</v>
       </c>
+      <c r="K397" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -17113,6 +18306,9 @@
       </c>
       <c r="J398" t="n">
         <v>100</v>
+      </c>
+      <c r="K398" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -17152,6 +18348,9 @@
       <c r="J399" t="n">
         <v>100</v>
       </c>
+      <c r="K399" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -17194,6 +18393,9 @@
       <c r="J400" t="n">
         <v>100</v>
       </c>
+      <c r="K400" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -17236,6 +18438,9 @@
       <c r="J401" t="n">
         <v>100</v>
       </c>
+      <c r="K401" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -17278,6 +18483,9 @@
       <c r="J402" t="n">
         <v>100</v>
       </c>
+      <c r="K402" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -17306,19 +18514,22 @@
         </is>
       </c>
       <c r="F403" t="n">
-        <v>52.27</v>
+        <v>50</v>
       </c>
       <c r="G403" t="n">
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>100</v>
       </c>
       <c r="J403" t="n">
         <v>100</v>
+      </c>
+      <c r="K403" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="404">
@@ -17362,6 +18573,9 @@
       <c r="J404" t="n">
         <v>100</v>
       </c>
+      <c r="K404" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -17404,6 +18618,9 @@
       <c r="J405" t="n">
         <v>100</v>
       </c>
+      <c r="K405" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -17446,6 +18663,9 @@
       <c r="J406" t="n">
         <v>100</v>
       </c>
+      <c r="K406" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -17488,6 +18708,9 @@
       <c r="J407" t="n">
         <v>80</v>
       </c>
+      <c r="K407" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -17530,6 +18753,9 @@
       <c r="J408" t="n">
         <v>80</v>
       </c>
+      <c r="K408" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -17572,6 +18798,9 @@
       <c r="J409" t="n">
         <v>100</v>
       </c>
+      <c r="K409" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -17613,6 +18842,9 @@
       </c>
       <c r="J410" t="n">
         <v>100</v>
+      </c>
+      <c r="K410" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="411">
@@ -17652,6 +18884,9 @@
       <c r="J411" t="n">
         <v>100</v>
       </c>
+      <c r="K411" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -17694,6 +18929,9 @@
       <c r="J412" t="n">
         <v>100</v>
       </c>
+      <c r="K412" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -17736,6 +18974,9 @@
       <c r="J413" t="n">
         <v>100</v>
       </c>
+      <c r="K413" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -17778,6 +19019,9 @@
       <c r="J414" t="n">
         <v>100</v>
       </c>
+      <c r="K414" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -17819,6 +19063,9 @@
       </c>
       <c r="J415" t="n">
         <v>100</v>
+      </c>
+      <c r="K415" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="416">
@@ -17858,6 +19105,9 @@
       <c r="J416" t="n">
         <v>100</v>
       </c>
+      <c r="K416" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -17886,19 +19136,22 @@
         </is>
       </c>
       <c r="F417" t="n">
-        <v>52.27</v>
+        <v>50</v>
       </c>
       <c r="G417" t="n">
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>100</v>
       </c>
       <c r="J417" t="n">
         <v>100</v>
+      </c>
+      <c r="K417" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="418">
@@ -17942,6 +19195,9 @@
       <c r="J418" t="n">
         <v>100</v>
       </c>
+      <c r="K418" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -17984,6 +19240,9 @@
       <c r="J419" t="n">
         <v>100</v>
       </c>
+      <c r="K419" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -18026,6 +19285,9 @@
       <c r="J420" t="n">
         <v>100</v>
       </c>
+      <c r="K420" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -18068,6 +19330,9 @@
       <c r="J421" t="n">
         <v>100</v>
       </c>
+      <c r="K421" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -18110,6 +19375,9 @@
       <c r="J422" t="n">
         <v>100</v>
       </c>
+      <c r="K422" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -18152,6 +19420,9 @@
       <c r="J423" t="n">
         <v>100</v>
       </c>
+      <c r="K423" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -18193,6 +19464,9 @@
       </c>
       <c r="J424" t="n">
         <v>70</v>
+      </c>
+      <c r="K424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -18232,6 +19506,9 @@
       <c r="J425" t="n">
         <v>70</v>
       </c>
+      <c r="K425" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -18274,6 +19551,9 @@
       <c r="J426" t="n">
         <v>100</v>
       </c>
+      <c r="K426" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -18316,6 +19596,9 @@
       <c r="J427" t="n">
         <v>100</v>
       </c>
+      <c r="K427" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -18358,6 +19641,9 @@
       <c r="J428" t="n">
         <v>100</v>
       </c>
+      <c r="K428" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -18400,6 +19686,9 @@
       <c r="J429" t="n">
         <v>100</v>
       </c>
+      <c r="K429" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -18442,6 +19731,9 @@
       <c r="J430" t="n">
         <v>100</v>
       </c>
+      <c r="K430" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -18484,6 +19776,9 @@
       <c r="J431" t="n">
         <v>100</v>
       </c>
+      <c r="K431" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -18526,6 +19821,9 @@
       <c r="J432" t="n">
         <v>60</v>
       </c>
+      <c r="K432" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -18568,6 +19866,9 @@
       <c r="J433" t="n">
         <v>60</v>
       </c>
+      <c r="K433" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -18610,6 +19911,9 @@
       <c r="J434" t="n">
         <v>90</v>
       </c>
+      <c r="K434" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -18652,6 +19956,9 @@
       <c r="J435" t="n">
         <v>100</v>
       </c>
+      <c r="K435" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -18694,6 +20001,9 @@
       <c r="J436" t="n">
         <v>100</v>
       </c>
+      <c r="K436" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -18736,6 +20046,9 @@
       <c r="J437" t="n">
         <v>100</v>
       </c>
+      <c r="K437" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -18778,6 +20091,9 @@
       <c r="J438" t="n">
         <v>40</v>
       </c>
+      <c r="K438" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -18819,6 +20135,9 @@
       </c>
       <c r="J439" t="n">
         <v>70</v>
+      </c>
+      <c r="K439" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="440">
@@ -18858,6 +20177,9 @@
       <c r="J440" t="n">
         <v>100</v>
       </c>
+      <c r="K440" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -18900,6 +20222,9 @@
       <c r="J441" t="n">
         <v>100</v>
       </c>
+      <c r="K441" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -18941,6 +20266,9 @@
       </c>
       <c r="J442" t="n">
         <v>100</v>
+      </c>
+      <c r="K442" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="443">
@@ -18980,6 +20308,9 @@
       <c r="J443" t="n">
         <v>70</v>
       </c>
+      <c r="K443" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -19008,19 +20339,22 @@
         </is>
       </c>
       <c r="F444" t="n">
-        <v>52.27</v>
+        <v>50</v>
       </c>
       <c r="G444" t="n">
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>100</v>
       </c>
       <c r="J444" t="n">
         <v>100</v>
+      </c>
+      <c r="K444" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="445">
@@ -19064,6 +20398,9 @@
       <c r="J445" t="n">
         <v>70</v>
       </c>
+      <c r="K445" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -19106,6 +20443,9 @@
       <c r="J446" t="n">
         <v>100</v>
       </c>
+      <c r="K446" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -19148,6 +20488,9 @@
       <c r="J447" t="n">
         <v>100</v>
       </c>
+      <c r="K447" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -19190,6 +20533,9 @@
       <c r="J448" t="n">
         <v>100</v>
       </c>
+      <c r="K448" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -19232,6 +20578,9 @@
       <c r="J449" t="n">
         <v>100</v>
       </c>
+      <c r="K449" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -19274,6 +20623,9 @@
       <c r="J450" t="n">
         <v>100</v>
       </c>
+      <c r="K450" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -19316,6 +20668,9 @@
       <c r="J451" t="n">
         <v>100</v>
       </c>
+      <c r="K451" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -19358,6 +20713,9 @@
       <c r="J452" t="n">
         <v>100</v>
       </c>
+      <c r="K452" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -19400,6 +20758,9 @@
       <c r="J453" t="n">
         <v>90</v>
       </c>
+      <c r="K453" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -19441,6 +20802,9 @@
       </c>
       <c r="J454" t="n">
         <v>100</v>
+      </c>
+      <c r="K454" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="455">
@@ -19480,6 +20844,9 @@
       <c r="J455" t="n">
         <v>100</v>
       </c>
+      <c r="K455" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -19522,6 +20889,9 @@
       <c r="J456" t="n">
         <v>100</v>
       </c>
+      <c r="K456" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -19564,6 +20934,9 @@
       <c r="J457" t="n">
         <v>100</v>
       </c>
+      <c r="K457" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -19592,19 +20965,22 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>52.27</v>
+        <v>50</v>
       </c>
       <c r="G458" t="n">
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>100</v>
       </c>
       <c r="J458" t="n">
         <v>100</v>
+      </c>
+      <c r="K458" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="459">
@@ -19648,6 +21024,9 @@
       <c r="J459" t="n">
         <v>100</v>
       </c>
+      <c r="K459" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -19690,6 +21069,9 @@
       <c r="J460" t="n">
         <v>100</v>
       </c>
+      <c r="K460" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -19731,6 +21113,9 @@
       </c>
       <c r="J461" t="n">
         <v>100</v>
+      </c>
+      <c r="K461" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="462">
@@ -19770,6 +21155,9 @@
       <c r="J462" t="n">
         <v>70</v>
       </c>
+      <c r="K462" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -19812,6 +21200,9 @@
       <c r="J463" t="n">
         <v>60</v>
       </c>
+      <c r="K463" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -19854,6 +21245,9 @@
       <c r="J464" t="n">
         <v>100</v>
       </c>
+      <c r="K464" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -19895,6 +21289,9 @@
       </c>
       <c r="J465" t="n">
         <v>100</v>
+      </c>
+      <c r="K465" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="466">
@@ -19934,6 +21331,9 @@
       <c r="J466" t="n">
         <v>100</v>
       </c>
+      <c r="K466" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -19976,6 +21376,9 @@
       <c r="J467" t="n">
         <v>100</v>
       </c>
+      <c r="K467" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -20018,6 +21421,9 @@
       <c r="J468" t="n">
         <v>100</v>
       </c>
+      <c r="K468" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -20060,6 +21466,9 @@
       <c r="J469" t="n">
         <v>100</v>
       </c>
+      <c r="K469" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -20101,6 +21510,9 @@
       </c>
       <c r="J470" t="n">
         <v>60</v>
+      </c>
+      <c r="K470" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="471">
@@ -20140,6 +21552,9 @@
       <c r="J471" t="n">
         <v>70</v>
       </c>
+      <c r="K471" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -20182,6 +21597,9 @@
       <c r="J472" t="n">
         <v>100</v>
       </c>
+      <c r="K472" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -20224,6 +21642,9 @@
       <c r="J473" t="n">
         <v>100</v>
       </c>
+      <c r="K473" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -20266,6 +21687,9 @@
       <c r="J474" t="n">
         <v>100</v>
       </c>
+      <c r="K474" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -20308,6 +21732,9 @@
       <c r="J475" t="n">
         <v>90</v>
       </c>
+      <c r="K475" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -20349,6 +21776,9 @@
       </c>
       <c r="J476" t="n">
         <v>100</v>
+      </c>
+      <c r="K476" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -20388,6 +21818,9 @@
       <c r="J477" t="n">
         <v>100</v>
       </c>
+      <c r="K477" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -20430,6 +21863,9 @@
       <c r="J478" t="n">
         <v>100</v>
       </c>
+      <c r="K478" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -20472,6 +21908,9 @@
       <c r="J479" t="n">
         <v>100</v>
       </c>
+      <c r="K479" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -20514,6 +21953,9 @@
       <c r="J480" t="n">
         <v>100</v>
       </c>
+      <c r="K480" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -20556,6 +21998,9 @@
       <c r="J481" t="n">
         <v>100</v>
       </c>
+      <c r="K481" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -20597,6 +22042,9 @@
       </c>
       <c r="J482" t="n">
         <v>90</v>
+      </c>
+      <c r="K482" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="483">
@@ -20636,6 +22084,9 @@
       <c r="J483" t="n">
         <v>70</v>
       </c>
+      <c r="K483" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -20678,6 +22129,9 @@
       <c r="J484" t="n">
         <v>100</v>
       </c>
+      <c r="K484" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -20720,6 +22174,9 @@
       <c r="J485" t="n">
         <v>100</v>
       </c>
+      <c r="K485" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -20762,6 +22219,9 @@
       <c r="J486" t="n">
         <v>100</v>
       </c>
+      <c r="K486" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -20790,19 +22250,22 @@
         </is>
       </c>
       <c r="F487" t="n">
-        <v>52.27</v>
+        <v>50</v>
       </c>
       <c r="G487" t="n">
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>100</v>
       </c>
       <c r="J487" t="n">
         <v>100</v>
+      </c>
+      <c r="K487" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="488">
@@ -20846,6 +22309,9 @@
       <c r="J488" t="n">
         <v>100</v>
       </c>
+      <c r="K488" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -20888,6 +22354,9 @@
       <c r="J489" t="n">
         <v>100</v>
       </c>
+      <c r="K489" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -20930,6 +22399,9 @@
       <c r="J490" t="n">
         <v>100</v>
       </c>
+      <c r="K490" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -20972,6 +22444,9 @@
       <c r="J491" t="n">
         <v>100</v>
       </c>
+      <c r="K491" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -21014,6 +22489,9 @@
       <c r="J492" t="n">
         <v>0</v>
       </c>
+      <c r="K492" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -21055,6 +22533,9 @@
       </c>
       <c r="J493" t="n">
         <v>90</v>
+      </c>
+      <c r="K493" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="494">
@@ -21094,6 +22575,9 @@
       <c r="J494" t="n">
         <v>70</v>
       </c>
+      <c r="K494" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -21136,6 +22620,9 @@
       <c r="J495" t="n">
         <v>100</v>
       </c>
+      <c r="K495" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -21178,6 +22665,9 @@
       <c r="J496" t="n">
         <v>60</v>
       </c>
+      <c r="K496" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -21220,6 +22710,9 @@
       <c r="J497" t="n">
         <v>100</v>
       </c>
+      <c r="K497" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -21262,6 +22755,9 @@
       <c r="J498" t="n">
         <v>60</v>
       </c>
+      <c r="K498" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -21304,6 +22800,9 @@
       <c r="J499" t="n">
         <v>100</v>
       </c>
+      <c r="K499" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -21346,6 +22845,9 @@
       <c r="J500" t="n">
         <v>100</v>
       </c>
+      <c r="K500" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -21388,6 +22890,9 @@
       <c r="J501" t="n">
         <v>100</v>
       </c>
+      <c r="K501" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -21430,6 +22935,9 @@
       <c r="J502" t="n">
         <v>100</v>
       </c>
+      <c r="K502" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -21471,6 +22979,9 @@
       </c>
       <c r="J503" t="n">
         <v>100</v>
+      </c>
+      <c r="K503" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="504">
@@ -21510,6 +23021,9 @@
       <c r="J504" t="n">
         <v>100</v>
       </c>
+      <c r="K504" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -21552,6 +23066,9 @@
       <c r="J505" t="n">
         <v>100</v>
       </c>
+      <c r="K505" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -21594,6 +23111,9 @@
       <c r="J506" t="n">
         <v>90</v>
       </c>
+      <c r="K506" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -21636,6 +23156,9 @@
       <c r="J507" t="n">
         <v>100</v>
       </c>
+      <c r="K507" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -21678,6 +23201,9 @@
       <c r="J508" t="n">
         <v>100</v>
       </c>
+      <c r="K508" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -21720,6 +23246,9 @@
       <c r="J509" t="n">
         <v>100</v>
       </c>
+      <c r="K509" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -21762,6 +23291,9 @@
       <c r="J510" t="n">
         <v>100</v>
       </c>
+      <c r="K510" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -21804,6 +23336,9 @@
       <c r="J511" t="n">
         <v>100</v>
       </c>
+      <c r="K511" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -21846,6 +23381,9 @@
       <c r="J512" t="n">
         <v>100</v>
       </c>
+      <c r="K512" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -21888,6 +23426,9 @@
       <c r="J513" t="n">
         <v>60</v>
       </c>
+      <c r="K513" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -21929,6 +23470,9 @@
       </c>
       <c r="J514" t="n">
         <v>100</v>
+      </c>
+      <c r="K514" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="515">
@@ -21968,6 +23512,9 @@
       <c r="J515" t="n">
         <v>100</v>
       </c>
+      <c r="K515" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -22010,6 +23557,9 @@
       <c r="J516" t="n">
         <v>100</v>
       </c>
+      <c r="K516" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -22052,6 +23602,9 @@
       <c r="J517" t="n">
         <v>100</v>
       </c>
+      <c r="K517" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -22094,6 +23647,9 @@
       <c r="J518" t="n">
         <v>90</v>
       </c>
+      <c r="K518" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -22136,6 +23692,9 @@
       <c r="J519" t="n">
         <v>100</v>
       </c>
+      <c r="K519" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -22177,6 +23736,9 @@
       </c>
       <c r="J520" t="n">
         <v>0</v>
+      </c>
+      <c r="K520" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="521">
@@ -22216,6 +23778,9 @@
       <c r="J521" t="n">
         <v>100</v>
       </c>
+      <c r="K521" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -22258,6 +23823,9 @@
       <c r="J522" t="n">
         <v>100</v>
       </c>
+      <c r="K522" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -22300,6 +23868,9 @@
       <c r="J523" t="n">
         <v>100</v>
       </c>
+      <c r="K523" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -22342,6 +23913,9 @@
       <c r="J524" t="n">
         <v>100</v>
       </c>
+      <c r="K524" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -22383,6 +23957,9 @@
       </c>
       <c r="J525" t="n">
         <v>100</v>
+      </c>
+      <c r="K525" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="526">
@@ -22422,6 +23999,9 @@
       <c r="J526" t="n">
         <v>70</v>
       </c>
+      <c r="K526" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -22464,6 +24044,9 @@
       <c r="J527" t="n">
         <v>100</v>
       </c>
+      <c r="K527" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -22506,6 +24089,9 @@
       <c r="J528" t="n">
         <v>100</v>
       </c>
+      <c r="K528" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -22548,6 +24134,9 @@
       <c r="J529" t="n">
         <v>100</v>
       </c>
+      <c r="K529" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -22590,6 +24179,9 @@
       <c r="J530" t="n">
         <v>100</v>
       </c>
+      <c r="K530" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -22632,6 +24224,9 @@
       <c r="J531" t="n">
         <v>100</v>
       </c>
+      <c r="K531" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -22674,6 +24269,9 @@
       <c r="J532" t="n">
         <v>100</v>
       </c>
+      <c r="K532" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -22716,6 +24314,9 @@
       <c r="J533" t="n">
         <v>100</v>
       </c>
+      <c r="K533" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -22758,6 +24359,9 @@
       <c r="J534" t="n">
         <v>100</v>
       </c>
+      <c r="K534" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -22800,6 +24404,9 @@
       <c r="J535" t="n">
         <v>100</v>
       </c>
+      <c r="K535" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -22841,6 +24448,9 @@
       </c>
       <c r="J536" t="n">
         <v>100</v>
+      </c>
+      <c r="K536" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="537">
@@ -22880,6 +24490,9 @@
       <c r="J537" t="n">
         <v>70</v>
       </c>
+      <c r="K537" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -22922,6 +24535,9 @@
       <c r="J538" t="n">
         <v>100</v>
       </c>
+      <c r="K538" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -22964,6 +24580,9 @@
       <c r="J539" t="n">
         <v>100</v>
       </c>
+      <c r="K539" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -23006,6 +24625,9 @@
       <c r="J540" t="n">
         <v>100</v>
       </c>
+      <c r="K540" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -23048,6 +24670,9 @@
       <c r="J541" t="n">
         <v>0</v>
       </c>
+      <c r="K541" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -23090,6 +24715,9 @@
       <c r="J542" t="n">
         <v>100</v>
       </c>
+      <c r="K542" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -23132,6 +24760,9 @@
       <c r="J543" t="n">
         <v>100</v>
       </c>
+      <c r="K543" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -23174,6 +24805,9 @@
       <c r="J544" t="n">
         <v>100</v>
       </c>
+      <c r="K544" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -23216,6 +24850,9 @@
       <c r="J545" t="n">
         <v>100</v>
       </c>
+      <c r="K545" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -23257,6 +24894,9 @@
       </c>
       <c r="J546" t="n">
         <v>100</v>
+      </c>
+      <c r="K546" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="547">
@@ -23296,6 +24936,9 @@
       <c r="J547" t="n">
         <v>100</v>
       </c>
+      <c r="K547" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -23337,6 +24980,9 @@
       </c>
       <c r="J548" t="n">
         <v>100</v>
+      </c>
+      <c r="K548" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="549">
@@ -23376,6 +25022,9 @@
       <c r="J549" t="n">
         <v>70</v>
       </c>
+      <c r="K549" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -23418,6 +25067,9 @@
       <c r="J550" t="n">
         <v>100</v>
       </c>
+      <c r="K550" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -23460,6 +25112,9 @@
       <c r="J551" t="n">
         <v>100</v>
       </c>
+      <c r="K551" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -23502,6 +25157,9 @@
       <c r="J552" t="n">
         <v>100</v>
       </c>
+      <c r="K552" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -23544,6 +25202,9 @@
       <c r="J553" t="n">
         <v>100</v>
       </c>
+      <c r="K553" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -23586,6 +25247,9 @@
       <c r="J554" t="n">
         <v>0</v>
       </c>
+      <c r="K554" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -23627,6 +25291,9 @@
       </c>
       <c r="J555" t="n">
         <v>100</v>
+      </c>
+      <c r="K555" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="556">
@@ -23666,6 +25333,9 @@
       <c r="J556" t="n">
         <v>70</v>
       </c>
+      <c r="K556" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -23708,6 +25378,9 @@
       <c r="J557" t="n">
         <v>90</v>
       </c>
+      <c r="K557" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -23750,6 +25423,9 @@
       <c r="J558" t="n">
         <v>100</v>
       </c>
+      <c r="K558" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -23792,6 +25468,9 @@
       <c r="J559" t="n">
         <v>100</v>
       </c>
+      <c r="K559" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -23834,6 +25513,9 @@
       <c r="J560" t="n">
         <v>100</v>
       </c>
+      <c r="K560" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -23876,6 +25558,9 @@
       <c r="J561" t="n">
         <v>100</v>
       </c>
+      <c r="K561" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -23918,6 +25603,9 @@
       <c r="J562" t="n">
         <v>70</v>
       </c>
+      <c r="K562" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -23960,6 +25648,9 @@
       <c r="J563" t="n">
         <v>100</v>
       </c>
+      <c r="K563" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -24002,6 +25693,9 @@
       <c r="J564" t="n">
         <v>70</v>
       </c>
+      <c r="K564" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -24044,6 +25738,9 @@
       <c r="J565" t="n">
         <v>100</v>
       </c>
+      <c r="K565" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -24086,6 +25783,9 @@
       <c r="J566" t="n">
         <v>100</v>
       </c>
+      <c r="K566" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -24128,6 +25828,9 @@
       <c r="J567" t="n">
         <v>90</v>
       </c>
+      <c r="K567" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -24170,6 +25873,9 @@
       <c r="J568" t="n">
         <v>100</v>
       </c>
+      <c r="K568" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -24212,6 +25918,9 @@
       <c r="J569" t="n">
         <v>100</v>
       </c>
+      <c r="K569" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -24254,6 +25963,9 @@
       <c r="J570" t="n">
         <v>100</v>
       </c>
+      <c r="K570" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -24296,6 +26008,9 @@
       <c r="J571" t="n">
         <v>100</v>
       </c>
+      <c r="K571" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -24338,6 +26053,9 @@
       <c r="J572" t="n">
         <v>100</v>
       </c>
+      <c r="K572" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -24380,6 +26098,9 @@
       <c r="J573" t="n">
         <v>100</v>
       </c>
+      <c r="K573" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -24422,6 +26143,9 @@
       <c r="J574" t="n">
         <v>100</v>
       </c>
+      <c r="K574" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -24464,6 +26188,9 @@
       <c r="J575" t="n">
         <v>100</v>
       </c>
+      <c r="K575" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -24506,6 +26233,9 @@
       <c r="J576" t="n">
         <v>70</v>
       </c>
+      <c r="K576" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -24548,6 +26278,9 @@
       <c r="J577" t="n">
         <v>100</v>
       </c>
+      <c r="K577" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -24590,6 +26323,9 @@
       <c r="J578" t="n">
         <v>70</v>
       </c>
+      <c r="K578" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -24632,6 +26368,9 @@
       <c r="J579" t="n">
         <v>100</v>
       </c>
+      <c r="K579" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -24674,6 +26413,9 @@
       <c r="J580" t="n">
         <v>100</v>
       </c>
+      <c r="K580" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -24716,6 +26458,9 @@
       <c r="J581" t="n">
         <v>100</v>
       </c>
+      <c r="K581" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -24758,6 +26503,9 @@
       <c r="J582" t="n">
         <v>100</v>
       </c>
+      <c r="K582" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -24800,6 +26548,9 @@
       <c r="J583" t="n">
         <v>100</v>
       </c>
+      <c r="K583" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -24842,6 +26593,9 @@
       <c r="J584" t="n">
         <v>0</v>
       </c>
+      <c r="K584" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -24884,6 +26638,9 @@
       <c r="J585" t="n">
         <v>90</v>
       </c>
+      <c r="K585" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -24926,6 +26683,9 @@
       <c r="J586" t="n">
         <v>70</v>
       </c>
+      <c r="K586" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -24968,6 +26728,9 @@
       <c r="J587" t="n">
         <v>60</v>
       </c>
+      <c r="K587" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -25010,6 +26773,9 @@
       <c r="J588" t="n">
         <v>100</v>
       </c>
+      <c r="K588" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -25052,6 +26818,9 @@
       <c r="J589" t="n">
         <v>100</v>
       </c>
+      <c r="K589" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -25094,6 +26863,9 @@
       <c r="J590" t="n">
         <v>90</v>
       </c>
+      <c r="K590" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -25136,6 +26908,9 @@
       <c r="J591" t="n">
         <v>100</v>
       </c>
+      <c r="K591" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -25178,6 +26953,9 @@
       <c r="J592" t="n">
         <v>100</v>
       </c>
+      <c r="K592" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -25220,6 +26998,9 @@
       <c r="J593" t="n">
         <v>100</v>
       </c>
+      <c r="K593" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -25262,6 +27043,9 @@
       <c r="J594" t="n">
         <v>60</v>
       </c>
+      <c r="K594" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -25304,6 +27088,9 @@
       <c r="J595" t="n">
         <v>70</v>
       </c>
+      <c r="K595" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -25346,6 +27133,9 @@
       <c r="J596" t="n">
         <v>100</v>
       </c>
+      <c r="K596" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -25388,6 +27178,9 @@
       <c r="J597" t="n">
         <v>100</v>
       </c>
+      <c r="K597" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -25430,6 +27223,9 @@
       <c r="J598" t="n">
         <v>100</v>
       </c>
+      <c r="K598" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -25472,6 +27268,9 @@
       <c r="J599" t="n">
         <v>100</v>
       </c>
+      <c r="K599" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -25514,6 +27313,9 @@
       <c r="J600" t="n">
         <v>100</v>
       </c>
+      <c r="K600" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -25556,6 +27358,9 @@
       <c r="J601" t="n">
         <v>60</v>
       </c>
+      <c r="K601" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -25598,6 +27403,9 @@
       <c r="J602" t="n">
         <v>100</v>
       </c>
+      <c r="K602" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -25640,6 +27448,9 @@
       <c r="J603" t="n">
         <v>80</v>
       </c>
+      <c r="K603" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -25682,6 +27493,9 @@
       <c r="J604" t="n">
         <v>60</v>
       </c>
+      <c r="K604" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -25724,6 +27538,9 @@
       <c r="J605" t="n">
         <v>0</v>
       </c>
+      <c r="K605" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -25752,19 +27569,22 @@
         </is>
       </c>
       <c r="F606" t="n">
-        <v>52.27</v>
+        <v>50</v>
       </c>
       <c r="G606" t="n">
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>100</v>
       </c>
       <c r="J606" t="n">
         <v>100</v>
+      </c>
+      <c r="K606" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="607">
@@ -25807,6 +27627,9 @@
       </c>
       <c r="J607" t="n">
         <v>60</v>
+      </c>
+      <c r="K607" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="608">
@@ -25846,6 +27669,9 @@
       <c r="J608" t="n">
         <v>100</v>
       </c>
+      <c r="K608" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -25888,6 +27714,9 @@
       <c r="J609" t="n">
         <v>100</v>
       </c>
+      <c r="K609" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -25930,6 +27759,9 @@
       <c r="J610" t="n">
         <v>100</v>
       </c>
+      <c r="K610" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -25972,6 +27804,9 @@
       <c r="J611" t="n">
         <v>100</v>
       </c>
+      <c r="K611" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -26013,6 +27848,9 @@
       </c>
       <c r="J612" t="n">
         <v>90</v>
+      </c>
+      <c r="K612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -26052,6 +27890,9 @@
       <c r="J613" t="n">
         <v>70</v>
       </c>
+      <c r="K613" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -26094,6 +27935,9 @@
       <c r="J614" t="n">
         <v>90</v>
       </c>
+      <c r="K614" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -26136,6 +27980,9 @@
       <c r="J615" t="n">
         <v>90</v>
       </c>
+      <c r="K615" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -26178,6 +28025,9 @@
       <c r="J616" t="n">
         <v>100</v>
       </c>
+      <c r="K616" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -26220,6 +28070,9 @@
       <c r="J617" t="n">
         <v>60</v>
       </c>
+      <c r="K617" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -26262,6 +28115,9 @@
       <c r="J618" t="n">
         <v>100</v>
       </c>
+      <c r="K618" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -26303,6 +28159,9 @@
       </c>
       <c r="J619" t="n">
         <v>100</v>
+      </c>
+      <c r="K619" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="620">
@@ -26342,6 +28201,9 @@
       <c r="J620" t="n">
         <v>100</v>
       </c>
+      <c r="K620" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -26384,6 +28246,9 @@
       <c r="J621" t="n">
         <v>100</v>
       </c>
+      <c r="K621" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -26426,6 +28291,9 @@
       <c r="J622" t="n">
         <v>60</v>
       </c>
+      <c r="K622" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -26468,6 +28336,9 @@
       <c r="J623" t="n">
         <v>80</v>
       </c>
+      <c r="K623" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -26510,6 +28381,9 @@
       <c r="J624" t="n">
         <v>100</v>
       </c>
+      <c r="K624" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -26551,6 +28425,9 @@
       </c>
       <c r="J625" t="n">
         <v>100</v>
+      </c>
+      <c r="K625" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="626">
@@ -26590,6 +28467,9 @@
       <c r="J626" t="n">
         <v>70</v>
       </c>
+      <c r="K626" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -26632,6 +28512,9 @@
       <c r="J627" t="n">
         <v>100</v>
       </c>
+      <c r="K627" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -26674,6 +28557,9 @@
       <c r="J628" t="n">
         <v>80</v>
       </c>
+      <c r="K628" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -26716,6 +28602,9 @@
       <c r="J629" t="n">
         <v>60</v>
       </c>
+      <c r="K629" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -26758,6 +28647,9 @@
       <c r="J630" t="n">
         <v>90</v>
       </c>
+      <c r="K630" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -26800,6 +28692,9 @@
       <c r="J631" t="n">
         <v>0</v>
       </c>
+      <c r="K631" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -26842,6 +28737,9 @@
       <c r="J632" t="n">
         <v>100</v>
       </c>
+      <c r="K632" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -26884,6 +28782,9 @@
       <c r="J633" t="n">
         <v>60</v>
       </c>
+      <c r="K633" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -26926,6 +28827,9 @@
       <c r="J634" t="n">
         <v>100</v>
       </c>
+      <c r="K634" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -26968,6 +28872,9 @@
       <c r="J635" t="n">
         <v>100</v>
       </c>
+      <c r="K635" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -27010,6 +28917,9 @@
       <c r="J636" t="n">
         <v>60</v>
       </c>
+      <c r="K636" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -27052,6 +28962,9 @@
       <c r="J637" t="n">
         <v>60</v>
       </c>
+      <c r="K637" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -27094,6 +29007,9 @@
       <c r="J638" t="n">
         <v>100</v>
       </c>
+      <c r="K638" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -27136,6 +29052,9 @@
       <c r="J639" t="n">
         <v>100</v>
       </c>
+      <c r="K639" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -27178,6 +29097,9 @@
       <c r="J640" t="n">
         <v>0</v>
       </c>
+      <c r="K640" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -27220,6 +29142,9 @@
       <c r="J641" t="n">
         <v>80</v>
       </c>
+      <c r="K641" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -27261,6 +29186,9 @@
       </c>
       <c r="J642" t="n">
         <v>100</v>
+      </c>
+      <c r="K642" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="643">
@@ -27300,6 +29228,9 @@
       <c r="J643" t="n">
         <v>100</v>
       </c>
+      <c r="K643" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -27342,6 +29273,9 @@
       <c r="J644" t="n">
         <v>0</v>
       </c>
+      <c r="K644" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -27384,6 +29318,9 @@
       <c r="J645" t="n">
         <v>60</v>
       </c>
+      <c r="K645" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -27426,6 +29363,9 @@
       <c r="J646" t="n">
         <v>100</v>
       </c>
+      <c r="K646" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -27468,6 +29408,9 @@
       <c r="J647" t="n">
         <v>60</v>
       </c>
+      <c r="K647" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -27510,6 +29453,9 @@
       <c r="J648" t="n">
         <v>100</v>
       </c>
+      <c r="K648" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -27552,6 +29498,9 @@
       <c r="J649" t="n">
         <v>100</v>
       </c>
+      <c r="K649" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -27594,6 +29543,9 @@
       <c r="J650" t="n">
         <v>100</v>
       </c>
+      <c r="K650" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -27636,6 +29588,9 @@
       <c r="J651" t="n">
         <v>0</v>
       </c>
+      <c r="K651" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -27678,6 +29633,9 @@
       <c r="J652" t="n">
         <v>100</v>
       </c>
+      <c r="K652" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -27720,6 +29678,9 @@
       <c r="J653" t="n">
         <v>100</v>
       </c>
+      <c r="K653" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -27762,6 +29723,9 @@
       <c r="J654" t="n">
         <v>100</v>
       </c>
+      <c r="K654" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -27804,6 +29768,9 @@
       <c r="J655" t="n">
         <v>100</v>
       </c>
+      <c r="K655" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -27846,6 +29813,9 @@
       <c r="J656" t="n">
         <v>100</v>
       </c>
+      <c r="K656" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -27888,6 +29858,9 @@
       <c r="J657" t="n">
         <v>100</v>
       </c>
+      <c r="K657" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -27930,6 +29903,9 @@
       <c r="J658" t="n">
         <v>100</v>
       </c>
+      <c r="K658" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -27972,6 +29948,9 @@
       <c r="J659" t="n">
         <v>100</v>
       </c>
+      <c r="K659" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -28014,6 +29993,9 @@
       <c r="J660" t="n">
         <v>100</v>
       </c>
+      <c r="K660" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -28056,6 +30038,9 @@
       <c r="J661" t="n">
         <v>100</v>
       </c>
+      <c r="K661" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -28098,6 +30083,9 @@
       <c r="J662" t="n">
         <v>100</v>
       </c>
+      <c r="K662" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -28140,6 +30128,9 @@
       <c r="J663" t="n">
         <v>100</v>
       </c>
+      <c r="K663" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -28182,6 +30173,9 @@
       <c r="J664" t="n">
         <v>80</v>
       </c>
+      <c r="K664" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -28224,6 +30218,9 @@
       <c r="J665" t="n">
         <v>100</v>
       </c>
+      <c r="K665" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -28266,6 +30263,9 @@
       <c r="J666" t="n">
         <v>100</v>
       </c>
+      <c r="K666" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -28308,6 +30308,9 @@
       <c r="J667" t="n">
         <v>100</v>
       </c>
+      <c r="K667" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -28350,6 +30353,9 @@
       <c r="J668" t="n">
         <v>80</v>
       </c>
+      <c r="K668" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -28392,6 +30398,9 @@
       <c r="J669" t="n">
         <v>100</v>
       </c>
+      <c r="K669" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -28434,6 +30443,9 @@
       <c r="J670" t="n">
         <v>100</v>
       </c>
+      <c r="K670" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -28476,6 +30488,9 @@
       <c r="J671" t="n">
         <v>80</v>
       </c>
+      <c r="K671" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -28518,6 +30533,9 @@
       <c r="J672" t="n">
         <v>100</v>
       </c>
+      <c r="K672" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -28560,6 +30578,9 @@
       <c r="J673" t="n">
         <v>100</v>
       </c>
+      <c r="K673" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -28602,6 +30623,9 @@
       <c r="J674" t="n">
         <v>100</v>
       </c>
+      <c r="K674" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -28644,6 +30668,9 @@
       <c r="J675" t="n">
         <v>60</v>
       </c>
+      <c r="K675" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -28686,6 +30713,9 @@
       <c r="J676" t="n">
         <v>60</v>
       </c>
+      <c r="K676" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -28727,6 +30757,9 @@
       </c>
       <c r="J677" t="n">
         <v>60</v>
+      </c>
+      <c r="K677" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="678">
@@ -28766,6 +30799,9 @@
       <c r="J678" t="n">
         <v>100</v>
       </c>
+      <c r="K678" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -28808,6 +30844,9 @@
       <c r="J679" t="n">
         <v>100</v>
       </c>
+      <c r="K679" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -28850,6 +30889,9 @@
       <c r="J680" t="n">
         <v>100</v>
       </c>
+      <c r="K680" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -28892,6 +30934,9 @@
       <c r="J681" t="n">
         <v>70</v>
       </c>
+      <c r="K681" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -28934,6 +30979,9 @@
       <c r="J682" t="n">
         <v>100</v>
       </c>
+      <c r="K682" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -28976,6 +31024,9 @@
       <c r="J683" t="n">
         <v>100</v>
       </c>
+      <c r="K683" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -29018,6 +31069,9 @@
       <c r="J684" t="n">
         <v>100</v>
       </c>
+      <c r="K684" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -29060,6 +31114,9 @@
       <c r="J685" t="n">
         <v>100</v>
       </c>
+      <c r="K685" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -29102,6 +31159,9 @@
       <c r="J686" t="n">
         <v>100</v>
       </c>
+      <c r="K686" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -29144,6 +31204,9 @@
       <c r="J687" t="n">
         <v>70</v>
       </c>
+      <c r="K687" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -29186,6 +31249,9 @@
       <c r="J688" t="n">
         <v>70</v>
       </c>
+      <c r="K688" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -29228,6 +31294,9 @@
       <c r="J689" t="n">
         <v>60</v>
       </c>
+      <c r="K689" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -29270,6 +31339,9 @@
       <c r="J690" t="n">
         <v>100</v>
       </c>
+      <c r="K690" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -29312,6 +31384,9 @@
       <c r="J691" t="n">
         <v>100</v>
       </c>
+      <c r="K691" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -29354,6 +31429,9 @@
       <c r="J692" t="n">
         <v>100</v>
       </c>
+      <c r="K692" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -29396,6 +31474,9 @@
       <c r="J693" t="n">
         <v>100</v>
       </c>
+      <c r="K693" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -29438,6 +31519,9 @@
       <c r="J694" t="n">
         <v>100</v>
       </c>
+      <c r="K694" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -29480,6 +31564,9 @@
       <c r="J695" t="n">
         <v>100</v>
       </c>
+      <c r="K695" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -29522,6 +31609,9 @@
       <c r="J696" t="n">
         <v>90</v>
       </c>
+      <c r="K696" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -29563,6 +31653,9 @@
       </c>
       <c r="J697" t="n">
         <v>60</v>
+      </c>
+      <c r="K697" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="698">
@@ -29602,6 +31695,9 @@
       <c r="J698" t="n">
         <v>100</v>
       </c>
+      <c r="K698" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -29644,6 +31740,9 @@
       <c r="J699" t="n">
         <v>100</v>
       </c>
+      <c r="K699" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -29686,6 +31785,9 @@
       <c r="J700" t="n">
         <v>100</v>
       </c>
+      <c r="K700" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -29728,6 +31830,9 @@
       <c r="J701" t="n">
         <v>0</v>
       </c>
+      <c r="K701" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -29770,6 +31875,9 @@
       <c r="J702" t="n">
         <v>100</v>
       </c>
+      <c r="K702" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -29812,6 +31920,9 @@
       <c r="J703" t="n">
         <v>100</v>
       </c>
+      <c r="K703" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -29854,6 +31965,9 @@
       <c r="J704" t="n">
         <v>100</v>
       </c>
+      <c r="K704" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -29896,6 +32010,9 @@
       <c r="J705" t="n">
         <v>100</v>
       </c>
+      <c r="K705" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -29938,6 +32055,9 @@
       <c r="J706" t="n">
         <v>0</v>
       </c>
+      <c r="K706" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -29980,6 +32100,9 @@
       <c r="J707" t="n">
         <v>90</v>
       </c>
+      <c r="K707" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -30021,6 +32144,9 @@
       </c>
       <c r="J708" t="n">
         <v>100</v>
+      </c>
+      <c r="K708" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="709">
@@ -30060,6 +32186,9 @@
       <c r="J709" t="n">
         <v>100</v>
       </c>
+      <c r="K709" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -30102,6 +32231,9 @@
       <c r="J710" t="n">
         <v>100</v>
       </c>
+      <c r="K710" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -30144,6 +32276,9 @@
       <c r="J711" t="n">
         <v>100</v>
       </c>
+      <c r="K711" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -30186,6 +32321,9 @@
       <c r="J712" t="n">
         <v>60</v>
       </c>
+      <c r="K712" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -30228,6 +32366,9 @@
       <c r="J713" t="n">
         <v>70</v>
       </c>
+      <c r="K713" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -30270,6 +32411,9 @@
       <c r="J714" t="n">
         <v>70</v>
       </c>
+      <c r="K714" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -30312,6 +32456,9 @@
       <c r="J715" t="n">
         <v>100</v>
       </c>
+      <c r="K715" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -30354,6 +32501,9 @@
       <c r="J716" t="n">
         <v>100</v>
       </c>
+      <c r="K716" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -30396,6 +32546,9 @@
       <c r="J717" t="n">
         <v>100</v>
       </c>
+      <c r="K717" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -30438,6 +32591,9 @@
       <c r="J718" t="n">
         <v>60</v>
       </c>
+      <c r="K718" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -30480,6 +32636,9 @@
       <c r="J719" t="n">
         <v>0</v>
       </c>
+      <c r="K719" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -30522,6 +32681,9 @@
       <c r="J720" t="n">
         <v>100</v>
       </c>
+      <c r="K720" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -30564,6 +32726,9 @@
       <c r="J721" t="n">
         <v>100</v>
       </c>
+      <c r="K721" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -30606,6 +32771,9 @@
       <c r="J722" t="n">
         <v>100</v>
       </c>
+      <c r="K722" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -30648,6 +32816,9 @@
       <c r="J723" t="n">
         <v>100</v>
       </c>
+      <c r="K723" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -30690,6 +32861,9 @@
       <c r="J724" t="n">
         <v>100</v>
       </c>
+      <c r="K724" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -30732,6 +32906,9 @@
       <c r="J725" t="n">
         <v>100</v>
       </c>
+      <c r="K725" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -30774,6 +32951,9 @@
       <c r="J726" t="n">
         <v>100</v>
       </c>
+      <c r="K726" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -30816,6 +32996,9 @@
       <c r="J727" t="n">
         <v>100</v>
       </c>
+      <c r="K727" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -30858,6 +33041,9 @@
       <c r="J728" t="n">
         <v>100</v>
       </c>
+      <c r="K728" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -30900,6 +33086,9 @@
       <c r="J729" t="n">
         <v>100</v>
       </c>
+      <c r="K729" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -30942,6 +33131,9 @@
       <c r="J730" t="n">
         <v>100</v>
       </c>
+      <c r="K730" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -30984,6 +33176,9 @@
       <c r="J731" t="n">
         <v>100</v>
       </c>
+      <c r="K731" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -31026,6 +33221,9 @@
       <c r="J732" t="n">
         <v>100</v>
       </c>
+      <c r="K732" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -31068,6 +33266,9 @@
       <c r="J733" t="n">
         <v>100</v>
       </c>
+      <c r="K733" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -31110,6 +33311,9 @@
       <c r="J734" t="n">
         <v>0</v>
       </c>
+      <c r="K734" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -31152,6 +33356,9 @@
       <c r="J735" t="n">
         <v>100</v>
       </c>
+      <c r="K735" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -31194,6 +33401,9 @@
       <c r="J736" t="n">
         <v>100</v>
       </c>
+      <c r="K736" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -31236,6 +33446,9 @@
       <c r="J737" t="n">
         <v>100</v>
       </c>
+      <c r="K737" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -31277,6 +33490,9 @@
       </c>
       <c r="J738" t="n">
         <v>70</v>
+      </c>
+      <c r="K738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -31316,6 +33532,9 @@
       <c r="J739" t="n">
         <v>100</v>
       </c>
+      <c r="K739" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -31358,6 +33577,9 @@
       <c r="J740" t="n">
         <v>100</v>
       </c>
+      <c r="K740" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -31400,6 +33622,9 @@
       <c r="J741" t="n">
         <v>100</v>
       </c>
+      <c r="K741" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -31442,6 +33667,9 @@
       <c r="J742" t="n">
         <v>100</v>
       </c>
+      <c r="K742" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -31484,6 +33712,9 @@
       <c r="J743" t="n">
         <v>100</v>
       </c>
+      <c r="K743" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -31526,6 +33757,9 @@
       <c r="J744" t="n">
         <v>100</v>
       </c>
+      <c r="K744" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -31568,6 +33802,9 @@
       <c r="J745" t="n">
         <v>100</v>
       </c>
+      <c r="K745" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -31610,6 +33847,9 @@
       <c r="J746" t="n">
         <v>100</v>
       </c>
+      <c r="K746" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -31652,6 +33892,9 @@
       <c r="J747" t="n">
         <v>100</v>
       </c>
+      <c r="K747" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -31694,6 +33937,9 @@
       <c r="J748" t="n">
         <v>100</v>
       </c>
+      <c r="K748" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -31735,6 +33981,9 @@
       </c>
       <c r="J749" t="n">
         <v>100</v>
+      </c>
+      <c r="K749" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="750">
@@ -31774,6 +34023,9 @@
       <c r="J750" t="n">
         <v>100</v>
       </c>
+      <c r="K750" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -31816,6 +34068,9 @@
       <c r="J751" t="n">
         <v>100</v>
       </c>
+      <c r="K751" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -31858,6 +34113,9 @@
       <c r="J752" t="n">
         <v>100</v>
       </c>
+      <c r="K752" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -31900,6 +34158,9 @@
       <c r="J753" t="n">
         <v>100</v>
       </c>
+      <c r="K753" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -31942,6 +34203,9 @@
       <c r="J754" t="n">
         <v>100</v>
       </c>
+      <c r="K754" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -31984,6 +34248,9 @@
       <c r="J755" t="n">
         <v>100</v>
       </c>
+      <c r="K755" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -32026,6 +34293,9 @@
       <c r="J756" t="n">
         <v>70</v>
       </c>
+      <c r="K756" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -32068,6 +34338,9 @@
       <c r="J757" t="n">
         <v>100</v>
       </c>
+      <c r="K757" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -32110,6 +34383,9 @@
       <c r="J758" t="n">
         <v>100</v>
       </c>
+      <c r="K758" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -32152,6 +34428,9 @@
       <c r="J759" t="n">
         <v>70</v>
       </c>
+      <c r="K759" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -32194,6 +34473,9 @@
       <c r="J760" t="n">
         <v>60</v>
       </c>
+      <c r="K760" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -32236,6 +34518,9 @@
       <c r="J761" t="n">
         <v>0</v>
       </c>
+      <c r="K761" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -32278,6 +34563,9 @@
       <c r="J762" t="n">
         <v>60</v>
       </c>
+      <c r="K762" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -32320,6 +34608,9 @@
       <c r="J763" t="n">
         <v>70</v>
       </c>
+      <c r="K763" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -32362,6 +34653,9 @@
       <c r="J764" t="n">
         <v>100</v>
       </c>
+      <c r="K764" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -32404,6 +34698,9 @@
       <c r="J765" t="n">
         <v>100</v>
       </c>
+      <c r="K765" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -32446,6 +34743,9 @@
       <c r="J766" t="n">
         <v>100</v>
       </c>
+      <c r="K766" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -32488,6 +34788,9 @@
       <c r="J767" t="n">
         <v>100</v>
       </c>
+      <c r="K767" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -32530,6 +34833,9 @@
       <c r="J768" t="n">
         <v>60</v>
       </c>
+      <c r="K768" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -32571,6 +34877,9 @@
       </c>
       <c r="J769" t="n">
         <v>100</v>
+      </c>
+      <c r="K769" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="770">
@@ -32610,6 +34919,9 @@
       <c r="J770" t="n">
         <v>100</v>
       </c>
+      <c r="K770" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -32638,19 +34950,22 @@
         </is>
       </c>
       <c r="F771" t="n">
-        <v>52.27</v>
+        <v>50</v>
       </c>
       <c r="G771" t="n">
         <v>0</v>
       </c>
       <c r="H771" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I771" t="n">
         <v>100</v>
       </c>
       <c r="J771" t="n">
         <v>100</v>
+      </c>
+      <c r="K771" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="772">
@@ -32694,6 +35009,9 @@
       <c r="J772" t="n">
         <v>60</v>
       </c>
+      <c r="K772" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -32736,6 +35054,9 @@
       <c r="J773" t="n">
         <v>70</v>
       </c>
+      <c r="K773" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -32778,6 +35099,9 @@
       <c r="J774" t="n">
         <v>100</v>
       </c>
+      <c r="K774" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -32820,6 +35144,9 @@
       <c r="J775" t="n">
         <v>100</v>
       </c>
+      <c r="K775" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -32862,6 +35189,9 @@
       <c r="J776" t="n">
         <v>100</v>
       </c>
+      <c r="K776" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -32904,6 +35234,9 @@
       <c r="J777" t="n">
         <v>70</v>
       </c>
+      <c r="K777" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -32946,6 +35279,9 @@
       <c r="J778" t="n">
         <v>100</v>
       </c>
+      <c r="K778" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -32988,6 +35324,9 @@
       <c r="J779" t="n">
         <v>60</v>
       </c>
+      <c r="K779" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -33030,6 +35369,9 @@
       <c r="J780" t="n">
         <v>100</v>
       </c>
+      <c r="K780" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -33071,6 +35413,9 @@
       </c>
       <c r="J781" t="n">
         <v>90</v>
+      </c>
+      <c r="K781" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="782">
@@ -33110,6 +35455,9 @@
       <c r="J782" t="n">
         <v>100</v>
       </c>
+      <c r="K782" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -33152,6 +35500,9 @@
       <c r="J783" t="n">
         <v>70</v>
       </c>
+      <c r="K783" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -33194,6 +35545,9 @@
       <c r="J784" t="n">
         <v>100</v>
       </c>
+      <c r="K784" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -33236,6 +35590,9 @@
       <c r="J785" t="n">
         <v>100</v>
       </c>
+      <c r="K785" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -33278,6 +35635,9 @@
       <c r="J786" t="n">
         <v>70</v>
       </c>
+      <c r="K786" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -33320,6 +35680,9 @@
       <c r="J787" t="n">
         <v>90</v>
       </c>
+      <c r="K787" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -33362,6 +35725,9 @@
       <c r="J788" t="n">
         <v>100</v>
       </c>
+      <c r="K788" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -33404,6 +35770,9 @@
       <c r="J789" t="n">
         <v>100</v>
       </c>
+      <c r="K789" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -33446,6 +35815,9 @@
       <c r="J790" t="n">
         <v>100</v>
       </c>
+      <c r="K790" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -33488,6 +35860,9 @@
       <c r="J791" t="n">
         <v>100</v>
       </c>
+      <c r="K791" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -33530,6 +35905,9 @@
       <c r="J792" t="n">
         <v>0</v>
       </c>
+      <c r="K792" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -33572,6 +35950,9 @@
       <c r="J793" t="n">
         <v>100</v>
       </c>
+      <c r="K793" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -33613,6 +35994,9 @@
       </c>
       <c r="J794" t="n">
         <v>60</v>
+      </c>
+      <c r="K794" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="795">
@@ -33652,6 +36036,9 @@
       <c r="J795" t="n">
         <v>100</v>
       </c>
+      <c r="K795" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -33694,6 +36081,9 @@
       <c r="J796" t="n">
         <v>100</v>
       </c>
+      <c r="K796" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -33736,6 +36126,9 @@
       <c r="J797" t="n">
         <v>100</v>
       </c>
+      <c r="K797" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -33777,6 +36170,9 @@
       </c>
       <c r="J798" t="n">
         <v>80</v>
+      </c>
+      <c r="K798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -33816,6 +36212,9 @@
       <c r="J799" t="n">
         <v>100</v>
       </c>
+      <c r="K799" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -33858,6 +36257,9 @@
       <c r="J800" t="n">
         <v>90</v>
       </c>
+      <c r="K800" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
@@ -33900,6 +36302,9 @@
       <c r="J801" t="n">
         <v>100</v>
       </c>
+      <c r="K801" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
@@ -33942,6 +36347,9 @@
       <c r="J802" t="n">
         <v>100</v>
       </c>
+      <c r="K802" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -33984,6 +36392,9 @@
       <c r="J803" t="n">
         <v>70</v>
       </c>
+      <c r="K803" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
@@ -34026,6 +36437,9 @@
       <c r="J804" t="n">
         <v>100</v>
       </c>
+      <c r="K804" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -34068,6 +36482,9 @@
       <c r="J805" t="n">
         <v>100</v>
       </c>
+      <c r="K805" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -34110,6 +36527,9 @@
       <c r="J806" t="n">
         <v>100</v>
       </c>
+      <c r="K806" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
@@ -34152,6 +36572,9 @@
       <c r="J807" t="n">
         <v>100</v>
       </c>
+      <c r="K807" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
@@ -34194,6 +36617,9 @@
       <c r="J808" t="n">
         <v>100</v>
       </c>
+      <c r="K808" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
@@ -34236,6 +36662,9 @@
       <c r="J809" t="n">
         <v>100</v>
       </c>
+      <c r="K809" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
@@ -34278,6 +36707,9 @@
       <c r="J810" t="n">
         <v>70</v>
       </c>
+      <c r="K810" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
@@ -34320,6 +36752,9 @@
       <c r="J811" t="n">
         <v>100</v>
       </c>
+      <c r="K811" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
@@ -34362,6 +36797,9 @@
       <c r="J812" t="n">
         <v>70</v>
       </c>
+      <c r="K812" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
@@ -34404,6 +36842,9 @@
       <c r="J813" t="n">
         <v>0</v>
       </c>
+      <c r="K813" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
@@ -34446,6 +36887,9 @@
       <c r="J814" t="n">
         <v>40</v>
       </c>
+      <c r="K814" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
@@ -34488,6 +36932,9 @@
       <c r="J815" t="n">
         <v>60</v>
       </c>
+      <c r="K815" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
@@ -34530,6 +36977,9 @@
       <c r="J816" t="n">
         <v>40</v>
       </c>
+      <c r="K816" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
@@ -34572,6 +37022,9 @@
       <c r="J817" t="n">
         <v>100</v>
       </c>
+      <c r="K817" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -34614,6 +37067,9 @@
       <c r="J818" t="n">
         <v>100</v>
       </c>
+      <c r="K818" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
@@ -34656,6 +37112,9 @@
       <c r="J819" t="n">
         <v>80</v>
       </c>
+      <c r="K819" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
@@ -34698,6 +37157,9 @@
       <c r="J820" t="n">
         <v>80</v>
       </c>
+      <c r="K820" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
@@ -34740,6 +37202,9 @@
       <c r="J821" t="n">
         <v>100</v>
       </c>
+      <c r="K821" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
@@ -34782,6 +37247,9 @@
       <c r="J822" t="n">
         <v>100</v>
       </c>
+      <c r="K822" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
@@ -34824,6 +37292,9 @@
       <c r="J823" t="n">
         <v>90</v>
       </c>
+      <c r="K823" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
@@ -34866,6 +37337,9 @@
       <c r="J824" t="n">
         <v>100</v>
       </c>
+      <c r="K824" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
@@ -34908,6 +37382,9 @@
       <c r="J825" t="n">
         <v>100</v>
       </c>
+      <c r="K825" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
@@ -34949,6 +37426,9 @@
       </c>
       <c r="J826" t="n">
         <v>100</v>
+      </c>
+      <c r="K826" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="827">
@@ -34988,6 +37468,9 @@
       <c r="J827" t="n">
         <v>100</v>
       </c>
+      <c r="K827" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
@@ -35030,6 +37513,9 @@
       <c r="J828" t="n">
         <v>100</v>
       </c>
+      <c r="K828" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
@@ -35072,6 +37558,9 @@
       <c r="J829" t="n">
         <v>100</v>
       </c>
+      <c r="K829" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
@@ -35114,6 +37603,9 @@
       <c r="J830" t="n">
         <v>90</v>
       </c>
+      <c r="K830" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
@@ -35156,6 +37648,9 @@
       <c r="J831" t="n">
         <v>90</v>
       </c>
+      <c r="K831" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
@@ -35198,6 +37693,9 @@
       <c r="J832" t="n">
         <v>100</v>
       </c>
+      <c r="K832" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
@@ -35240,6 +37738,9 @@
       <c r="J833" t="n">
         <v>100</v>
       </c>
+      <c r="K833" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
@@ -35282,6 +37783,9 @@
       <c r="J834" t="n">
         <v>70</v>
       </c>
+      <c r="K834" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
@@ -35324,6 +37828,9 @@
       <c r="J835" t="n">
         <v>60</v>
       </c>
+      <c r="K835" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
@@ -35366,6 +37873,9 @@
       <c r="J836" t="n">
         <v>0</v>
       </c>
+      <c r="K836" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
@@ -35408,6 +37918,9 @@
       <c r="J837" t="n">
         <v>100</v>
       </c>
+      <c r="K837" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
@@ -35450,6 +37963,9 @@
       <c r="J838" t="n">
         <v>100</v>
       </c>
+      <c r="K838" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
@@ -35492,6 +38008,9 @@
       <c r="J839" t="n">
         <v>100</v>
       </c>
+      <c r="K839" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
@@ -35534,6 +38053,9 @@
       <c r="J840" t="n">
         <v>70</v>
       </c>
+      <c r="K840" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
@@ -35576,6 +38098,9 @@
       <c r="J841" t="n">
         <v>60</v>
       </c>
+      <c r="K841" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
@@ -35618,6 +38143,9 @@
       <c r="J842" t="n">
         <v>100</v>
       </c>
+      <c r="K842" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
@@ -35660,6 +38188,9 @@
       <c r="J843" t="n">
         <v>0</v>
       </c>
+      <c r="K843" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
@@ -35702,6 +38233,9 @@
       <c r="J844" t="n">
         <v>0</v>
       </c>
+      <c r="K844" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
@@ -35744,6 +38278,9 @@
       <c r="J845" t="n">
         <v>100</v>
       </c>
+      <c r="K845" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
@@ -35786,6 +38323,9 @@
       <c r="J846" t="n">
         <v>60</v>
       </c>
+      <c r="K846" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
@@ -35828,6 +38368,9 @@
       <c r="J847" t="n">
         <v>100</v>
       </c>
+      <c r="K847" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
@@ -35870,6 +38413,9 @@
       <c r="J848" t="n">
         <v>100</v>
       </c>
+      <c r="K848" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
@@ -35912,6 +38458,9 @@
       <c r="J849" t="n">
         <v>90</v>
       </c>
+      <c r="K849" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
@@ -35954,6 +38503,9 @@
       <c r="J850" t="n">
         <v>60</v>
       </c>
+      <c r="K850" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
@@ -35996,6 +38548,9 @@
       <c r="J851" t="n">
         <v>60</v>
       </c>
+      <c r="K851" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
@@ -36038,6 +38593,9 @@
       <c r="J852" t="n">
         <v>40</v>
       </c>
+      <c r="K852" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
@@ -36080,6 +38638,9 @@
       <c r="J853" t="n">
         <v>60</v>
       </c>
+      <c r="K853" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -36122,6 +38683,9 @@
       <c r="J854" t="n">
         <v>100</v>
       </c>
+      <c r="K854" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
@@ -36164,6 +38728,9 @@
       <c r="J855" t="n">
         <v>100</v>
       </c>
+      <c r="K855" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
@@ -36192,19 +38759,22 @@
         </is>
       </c>
       <c r="F856" t="n">
-        <v>52.27</v>
+        <v>50</v>
       </c>
       <c r="G856" t="n">
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I856" t="n">
         <v>100</v>
       </c>
       <c r="J856" t="n">
         <v>100</v>
+      </c>
+      <c r="K856" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="857">
@@ -36247,6 +38817,9 @@
       </c>
       <c r="J857" t="n">
         <v>90</v>
+      </c>
+      <c r="K857" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/df_recommendation_related_parameters.xlsx
+++ b/df_recommendation_related_parameters.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Recent (%)</t>
+          <t>Up-To-Date (%)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">

--- a/df_recommendation_related_parameters.xlsx
+++ b/df_recommendation_related_parameters.xlsx
@@ -517,13 +517,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>100</v>
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
         <v>100</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G8" t="n">
         <v>27.78</v>
       </c>
       <c r="H8" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>100</v>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>100</v>
@@ -877,13 +877,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>100</v>
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>56.44</v>
+        <v>79.17</v>
       </c>
       <c r="G11" t="n">
         <v>16.67</v>
       </c>
       <c r="H11" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>100</v>
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>100</v>
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>72.34999999999999</v>
+        <v>79.17</v>
       </c>
       <c r="G13" t="n">
         <v>16.67</v>
       </c>
       <c r="H13" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
         <v>100</v>
@@ -1057,13 +1057,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>100</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="G15" t="n">
         <v>88.89</v>
       </c>
       <c r="H15" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
         <v>100</v>
@@ -1192,13 +1192,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I17" t="n">
         <v>100</v>
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I18" t="n">
         <v>100</v>
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I19" t="n">
         <v>100</v>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I20" t="n">
         <v>100</v>
@@ -1372,13 +1372,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G21" t="n">
         <v>27.78</v>
       </c>
       <c r="H21" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
         <v>100</v>
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I24" t="n">
         <v>100</v>
@@ -1642,13 +1642,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="G27" t="n">
         <v>83.33</v>
       </c>
       <c r="H27" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
         <v>100</v>
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I28" t="n">
         <v>100</v>
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I30" t="n">
         <v>100</v>
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I31" t="n">
         <v>100</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
         <v>100</v>
@@ -1912,13 +1912,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I33" t="n">
         <v>100</v>
@@ -1957,13 +1957,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G34" t="n">
         <v>27.78</v>
       </c>
       <c r="H34" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I34" t="n">
         <v>100</v>
@@ -2182,13 +2182,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="G39" t="n">
         <v>83.33</v>
       </c>
       <c r="H39" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I39" t="n">
         <v>100</v>
@@ -2272,13 +2272,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I41" t="n">
         <v>100</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I42" t="n">
         <v>100</v>
@@ -2497,13 +2497,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G46" t="n">
         <v>27.78</v>
       </c>
       <c r="H46" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I46" t="n">
         <v>100</v>
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G51" t="n">
         <v>27.78</v>
       </c>
       <c r="H51" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I51" t="n">
         <v>100</v>
@@ -2763,13 +2763,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>100</v>
       </c>
       <c r="H52" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I52" t="n">
         <v>100</v>
@@ -2808,13 +2808,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G53" t="n">
         <v>100</v>
       </c>
       <c r="H53" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I53" t="n">
         <v>100</v>
@@ -2853,13 +2853,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G54" t="n">
         <v>100</v>
       </c>
       <c r="H54" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I54" t="n">
         <v>100</v>
@@ -2898,13 +2898,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G55" t="n">
         <v>100</v>
       </c>
       <c r="H55" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I55" t="n">
         <v>60</v>
@@ -2988,13 +2988,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I57" t="n">
         <v>100</v>
@@ -3033,13 +3033,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I58" t="n">
         <v>100</v>
@@ -3078,13 +3078,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I59" t="n">
         <v>100</v>
@@ -3164,13 +3164,13 @@
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G61" t="n">
         <v>27.78</v>
       </c>
       <c r="H61" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I61" t="n">
         <v>100</v>
@@ -3389,13 +3389,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G66" t="n">
         <v>94.44</v>
       </c>
       <c r="H66" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I66" t="n">
         <v>100</v>
@@ -3479,13 +3479,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>77.53</v>
+        <v>88.89</v>
       </c>
       <c r="G68" t="n">
         <v>55.56</v>
       </c>
       <c r="H68" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I68" t="n">
         <v>100</v>
@@ -3614,13 +3614,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G71" t="n">
         <v>100</v>
       </c>
       <c r="H71" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I71" t="n">
         <v>100</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I72" t="n">
         <v>100</v>
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I73" t="n">
         <v>100</v>
@@ -3790,13 +3790,13 @@
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G75" t="n">
         <v>27.78</v>
       </c>
       <c r="H75" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I75" t="n">
         <v>100</v>
@@ -3970,13 +3970,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G79" t="n">
         <v>94.44</v>
       </c>
       <c r="H79" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I79" t="n">
         <v>100</v>
@@ -4060,13 +4060,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>77.53</v>
+        <v>88.89</v>
       </c>
       <c r="G81" t="n">
         <v>55.56</v>
       </c>
       <c r="H81" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I81" t="n">
         <v>100</v>
@@ -4150,13 +4150,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I83" t="n">
         <v>100</v>
@@ -4240,13 +4240,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="G85" t="n">
         <v>83.33</v>
       </c>
       <c r="H85" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I85" t="n">
         <v>100</v>
@@ -4285,13 +4285,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I86" t="n">
         <v>100</v>
@@ -4330,13 +4330,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I87" t="n">
         <v>100</v>
@@ -4506,13 +4506,13 @@
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G91" t="n">
         <v>27.78</v>
       </c>
       <c r="H91" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I91" t="n">
         <v>100</v>
@@ -4641,13 +4641,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G94" t="n">
         <v>27.78</v>
       </c>
       <c r="H94" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I94" t="n">
         <v>100</v>
@@ -4776,13 +4776,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I97" t="n">
         <v>100</v>
@@ -4821,13 +4821,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>77.53</v>
+        <v>88.89</v>
       </c>
       <c r="G98" t="n">
         <v>55.56</v>
       </c>
       <c r="H98" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I98" t="n">
         <v>100</v>
@@ -4866,13 +4866,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="G99" t="n">
         <v>83.33</v>
       </c>
       <c r="H99" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I99" t="n">
         <v>100</v>
@@ -4911,13 +4911,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I100" t="n">
         <v>100</v>
@@ -4956,13 +4956,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I101" t="n">
         <v>100</v>
@@ -5042,13 +5042,13 @@
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G103" t="n">
         <v>27.78</v>
       </c>
       <c r="H103" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I103" t="n">
         <v>100</v>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G107" t="n">
         <v>94.44</v>
       </c>
       <c r="H107" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I107" t="n">
         <v>100</v>
@@ -5312,13 +5312,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>77.53</v>
+        <v>88.89</v>
       </c>
       <c r="G109" t="n">
         <v>55.56</v>
       </c>
       <c r="H109" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I109" t="n">
         <v>100</v>
@@ -5402,13 +5402,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G111" t="n">
         <v>27.78</v>
       </c>
       <c r="H111" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I111" t="n">
         <v>100</v>
@@ -5447,13 +5447,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I112" t="n">
         <v>100</v>
@@ -5492,13 +5492,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I113" t="n">
         <v>100</v>
@@ -5537,13 +5537,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I114" t="n">
         <v>100</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I115" t="n">
         <v>100</v>
@@ -5668,13 +5668,13 @@
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G117" t="n">
         <v>27.78</v>
       </c>
       <c r="H117" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I117" t="n">
         <v>100</v>
@@ -5848,13 +5848,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G121" t="n">
         <v>94.44</v>
       </c>
       <c r="H121" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I121" t="n">
         <v>100</v>
@@ -5938,13 +5938,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>77.53</v>
+        <v>88.89</v>
       </c>
       <c r="G123" t="n">
         <v>55.56</v>
       </c>
       <c r="H123" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I123" t="n">
         <v>100</v>
@@ -6028,13 +6028,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G125" t="n">
         <v>27.78</v>
       </c>
       <c r="H125" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I125" t="n">
         <v>100</v>
@@ -6073,13 +6073,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I126" t="n">
         <v>100</v>
@@ -6118,13 +6118,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I127" t="n">
         <v>100</v>
@@ -6298,13 +6298,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G131" t="n">
         <v>100</v>
       </c>
       <c r="H131" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I131" t="n">
         <v>100</v>
@@ -6343,13 +6343,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G132" t="n">
         <v>100</v>
       </c>
       <c r="H132" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I132" t="n">
         <v>100</v>
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G135" t="n">
         <v>27.78</v>
       </c>
       <c r="H135" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I135" t="n">
         <v>100</v>
@@ -6613,13 +6613,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G138" t="n">
         <v>27.78</v>
       </c>
       <c r="H138" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I138" t="n">
         <v>100</v>
@@ -6658,13 +6658,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="G139" t="n">
         <v>88.89</v>
       </c>
       <c r="H139" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I139" t="n">
         <v>100</v>
@@ -6748,13 +6748,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>58.18</v>
+        <v>65</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I141" t="n">
         <v>100</v>
@@ -6883,13 +6883,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G144" t="n">
         <v>27.78</v>
       </c>
       <c r="H144" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I144" t="n">
         <v>100</v>
@@ -7063,13 +7063,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G148" t="n">
         <v>100</v>
       </c>
       <c r="H148" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I148" t="n">
         <v>100</v>
@@ -7108,13 +7108,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G149" t="n">
         <v>100</v>
       </c>
       <c r="H149" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I149" t="n">
         <v>60</v>
@@ -7153,13 +7153,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G150" t="n">
         <v>100</v>
       </c>
       <c r="H150" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I150" t="n">
         <v>100</v>
@@ -7333,13 +7333,13 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>74.75</v>
+        <v>86.11</v>
       </c>
       <c r="G154" t="n">
         <v>44.44</v>
       </c>
       <c r="H154" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I154" t="n">
         <v>100</v>
@@ -7378,13 +7378,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>70.33</v>
+        <v>93.06</v>
       </c>
       <c r="G155" t="n">
         <v>72.22</v>
       </c>
       <c r="H155" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I155" t="n">
         <v>100</v>
@@ -7468,13 +7468,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G157" t="n">
         <v>100</v>
       </c>
       <c r="H157" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I157" t="n">
         <v>100</v>
@@ -7513,13 +7513,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I158" t="n">
         <v>100</v>
@@ -7558,13 +7558,13 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G159" t="n">
         <v>100</v>
       </c>
       <c r="H159" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I159" t="n">
         <v>100</v>
@@ -7693,13 +7693,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G162" t="n">
         <v>100</v>
       </c>
       <c r="H162" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I162" t="n">
         <v>100</v>
@@ -7738,13 +7738,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G163" t="n">
         <v>100</v>
       </c>
       <c r="H163" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I163" t="n">
         <v>60</v>
@@ -7783,13 +7783,13 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G164" t="n">
         <v>72.22</v>
       </c>
       <c r="H164" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I164" t="n">
         <v>100</v>
@@ -7828,13 +7828,13 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>60.61</v>
+        <v>83.33</v>
       </c>
       <c r="G165" t="n">
         <v>33.33</v>
       </c>
       <c r="H165" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I165" t="n">
         <v>100</v>
@@ -7918,13 +7918,13 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="G167" t="n">
         <v>83.33</v>
       </c>
       <c r="H167" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I167" t="n">
         <v>100</v>
@@ -7963,13 +7963,13 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I168" t="n">
         <v>100</v>
@@ -8098,13 +8098,13 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G171" t="n">
         <v>100</v>
       </c>
       <c r="H171" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I171" t="n">
         <v>100</v>
@@ -8233,13 +8233,13 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G174" t="n">
         <v>100</v>
       </c>
       <c r="H174" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I174" t="n">
         <v>100</v>
@@ -8278,13 +8278,13 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G175" t="n">
         <v>72.22</v>
       </c>
       <c r="H175" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I175" t="n">
         <v>100</v>
@@ -8323,13 +8323,13 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="G176" t="n">
         <v>83.33</v>
       </c>
       <c r="H176" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I176" t="n">
         <v>100</v>
@@ -8368,13 +8368,13 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I177" t="n">
         <v>100</v>
@@ -8503,13 +8503,13 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G180" t="n">
         <v>100</v>
       </c>
       <c r="H180" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I180" t="n">
         <v>100</v>
@@ -8593,13 +8593,13 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G182" t="n">
         <v>100</v>
       </c>
       <c r="H182" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I182" t="n">
         <v>100</v>
@@ -8638,13 +8638,13 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G183" t="n">
         <v>100</v>
       </c>
       <c r="H183" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I183" t="n">
         <v>100</v>
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G184" t="n">
         <v>100</v>
       </c>
       <c r="H184" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I184" t="n">
         <v>100</v>
@@ -8773,13 +8773,13 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G186" t="n">
         <v>72.22</v>
       </c>
       <c r="H186" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I186" t="n">
         <v>100</v>
@@ -8818,13 +8818,13 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="G187" t="n">
         <v>83.33</v>
       </c>
       <c r="H187" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I187" t="n">
         <v>100</v>
@@ -8863,13 +8863,13 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I188" t="n">
         <v>100</v>
@@ -8908,13 +8908,13 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -9043,13 +9043,13 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G192" t="n">
         <v>100</v>
       </c>
       <c r="H192" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I192" t="n">
         <v>100</v>
@@ -9129,13 +9129,13 @@
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G194" t="n">
         <v>27.78</v>
       </c>
       <c r="H194" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I194" t="n">
         <v>100</v>
@@ -9309,13 +9309,13 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G198" t="n">
         <v>72.22</v>
       </c>
       <c r="H198" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I198" t="n">
         <v>100</v>
@@ -9444,13 +9444,13 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G201" t="n">
         <v>100</v>
       </c>
       <c r="H201" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I201" t="n">
         <v>100</v>
@@ -9489,13 +9489,13 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G202" t="n">
         <v>100</v>
       </c>
       <c r="H202" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I202" t="n">
         <v>60</v>
@@ -9624,13 +9624,13 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>74.75</v>
+        <v>86.11</v>
       </c>
       <c r="G205" t="n">
         <v>44.44</v>
       </c>
       <c r="H205" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I205" t="n">
         <v>100</v>
@@ -9669,13 +9669,13 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G206" t="n">
         <v>27.78</v>
       </c>
       <c r="H206" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I206" t="n">
         <v>100</v>
@@ -9714,13 +9714,13 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G207" t="n">
         <v>100</v>
       </c>
       <c r="H207" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I207" t="n">
         <v>100</v>
@@ -9890,13 +9890,13 @@
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G211" t="n">
         <v>27.78</v>
       </c>
       <c r="H211" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I211" t="n">
         <v>100</v>
@@ -9935,13 +9935,13 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G212" t="n">
         <v>72.22</v>
       </c>
       <c r="H212" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I212" t="n">
         <v>100</v>
@@ -10070,13 +10070,13 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G215" t="n">
         <v>100</v>
       </c>
       <c r="H215" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I215" t="n">
         <v>100</v>
@@ -10115,13 +10115,13 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G216" t="n">
         <v>100</v>
       </c>
       <c r="H216" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I216" t="n">
         <v>60</v>
@@ -10160,13 +10160,13 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G217" t="n">
         <v>100</v>
       </c>
       <c r="H217" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I217" t="n">
         <v>100</v>
@@ -10340,13 +10340,13 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G221" t="n">
         <v>100</v>
       </c>
       <c r="H221" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I221" t="n">
         <v>100</v>
@@ -10385,13 +10385,13 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G222" t="n">
         <v>100</v>
       </c>
       <c r="H222" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I222" t="n">
         <v>100</v>
@@ -10430,13 +10430,13 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G223" t="n">
         <v>100</v>
       </c>
       <c r="H223" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I223" t="n">
         <v>100</v>
@@ -10520,13 +10520,13 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G225" t="n">
         <v>27.78</v>
       </c>
       <c r="H225" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I225" t="n">
         <v>100</v>
@@ -10700,13 +10700,13 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G229" t="n">
         <v>100</v>
       </c>
       <c r="H229" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I229" t="n">
         <v>60</v>
@@ -10790,13 +10790,13 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G231" t="n">
         <v>100</v>
       </c>
       <c r="H231" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I231" t="n">
         <v>100</v>
@@ -10835,13 +10835,13 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G232" t="n">
         <v>100</v>
       </c>
       <c r="H232" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I232" t="n">
         <v>100</v>
@@ -10880,13 +10880,13 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G233" t="n">
         <v>100</v>
       </c>
       <c r="H233" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I233" t="n">
         <v>100</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G235" t="n">
         <v>27.78</v>
       </c>
       <c r="H235" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I235" t="n">
         <v>100</v>
@@ -11195,13 +11195,13 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G240" t="n">
         <v>100</v>
       </c>
       <c r="H240" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I240" t="n">
         <v>60</v>
@@ -11240,13 +11240,13 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G241" t="n">
         <v>100</v>
       </c>
       <c r="H241" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I241" t="n">
         <v>100</v>
@@ -11330,13 +11330,13 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>34.77</v>
+        <v>39.32</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="I243" t="n">
         <v>50</v>
@@ -11461,13 +11461,13 @@
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G246" t="n">
         <v>27.78</v>
       </c>
       <c r="H246" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I246" t="n">
         <v>100</v>
@@ -11776,13 +11776,13 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G253" t="n">
         <v>94.44</v>
       </c>
       <c r="H253" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I253" t="n">
         <v>100</v>
@@ -11911,13 +11911,13 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I256" t="n">
         <v>100</v>
@@ -11956,13 +11956,13 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I257" t="n">
         <v>100</v>
@@ -12136,13 +12136,13 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G261" t="n">
         <v>27.78</v>
       </c>
       <c r="H261" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I261" t="n">
         <v>100</v>
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G265" t="n">
         <v>94.44</v>
       </c>
       <c r="H265" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I265" t="n">
         <v>100</v>
@@ -12541,13 +12541,13 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G270" t="n">
         <v>27.78</v>
       </c>
       <c r="H270" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I270" t="n">
         <v>100</v>
@@ -12721,13 +12721,13 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G274" t="n">
         <v>94.44</v>
       </c>
       <c r="H274" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I274" t="n">
         <v>100</v>
@@ -12946,13 +12946,13 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G279" t="n">
         <v>27.78</v>
       </c>
       <c r="H279" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I279" t="n">
         <v>100</v>
@@ -13126,13 +13126,13 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G283" t="n">
         <v>94.44</v>
       </c>
       <c r="H283" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I283" t="n">
         <v>100</v>
@@ -13351,13 +13351,13 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G288" t="n">
         <v>27.78</v>
       </c>
       <c r="H288" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I288" t="n">
         <v>100</v>
@@ -13531,13 +13531,13 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G292" t="n">
         <v>94.44</v>
       </c>
       <c r="H292" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I292" t="n">
         <v>100</v>
@@ -13756,13 +13756,13 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G297" t="n">
         <v>27.78</v>
       </c>
       <c r="H297" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I297" t="n">
         <v>100</v>
@@ -13936,13 +13936,13 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G301" t="n">
         <v>94.44</v>
       </c>
       <c r="H301" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I301" t="n">
         <v>100</v>
@@ -14161,13 +14161,13 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G306" t="n">
         <v>27.78</v>
       </c>
       <c r="H306" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I306" t="n">
         <v>100</v>
@@ -14341,13 +14341,13 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G310" t="n">
         <v>94.44</v>
       </c>
       <c r="H310" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I310" t="n">
         <v>100</v>
@@ -14566,13 +14566,13 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G315" t="n">
         <v>27.78</v>
       </c>
       <c r="H315" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I315" t="n">
         <v>100</v>
@@ -14746,13 +14746,13 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G319" t="n">
         <v>94.44</v>
       </c>
       <c r="H319" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I319" t="n">
         <v>100</v>
@@ -14881,13 +14881,13 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G322" t="n">
         <v>27.78</v>
       </c>
       <c r="H322" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I322" t="n">
         <v>100</v>
@@ -14926,13 +14926,13 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G323" t="n">
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I323" t="n">
         <v>100</v>
@@ -15016,13 +15016,13 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>56.44</v>
+        <v>79.17</v>
       </c>
       <c r="G325" t="n">
         <v>16.67</v>
       </c>
       <c r="H325" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I325" t="n">
         <v>100</v>
@@ -15196,13 +15196,13 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G329" t="n">
         <v>94.44</v>
       </c>
       <c r="H329" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I329" t="n">
         <v>100</v>
@@ -15331,13 +15331,13 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G332" t="n">
         <v>27.78</v>
       </c>
       <c r="H332" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I332" t="n">
         <v>100</v>
@@ -15376,13 +15376,13 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G333" t="n">
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I333" t="n">
         <v>100</v>
@@ -15556,13 +15556,13 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G337" t="n">
         <v>100</v>
       </c>
       <c r="H337" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I337" t="n">
         <v>100</v>
@@ -15601,13 +15601,13 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>60.61</v>
+        <v>83.33</v>
       </c>
       <c r="G338" t="n">
         <v>33.33</v>
       </c>
       <c r="H338" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I338" t="n">
         <v>100</v>
@@ -15646,13 +15646,13 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>73.11</v>
+        <v>95.83</v>
       </c>
       <c r="G339" t="n">
         <v>83.33</v>
       </c>
       <c r="H339" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I339" t="n">
         <v>100</v>
@@ -15691,13 +15691,13 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G340" t="n">
         <v>72.22</v>
       </c>
       <c r="H340" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I340" t="n">
         <v>100</v>
@@ -15781,13 +15781,13 @@
         </is>
       </c>
       <c r="F342" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G342" t="n">
         <v>27.78</v>
       </c>
       <c r="H342" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I342" t="n">
         <v>100</v>
@@ -15826,13 +15826,13 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -15916,13 +15916,13 @@
         </is>
       </c>
       <c r="F345" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G345" t="n">
         <v>100</v>
       </c>
       <c r="H345" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I345" t="n">
         <v>100</v>
@@ -16051,13 +16051,13 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>63.41</v>
+        <v>72.5</v>
       </c>
       <c r="G348" t="n">
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I348" t="n">
         <v>100</v>
@@ -16141,13 +16141,13 @@
         </is>
       </c>
       <c r="F350" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="G350" t="n">
         <v>83.33</v>
       </c>
       <c r="H350" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I350" t="n">
         <v>100</v>
@@ -16366,13 +16366,13 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G355" t="n">
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -16456,13 +16456,13 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G357" t="n">
         <v>27.78</v>
       </c>
       <c r="H357" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I357" t="n">
         <v>100</v>
@@ -16542,13 +16542,13 @@
       </c>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G359" t="n">
         <v>27.78</v>
       </c>
       <c r="H359" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I359" t="n">
         <v>100</v>
@@ -16587,13 +16587,13 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G360" t="n">
         <v>72.22</v>
       </c>
       <c r="H360" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I360" t="n">
         <v>100</v>
@@ -16677,13 +16677,13 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="G362" t="n">
         <v>83.33</v>
       </c>
       <c r="H362" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I362" t="n">
         <v>100</v>
@@ -16767,13 +16767,13 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G364" t="n">
         <v>94.44</v>
       </c>
       <c r="H364" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I364" t="n">
         <v>100</v>
@@ -16947,13 +16947,13 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G368" t="n">
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I368" t="n">
         <v>100</v>
@@ -16992,13 +16992,13 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G369" t="n">
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I369" t="n">
         <v>100</v>
@@ -17037,13 +17037,13 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G370" t="n">
         <v>72.22</v>
       </c>
       <c r="H370" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I370" t="n">
         <v>100</v>
@@ -17217,13 +17217,13 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>67.42</v>
+        <v>83.33</v>
       </c>
       <c r="G374" t="n">
         <v>33.33</v>
       </c>
       <c r="H374" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I374" t="n">
         <v>100</v>
@@ -17262,13 +17262,13 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -17307,13 +17307,13 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>69.77</v>
+        <v>92.5</v>
       </c>
       <c r="G376" t="n">
         <v>100</v>
       </c>
       <c r="H376" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I376" t="n">
         <v>100</v>
@@ -17352,13 +17352,13 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G377" t="n">
         <v>100</v>
       </c>
       <c r="H377" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I377" t="n">
         <v>100</v>
@@ -17483,13 +17483,13 @@
       </c>
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I380" t="n">
         <v>100</v>
@@ -17528,13 +17528,13 @@
         </is>
       </c>
       <c r="F381" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I381" t="n">
         <v>100</v>
@@ -17573,13 +17573,13 @@
         </is>
       </c>
       <c r="F382" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G382" t="n">
         <v>27.78</v>
       </c>
       <c r="H382" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I382" t="n">
         <v>100</v>
@@ -17618,13 +17618,13 @@
         </is>
       </c>
       <c r="F383" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G383" t="n">
         <v>72.22</v>
       </c>
       <c r="H383" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I383" t="n">
         <v>100</v>
@@ -17663,13 +17663,13 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>60.61</v>
+        <v>83.33</v>
       </c>
       <c r="G384" t="n">
         <v>33.33</v>
       </c>
       <c r="H384" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I384" t="n">
         <v>100</v>
@@ -17753,13 +17753,13 @@
         </is>
       </c>
       <c r="F386" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G386" t="n">
         <v>88.89</v>
       </c>
       <c r="H386" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I386" t="n">
         <v>100</v>
@@ -17798,13 +17798,13 @@
         </is>
       </c>
       <c r="F387" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G387" t="n">
         <v>94.44</v>
       </c>
       <c r="H387" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I387" t="n">
         <v>100</v>
@@ -18158,13 +18158,13 @@
         </is>
       </c>
       <c r="F395" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G395" t="n">
         <v>27.78</v>
       </c>
       <c r="H395" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I395" t="n">
         <v>100</v>
@@ -18203,13 +18203,13 @@
         </is>
       </c>
       <c r="F396" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G396" t="n">
         <v>100</v>
       </c>
       <c r="H396" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I396" t="n">
         <v>100</v>
@@ -18248,13 +18248,13 @@
         </is>
       </c>
       <c r="F397" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I397" t="n">
         <v>100</v>
@@ -18293,10 +18293,10 @@
         </is>
       </c>
       <c r="F398" t="n">
-        <v>83.33</v>
+        <v>81.94</v>
       </c>
       <c r="G398" t="n">
-        <v>33.33</v>
+        <v>27.78</v>
       </c>
       <c r="H398" t="n">
         <v>100</v>
@@ -18334,13 +18334,13 @@
       </c>
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G399" t="n">
         <v>27.78</v>
       </c>
       <c r="H399" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I399" t="n">
         <v>100</v>
@@ -18469,13 +18469,13 @@
         </is>
       </c>
       <c r="F402" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G402" t="n">
         <v>27.78</v>
       </c>
       <c r="H402" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I402" t="n">
         <v>100</v>
@@ -18514,13 +18514,13 @@
         </is>
       </c>
       <c r="F403" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G403" t="n">
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I403" t="n">
         <v>100</v>
@@ -18559,13 +18559,13 @@
         </is>
       </c>
       <c r="F404" t="n">
-        <v>80.43000000000001</v>
+        <v>98.61</v>
       </c>
       <c r="G404" t="n">
         <v>94.44</v>
       </c>
       <c r="H404" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I404" t="n">
         <v>100</v>
@@ -18694,13 +18694,13 @@
         </is>
       </c>
       <c r="F407" t="n">
-        <v>34.77</v>
+        <v>39.32</v>
       </c>
       <c r="G407" t="n">
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="I407" t="n">
         <v>50</v>
@@ -18784,13 +18784,13 @@
         </is>
       </c>
       <c r="F409" t="n">
-        <v>80.43000000000001</v>
+        <v>98.61</v>
       </c>
       <c r="G409" t="n">
         <v>94.44</v>
       </c>
       <c r="H409" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I409" t="n">
         <v>100</v>
@@ -18870,13 +18870,13 @@
       </c>
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G411" t="n">
         <v>27.78</v>
       </c>
       <c r="H411" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I411" t="n">
         <v>100</v>
@@ -18915,13 +18915,13 @@
         </is>
       </c>
       <c r="F412" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G412" t="n">
         <v>27.78</v>
       </c>
       <c r="H412" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I412" t="n">
         <v>100</v>
@@ -18960,13 +18960,13 @@
         </is>
       </c>
       <c r="F413" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G413" t="n">
         <v>100</v>
       </c>
       <c r="H413" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I413" t="n">
         <v>100</v>
@@ -19091,13 +19091,13 @@
       </c>
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G416" t="n">
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I416" t="n">
         <v>10</v>
@@ -19136,13 +19136,13 @@
         </is>
       </c>
       <c r="F417" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G417" t="n">
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I417" t="n">
         <v>100</v>
@@ -19181,13 +19181,13 @@
         </is>
       </c>
       <c r="F418" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G418" t="n">
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I418" t="n">
         <v>100</v>
@@ -19226,13 +19226,13 @@
         </is>
       </c>
       <c r="F419" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G419" t="n">
         <v>88.89</v>
       </c>
       <c r="H419" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I419" t="n">
         <v>100</v>
@@ -19271,13 +19271,13 @@
         </is>
       </c>
       <c r="F420" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G420" t="n">
         <v>27.78</v>
       </c>
       <c r="H420" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I420" t="n">
         <v>100</v>
@@ -19316,13 +19316,13 @@
         </is>
       </c>
       <c r="F421" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G421" t="n">
         <v>100</v>
       </c>
       <c r="H421" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I421" t="n">
         <v>100</v>
@@ -19406,13 +19406,13 @@
         </is>
       </c>
       <c r="F423" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G423" t="n">
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I423" t="n">
         <v>100</v>
@@ -19451,13 +19451,13 @@
         </is>
       </c>
       <c r="F424" t="n">
-        <v>44.77</v>
+        <v>67.5</v>
       </c>
       <c r="G424" t="n">
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I424" t="n">
         <v>100</v>
@@ -19492,13 +19492,13 @@
       </c>
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G425" t="n">
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I425" t="n">
         <v>100</v>
@@ -19537,13 +19537,13 @@
         </is>
       </c>
       <c r="F426" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G426" t="n">
         <v>100</v>
       </c>
       <c r="H426" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I426" t="n">
         <v>100</v>
@@ -19582,13 +19582,13 @@
         </is>
       </c>
       <c r="F427" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G427" t="n">
         <v>94.44</v>
       </c>
       <c r="H427" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I427" t="n">
         <v>100</v>
@@ -19627,13 +19627,13 @@
         </is>
       </c>
       <c r="F428" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G428" t="n">
         <v>27.78</v>
       </c>
       <c r="H428" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I428" t="n">
         <v>100</v>
@@ -19672,13 +19672,13 @@
         </is>
       </c>
       <c r="F429" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G429" t="n">
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I429" t="n">
         <v>100</v>
@@ -19717,13 +19717,13 @@
         </is>
       </c>
       <c r="F430" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="G430" t="n">
         <v>88.89</v>
       </c>
       <c r="H430" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I430" t="n">
         <v>100</v>
@@ -19852,13 +19852,13 @@
         </is>
       </c>
       <c r="F433" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G433" t="n">
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I433" t="n">
         <v>100</v>
@@ -19897,13 +19897,13 @@
         </is>
       </c>
       <c r="F434" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G434" t="n">
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I434" t="n">
         <v>100</v>
@@ -19942,13 +19942,13 @@
         </is>
       </c>
       <c r="F435" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G435" t="n">
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I435" t="n">
         <v>100</v>
@@ -19987,13 +19987,13 @@
         </is>
       </c>
       <c r="F436" t="n">
-        <v>75.13</v>
+        <v>81.94</v>
       </c>
       <c r="G436" t="n">
         <v>27.78</v>
       </c>
       <c r="H436" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I436" t="n">
         <v>100</v>
@@ -20077,13 +20077,13 @@
         </is>
       </c>
       <c r="F438" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G438" t="n">
         <v>100</v>
       </c>
       <c r="H438" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I438" t="n">
         <v>60</v>
@@ -20122,13 +20122,13 @@
         </is>
       </c>
       <c r="F439" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G439" t="n">
         <v>100</v>
       </c>
       <c r="H439" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I439" t="n">
         <v>100</v>
@@ -20163,13 +20163,13 @@
       </c>
       <c r="E440" t="inlineStr"/>
       <c r="F440" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G440" t="n">
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I440" t="n">
         <v>10</v>
@@ -20294,13 +20294,13 @@
       </c>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G443" t="n">
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I443" t="n">
         <v>100</v>
@@ -20339,13 +20339,13 @@
         </is>
       </c>
       <c r="F444" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G444" t="n">
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I444" t="n">
         <v>100</v>
@@ -20384,13 +20384,13 @@
         </is>
       </c>
       <c r="F445" t="n">
-        <v>69.77</v>
+        <v>92.5</v>
       </c>
       <c r="G445" t="n">
         <v>100</v>
       </c>
       <c r="H445" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I445" t="n">
         <v>100</v>
@@ -20429,13 +20429,13 @@
         </is>
       </c>
       <c r="F446" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G446" t="n">
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I446" t="n">
         <v>100</v>
@@ -20474,13 +20474,13 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G447" t="n">
         <v>27.78</v>
       </c>
       <c r="H447" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I447" t="n">
         <v>100</v>
@@ -20519,13 +20519,13 @@
         </is>
       </c>
       <c r="F448" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G448" t="n">
         <v>94.44</v>
       </c>
       <c r="H448" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I448" t="n">
         <v>100</v>
@@ -20564,13 +20564,13 @@
         </is>
       </c>
       <c r="F449" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G449" t="n">
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I449" t="n">
         <v>100</v>
@@ -20609,13 +20609,13 @@
         </is>
       </c>
       <c r="F450" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G450" t="n">
         <v>100</v>
       </c>
       <c r="H450" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I450" t="n">
         <v>100</v>
@@ -20654,13 +20654,13 @@
         </is>
       </c>
       <c r="F451" t="n">
-        <v>56.44</v>
+        <v>79.17</v>
       </c>
       <c r="G451" t="n">
         <v>16.67</v>
       </c>
       <c r="H451" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I451" t="n">
         <v>100</v>
@@ -20830,13 +20830,13 @@
       </c>
       <c r="E455" t="inlineStr"/>
       <c r="F455" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G455" t="n">
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I455" t="n">
         <v>10</v>
@@ -20920,13 +20920,13 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G457" t="n">
         <v>27.78</v>
       </c>
       <c r="H457" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I457" t="n">
         <v>100</v>
@@ -20965,13 +20965,13 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G458" t="n">
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I458" t="n">
         <v>100</v>
@@ -21010,13 +21010,13 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G459" t="n">
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I459" t="n">
         <v>100</v>
@@ -21055,13 +21055,13 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G460" t="n">
         <v>94.44</v>
       </c>
       <c r="H460" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I460" t="n">
         <v>100</v>
@@ -21100,13 +21100,13 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G461" t="n">
         <v>100</v>
       </c>
       <c r="H461" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I461" t="n">
         <v>100</v>
@@ -21141,13 +21141,13 @@
       </c>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G462" t="n">
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I462" t="n">
         <v>100</v>
@@ -21186,13 +21186,13 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G463" t="n">
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I463" t="n">
         <v>100</v>
@@ -21276,13 +21276,13 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G465" t="n">
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I465" t="n">
         <v>100</v>
@@ -21317,13 +21317,13 @@
       </c>
       <c r="E466" t="inlineStr"/>
       <c r="F466" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G466" t="n">
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I466" t="n">
         <v>10</v>
@@ -21407,13 +21407,13 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G468" t="n">
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I468" t="n">
         <v>100</v>
@@ -21538,13 +21538,13 @@
       </c>
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G471" t="n">
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I471" t="n">
         <v>100</v>
@@ -21583,13 +21583,13 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G472" t="n">
         <v>94.44</v>
       </c>
       <c r="H472" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I472" t="n">
         <v>100</v>
@@ -21718,13 +21718,13 @@
         </is>
       </c>
       <c r="F475" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G475" t="n">
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I475" t="n">
         <v>100</v>
@@ -21763,13 +21763,13 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>72.73</v>
+        <v>75</v>
       </c>
       <c r="G476" t="n">
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I476" t="n">
         <v>100</v>
@@ -21804,13 +21804,13 @@
       </c>
       <c r="E477" t="inlineStr"/>
       <c r="F477" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G477" t="n">
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I477" t="n">
         <v>10</v>
@@ -21894,13 +21894,13 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G479" t="n">
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I479" t="n">
         <v>100</v>
@@ -21939,13 +21939,13 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G480" t="n">
         <v>94.44</v>
       </c>
       <c r="H480" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I480" t="n">
         <v>100</v>
@@ -22029,13 +22029,13 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G482" t="n">
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I482" t="n">
         <v>100</v>
@@ -22070,13 +22070,13 @@
       </c>
       <c r="E483" t="inlineStr"/>
       <c r="F483" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G483" t="n">
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I483" t="n">
         <v>100</v>
@@ -22115,13 +22115,13 @@
         </is>
       </c>
       <c r="F484" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G484" t="n">
         <v>27.78</v>
       </c>
       <c r="H484" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I484" t="n">
         <v>100</v>
@@ -22205,13 +22205,13 @@
         </is>
       </c>
       <c r="F486" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G486" t="n">
         <v>94.44</v>
       </c>
       <c r="H486" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I486" t="n">
         <v>100</v>
@@ -22250,13 +22250,13 @@
         </is>
       </c>
       <c r="F487" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G487" t="n">
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I487" t="n">
         <v>100</v>
@@ -22295,13 +22295,13 @@
         </is>
       </c>
       <c r="F488" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G488" t="n">
         <v>27.78</v>
       </c>
       <c r="H488" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I488" t="n">
         <v>100</v>
@@ -22340,13 +22340,13 @@
         </is>
       </c>
       <c r="F489" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="G489" t="n">
         <v>88.89</v>
       </c>
       <c r="H489" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I489" t="n">
         <v>100</v>
@@ -22385,13 +22385,13 @@
         </is>
       </c>
       <c r="F490" t="n">
-        <v>56.44</v>
+        <v>79.17</v>
       </c>
       <c r="G490" t="n">
         <v>16.67</v>
       </c>
       <c r="H490" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I490" t="n">
         <v>100</v>
@@ -22430,13 +22430,13 @@
         </is>
       </c>
       <c r="F491" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G491" t="n">
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I491" t="n">
         <v>100</v>
@@ -22475,13 +22475,13 @@
         </is>
       </c>
       <c r="F492" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G492" t="n">
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -22520,13 +22520,13 @@
         </is>
       </c>
       <c r="F493" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G493" t="n">
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I493" t="n">
         <v>100</v>
@@ -22561,13 +22561,13 @@
       </c>
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G494" t="n">
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I494" t="n">
         <v>100</v>
@@ -22651,13 +22651,13 @@
         </is>
       </c>
       <c r="F496" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G496" t="n">
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I496" t="n">
         <v>100</v>
@@ -22696,13 +22696,13 @@
         </is>
       </c>
       <c r="F497" t="n">
-        <v>67.42</v>
+        <v>83.33</v>
       </c>
       <c r="G497" t="n">
         <v>33.33</v>
       </c>
       <c r="H497" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I497" t="n">
         <v>100</v>
@@ -22786,13 +22786,13 @@
         </is>
       </c>
       <c r="F499" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G499" t="n">
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I499" t="n">
         <v>100</v>
@@ -22831,13 +22831,13 @@
         </is>
       </c>
       <c r="F500" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G500" t="n">
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I500" t="n">
         <v>100</v>
@@ -22876,13 +22876,13 @@
         </is>
       </c>
       <c r="F501" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I501" t="n">
         <v>100</v>
@@ -22966,13 +22966,13 @@
         </is>
       </c>
       <c r="F503" t="n">
-        <v>60.61</v>
+        <v>83.33</v>
       </c>
       <c r="G503" t="n">
         <v>33.33</v>
       </c>
       <c r="H503" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I503" t="n">
         <v>100</v>
@@ -23007,13 +23007,13 @@
       </c>
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G504" t="n">
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I504" t="n">
         <v>10</v>
@@ -23052,13 +23052,13 @@
         </is>
       </c>
       <c r="F505" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G505" t="n">
         <v>88.89</v>
       </c>
       <c r="H505" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I505" t="n">
         <v>100</v>
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="F506" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G506" t="n">
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I506" t="n">
         <v>100</v>
@@ -23142,13 +23142,13 @@
         </is>
       </c>
       <c r="F507" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G507" t="n">
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I507" t="n">
         <v>100</v>
@@ -23277,13 +23277,13 @@
         </is>
       </c>
       <c r="F510" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G510" t="n">
         <v>94.44</v>
       </c>
       <c r="H510" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I510" t="n">
         <v>100</v>
@@ -23322,13 +23322,13 @@
         </is>
       </c>
       <c r="F511" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G511" t="n">
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I511" t="n">
         <v>100</v>
@@ -23457,13 +23457,13 @@
         </is>
       </c>
       <c r="F514" t="n">
-        <v>56.44</v>
+        <v>79.17</v>
       </c>
       <c r="G514" t="n">
         <v>16.67</v>
       </c>
       <c r="H514" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I514" t="n">
         <v>100</v>
@@ -23498,13 +23498,13 @@
       </c>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G515" t="n">
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I515" t="n">
         <v>10</v>
@@ -23543,13 +23543,13 @@
         </is>
       </c>
       <c r="F516" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G516" t="n">
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I516" t="n">
         <v>100</v>
@@ -23633,13 +23633,13 @@
         </is>
       </c>
       <c r="F518" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G518" t="n">
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I518" t="n">
         <v>100</v>
@@ -23678,13 +23678,13 @@
         </is>
       </c>
       <c r="F519" t="n">
-        <v>72.73</v>
+        <v>75</v>
       </c>
       <c r="G519" t="n">
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I519" t="n">
         <v>100</v>
@@ -23723,13 +23723,13 @@
         </is>
       </c>
       <c r="F520" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G520" t="n">
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -23764,13 +23764,13 @@
       </c>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G521" t="n">
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I521" t="n">
         <v>10</v>
@@ -23854,13 +23854,13 @@
         </is>
       </c>
       <c r="F523" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G523" t="n">
         <v>27.78</v>
       </c>
       <c r="H523" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I523" t="n">
         <v>100</v>
@@ -23944,13 +23944,13 @@
         </is>
       </c>
       <c r="F525" t="n">
-        <v>67.42</v>
+        <v>83.33</v>
       </c>
       <c r="G525" t="n">
         <v>33.33</v>
       </c>
       <c r="H525" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I525" t="n">
         <v>100</v>
@@ -23985,13 +23985,13 @@
       </c>
       <c r="E526" t="inlineStr"/>
       <c r="F526" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G526" t="n">
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I526" t="n">
         <v>100</v>
@@ -24030,13 +24030,13 @@
         </is>
       </c>
       <c r="F527" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G527" t="n">
         <v>88.89</v>
       </c>
       <c r="H527" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I527" t="n">
         <v>100</v>
@@ -24075,13 +24075,13 @@
         </is>
       </c>
       <c r="F528" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G528" t="n">
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I528" t="n">
         <v>100</v>
@@ -24165,13 +24165,13 @@
         </is>
       </c>
       <c r="F530" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G530" t="n">
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I530" t="n">
         <v>100</v>
@@ -24300,13 +24300,13 @@
         </is>
       </c>
       <c r="F533" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="G533" t="n">
         <v>88.89</v>
       </c>
       <c r="H533" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I533" t="n">
         <v>100</v>
@@ -24345,13 +24345,13 @@
         </is>
       </c>
       <c r="F534" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G534" t="n">
         <v>27.78</v>
       </c>
       <c r="H534" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I534" t="n">
         <v>100</v>
@@ -24435,13 +24435,13 @@
         </is>
       </c>
       <c r="F536" t="n">
-        <v>56.44</v>
+        <v>79.17</v>
       </c>
       <c r="G536" t="n">
         <v>16.67</v>
       </c>
       <c r="H536" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I536" t="n">
         <v>100</v>
@@ -24476,13 +24476,13 @@
       </c>
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G537" t="n">
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I537" t="n">
         <v>100</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="F538" t="n">
-        <v>80.43000000000001</v>
+        <v>98.61</v>
       </c>
       <c r="G538" t="n">
         <v>94.44</v>
       </c>
       <c r="H538" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I538" t="n">
         <v>100</v>
@@ -24566,13 +24566,13 @@
         </is>
       </c>
       <c r="F539" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G539" t="n">
         <v>88.89</v>
       </c>
       <c r="H539" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I539" t="n">
         <v>100</v>
@@ -24611,13 +24611,13 @@
         </is>
       </c>
       <c r="F540" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G540" t="n">
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I540" t="n">
         <v>100</v>
@@ -24656,13 +24656,13 @@
         </is>
       </c>
       <c r="F541" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G541" t="n">
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -24701,13 +24701,13 @@
         </is>
       </c>
       <c r="F542" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G542" t="n">
         <v>94.44</v>
       </c>
       <c r="H542" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I542" t="n">
         <v>100</v>
@@ -24836,13 +24836,13 @@
         </is>
       </c>
       <c r="F545" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G545" t="n">
         <v>27.78</v>
       </c>
       <c r="H545" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I545" t="n">
         <v>100</v>
@@ -24881,13 +24881,13 @@
         </is>
       </c>
       <c r="F546" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G546" t="n">
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I546" t="n">
         <v>100</v>
@@ -24922,13 +24922,13 @@
       </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G547" t="n">
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I547" t="n">
         <v>10</v>
@@ -25008,13 +25008,13 @@
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G549" t="n">
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I549" t="n">
         <v>100</v>
@@ -25053,13 +25053,13 @@
         </is>
       </c>
       <c r="F550" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="G550" t="n">
         <v>88.89</v>
       </c>
       <c r="H550" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I550" t="n">
         <v>100</v>
@@ -25098,13 +25098,13 @@
         </is>
       </c>
       <c r="F551" t="n">
-        <v>80.43000000000001</v>
+        <v>98.61</v>
       </c>
       <c r="G551" t="n">
         <v>94.44</v>
       </c>
       <c r="H551" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I551" t="n">
         <v>100</v>
@@ -25143,13 +25143,13 @@
         </is>
       </c>
       <c r="F552" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G552" t="n">
         <v>88.89</v>
       </c>
       <c r="H552" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I552" t="n">
         <v>100</v>
@@ -25188,13 +25188,13 @@
         </is>
       </c>
       <c r="F553" t="n">
-        <v>56.44</v>
+        <v>79.17</v>
       </c>
       <c r="G553" t="n">
         <v>16.67</v>
       </c>
       <c r="H553" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I553" t="n">
         <v>100</v>
@@ -25233,13 +25233,13 @@
         </is>
       </c>
       <c r="F554" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G554" t="n">
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -25319,13 +25319,13 @@
       </c>
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G556" t="n">
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I556" t="n">
         <v>100</v>
@@ -25454,13 +25454,13 @@
         </is>
       </c>
       <c r="F559" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G559" t="n">
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I559" t="n">
         <v>100</v>
@@ -25499,13 +25499,13 @@
         </is>
       </c>
       <c r="F560" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G560" t="n">
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I560" t="n">
         <v>100</v>
@@ -25544,13 +25544,13 @@
         </is>
       </c>
       <c r="F561" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G561" t="n">
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I561" t="n">
         <v>100</v>
@@ -25634,13 +25634,13 @@
         </is>
       </c>
       <c r="F563" t="n">
-        <v>75.13</v>
+        <v>81.94</v>
       </c>
       <c r="G563" t="n">
         <v>27.78</v>
       </c>
       <c r="H563" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I563" t="n">
         <v>100</v>
@@ -25724,13 +25724,13 @@
         </is>
       </c>
       <c r="F565" t="n">
-        <v>67.42</v>
+        <v>83.33</v>
       </c>
       <c r="G565" t="n">
         <v>33.33</v>
       </c>
       <c r="H565" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I565" t="n">
         <v>100</v>
@@ -25769,13 +25769,13 @@
         </is>
       </c>
       <c r="F566" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G566" t="n">
         <v>72.22</v>
       </c>
       <c r="H566" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I566" t="n">
         <v>100</v>
@@ -25859,13 +25859,13 @@
         </is>
       </c>
       <c r="F568" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G568" t="n">
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I568" t="n">
         <v>100</v>
@@ -25904,13 +25904,13 @@
         </is>
       </c>
       <c r="F569" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G569" t="n">
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I569" t="n">
         <v>100</v>
@@ -26039,13 +26039,13 @@
         </is>
       </c>
       <c r="F572" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G572" t="n">
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I572" t="n">
         <v>100</v>
@@ -26084,13 +26084,13 @@
         </is>
       </c>
       <c r="F573" t="n">
-        <v>75.13</v>
+        <v>81.94</v>
       </c>
       <c r="G573" t="n">
         <v>27.78</v>
       </c>
       <c r="H573" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I573" t="n">
         <v>100</v>
@@ -26174,13 +26174,13 @@
         </is>
       </c>
       <c r="F575" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G575" t="n">
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I575" t="n">
         <v>100</v>
@@ -26219,13 +26219,13 @@
         </is>
       </c>
       <c r="F576" t="n">
-        <v>62.95</v>
+        <v>67.5</v>
       </c>
       <c r="G576" t="n">
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I576" t="n">
         <v>100</v>
@@ -26354,13 +26354,13 @@
         </is>
       </c>
       <c r="F579" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G579" t="n">
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I579" t="n">
         <v>100</v>
@@ -26399,13 +26399,13 @@
         </is>
       </c>
       <c r="F580" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G580" t="n">
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I580" t="n">
         <v>100</v>
@@ -26534,13 +26534,13 @@
         </is>
       </c>
       <c r="F583" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G583" t="n">
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I583" t="n">
         <v>100</v>
@@ -26579,13 +26579,13 @@
         </is>
       </c>
       <c r="F584" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G584" t="n">
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -26624,13 +26624,13 @@
         </is>
       </c>
       <c r="F585" t="n">
-        <v>63.41</v>
+        <v>72.5</v>
       </c>
       <c r="G585" t="n">
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I585" t="n">
         <v>100</v>
@@ -26669,13 +26669,13 @@
         </is>
       </c>
       <c r="F586" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G586" t="n">
         <v>100</v>
       </c>
       <c r="H586" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I586" t="n">
         <v>100</v>
@@ -26804,13 +26804,13 @@
         </is>
       </c>
       <c r="F589" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G589" t="n">
         <v>94.44</v>
       </c>
       <c r="H589" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I589" t="n">
         <v>100</v>
@@ -26894,13 +26894,13 @@
         </is>
       </c>
       <c r="F591" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="G591" t="n">
         <v>88.89</v>
       </c>
       <c r="H591" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I591" t="n">
         <v>100</v>
@@ -26939,13 +26939,13 @@
         </is>
       </c>
       <c r="F592" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G592" t="n">
         <v>88.89</v>
       </c>
       <c r="H592" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I592" t="n">
         <v>100</v>
@@ -26984,13 +26984,13 @@
         </is>
       </c>
       <c r="F593" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G593" t="n">
         <v>27.78</v>
       </c>
       <c r="H593" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I593" t="n">
         <v>100</v>
@@ -27074,13 +27074,13 @@
         </is>
       </c>
       <c r="F595" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G595" t="n">
         <v>100</v>
       </c>
       <c r="H595" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I595" t="n">
         <v>100</v>
@@ -27119,13 +27119,13 @@
         </is>
       </c>
       <c r="F596" t="n">
-        <v>73.11</v>
+        <v>95.83</v>
       </c>
       <c r="G596" t="n">
         <v>83.33</v>
       </c>
       <c r="H596" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I596" t="n">
         <v>100</v>
@@ -27209,13 +27209,13 @@
         </is>
       </c>
       <c r="F598" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G598" t="n">
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I598" t="n">
         <v>100</v>
@@ -27254,13 +27254,13 @@
         </is>
       </c>
       <c r="F599" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G599" t="n">
         <v>88.89</v>
       </c>
       <c r="H599" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I599" t="n">
         <v>100</v>
@@ -27299,13 +27299,13 @@
         </is>
       </c>
       <c r="F600" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G600" t="n">
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I600" t="n">
         <v>100</v>
@@ -27344,13 +27344,13 @@
         </is>
       </c>
       <c r="F601" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G601" t="n">
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I601" t="n">
         <v>100</v>
@@ -27479,13 +27479,13 @@
         </is>
       </c>
       <c r="F604" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G604" t="n">
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I604" t="n">
         <v>100</v>
@@ -27524,13 +27524,13 @@
         </is>
       </c>
       <c r="F605" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G605" t="n">
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -27569,13 +27569,13 @@
         </is>
       </c>
       <c r="F606" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G606" t="n">
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I606" t="n">
         <v>100</v>
@@ -27655,13 +27655,13 @@
       </c>
       <c r="E608" t="inlineStr"/>
       <c r="F608" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G608" t="n">
         <v>27.78</v>
       </c>
       <c r="H608" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I608" t="n">
         <v>100</v>
@@ -27835,13 +27835,13 @@
         </is>
       </c>
       <c r="F612" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G612" t="n">
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I612" t="n">
         <v>100</v>
@@ -27876,13 +27876,13 @@
       </c>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G613" t="n">
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I613" t="n">
         <v>100</v>
@@ -28011,13 +28011,13 @@
         </is>
       </c>
       <c r="F616" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G616" t="n">
         <v>88.89</v>
       </c>
       <c r="H616" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I616" t="n">
         <v>100</v>
@@ -28056,13 +28056,13 @@
         </is>
       </c>
       <c r="F617" t="n">
-        <v>58.18</v>
+        <v>65</v>
       </c>
       <c r="G617" t="n">
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I617" t="n">
         <v>100</v>
@@ -28101,13 +28101,13 @@
         </is>
       </c>
       <c r="F618" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G618" t="n">
         <v>94.44</v>
       </c>
       <c r="H618" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I618" t="n">
         <v>100</v>
@@ -28187,13 +28187,13 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G620" t="n">
         <v>27.78</v>
       </c>
       <c r="H620" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I620" t="n">
         <v>100</v>
@@ -28232,13 +28232,13 @@
         </is>
       </c>
       <c r="F621" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G621" t="n">
         <v>27.78</v>
       </c>
       <c r="H621" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I621" t="n">
         <v>100</v>
@@ -28453,13 +28453,13 @@
       </c>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="G626" t="n">
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="I626" t="n">
         <v>100</v>
@@ -28498,13 +28498,13 @@
         </is>
       </c>
       <c r="F627" t="n">
-        <v>81.31</v>
+        <v>97.22</v>
       </c>
       <c r="G627" t="n">
         <v>88.89</v>
       </c>
       <c r="H627" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I627" t="n">
         <v>100</v>
@@ -28543,13 +28543,13 @@
         </is>
       </c>
       <c r="F628" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G628" t="n">
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I628" t="n">
         <v>30</v>
@@ -28678,13 +28678,13 @@
         </is>
       </c>
       <c r="F631" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G631" t="n">
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -28768,13 +28768,13 @@
         </is>
       </c>
       <c r="F633" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G633" t="n">
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I633" t="n">
         <v>100</v>
@@ -28813,13 +28813,13 @@
         </is>
       </c>
       <c r="F634" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G634" t="n">
         <v>94.44</v>
       </c>
       <c r="H634" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I634" t="n">
         <v>100</v>
@@ -28948,13 +28948,13 @@
         </is>
       </c>
       <c r="F637" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G637" t="n">
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I637" t="n">
         <v>100</v>
@@ -28993,13 +28993,13 @@
         </is>
       </c>
       <c r="F638" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G638" t="n">
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I638" t="n">
         <v>100</v>
@@ -29038,13 +29038,13 @@
         </is>
       </c>
       <c r="F639" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G639" t="n">
         <v>94.44</v>
       </c>
       <c r="H639" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I639" t="n">
         <v>100</v>
@@ -29083,13 +29083,13 @@
         </is>
       </c>
       <c r="F640" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G640" t="n">
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -29128,13 +29128,13 @@
         </is>
       </c>
       <c r="F641" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G641" t="n">
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I641" t="n">
         <v>30</v>
@@ -29214,13 +29214,13 @@
       </c>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G643" t="n">
         <v>27.78</v>
       </c>
       <c r="H643" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I643" t="n">
         <v>100</v>
@@ -29259,13 +29259,13 @@
         </is>
       </c>
       <c r="F644" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G644" t="n">
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -29349,13 +29349,13 @@
         </is>
       </c>
       <c r="F646" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G646" t="n">
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I646" t="n">
         <v>100</v>
@@ -29394,13 +29394,13 @@
         </is>
       </c>
       <c r="F647" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G647" t="n">
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I647" t="n">
         <v>100</v>
@@ -29439,13 +29439,13 @@
         </is>
       </c>
       <c r="F648" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="G648" t="n">
         <v>88.89</v>
       </c>
       <c r="H648" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I648" t="n">
         <v>100</v>
@@ -29484,13 +29484,13 @@
         </is>
       </c>
       <c r="F649" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G649" t="n">
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I649" t="n">
         <v>100</v>
@@ -29574,13 +29574,13 @@
         </is>
       </c>
       <c r="F651" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G651" t="n">
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -29664,13 +29664,13 @@
         </is>
       </c>
       <c r="F653" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G653" t="n">
         <v>94.44</v>
       </c>
       <c r="H653" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I653" t="n">
         <v>100</v>
@@ -29799,13 +29799,13 @@
         </is>
       </c>
       <c r="F656" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G656" t="n">
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I656" t="n">
         <v>100</v>
@@ -29844,13 +29844,13 @@
         </is>
       </c>
       <c r="F657" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G657" t="n">
         <v>88.89</v>
       </c>
       <c r="H657" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I657" t="n">
         <v>100</v>
@@ -29889,13 +29889,13 @@
         </is>
       </c>
       <c r="F658" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="G658" t="n">
         <v>88.89</v>
       </c>
       <c r="H658" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I658" t="n">
         <v>100</v>
@@ -29934,13 +29934,13 @@
         </is>
       </c>
       <c r="F659" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G659" t="n">
         <v>100</v>
       </c>
       <c r="H659" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I659" t="n">
         <v>100</v>
@@ -29979,13 +29979,13 @@
         </is>
       </c>
       <c r="F660" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G660" t="n">
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I660" t="n">
         <v>100</v>
@@ -30024,13 +30024,13 @@
         </is>
       </c>
       <c r="F661" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G661" t="n">
         <v>94.44</v>
       </c>
       <c r="H661" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I661" t="n">
         <v>100</v>
@@ -30069,13 +30069,13 @@
         </is>
       </c>
       <c r="F662" t="n">
-        <v>78.16</v>
+        <v>98.61</v>
       </c>
       <c r="G662" t="n">
         <v>94.44</v>
       </c>
       <c r="H662" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I662" t="n">
         <v>100</v>
@@ -30114,13 +30114,13 @@
         </is>
       </c>
       <c r="F663" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G663" t="n">
         <v>88.89</v>
       </c>
       <c r="H663" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I663" t="n">
         <v>100</v>
@@ -30159,13 +30159,13 @@
         </is>
       </c>
       <c r="F664" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G664" t="n">
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I664" t="n">
         <v>30</v>
@@ -30204,13 +30204,13 @@
         </is>
       </c>
       <c r="F665" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G665" t="n">
         <v>27.78</v>
       </c>
       <c r="H665" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I665" t="n">
         <v>100</v>
@@ -30294,13 +30294,13 @@
         </is>
       </c>
       <c r="F667" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G667" t="n">
         <v>88.89</v>
       </c>
       <c r="H667" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I667" t="n">
         <v>100</v>
@@ -30339,13 +30339,13 @@
         </is>
       </c>
       <c r="F668" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G668" t="n">
         <v>0</v>
       </c>
       <c r="H668" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I668" t="n">
         <v>30</v>
@@ -30384,13 +30384,13 @@
         </is>
       </c>
       <c r="F669" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G669" t="n">
         <v>27.78</v>
       </c>
       <c r="H669" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I669" t="n">
         <v>100</v>
@@ -30474,13 +30474,13 @@
         </is>
       </c>
       <c r="F671" t="n">
-        <v>34.77</v>
+        <v>39.32</v>
       </c>
       <c r="G671" t="n">
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="I671" t="n">
         <v>50</v>
@@ -30744,13 +30744,13 @@
         </is>
       </c>
       <c r="F677" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G677" t="n">
         <v>0</v>
       </c>
       <c r="H677" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I677" t="n">
         <v>100</v>
@@ -30785,13 +30785,13 @@
       </c>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G678" t="n">
         <v>27.78</v>
       </c>
       <c r="H678" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I678" t="n">
         <v>100</v>
@@ -30830,13 +30830,13 @@
         </is>
       </c>
       <c r="F679" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G679" t="n">
         <v>0</v>
       </c>
       <c r="H679" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I679" t="n">
         <v>100</v>
@@ -30965,13 +30965,13 @@
         </is>
       </c>
       <c r="F682" t="n">
-        <v>77.53</v>
+        <v>88.89</v>
       </c>
       <c r="G682" t="n">
         <v>55.56</v>
       </c>
       <c r="H682" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I682" t="n">
         <v>100</v>
@@ -31010,13 +31010,13 @@
         </is>
       </c>
       <c r="F683" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G683" t="n">
         <v>0</v>
       </c>
       <c r="H683" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I683" t="n">
         <v>100</v>
@@ -31145,13 +31145,13 @@
         </is>
       </c>
       <c r="F686" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G686" t="n">
         <v>72.22</v>
       </c>
       <c r="H686" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I686" t="n">
         <v>100</v>
@@ -31190,13 +31190,13 @@
         </is>
       </c>
       <c r="F687" t="n">
-        <v>69.77</v>
+        <v>92.5</v>
       </c>
       <c r="G687" t="n">
         <v>100</v>
       </c>
       <c r="H687" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I687" t="n">
         <v>100</v>
@@ -31235,13 +31235,13 @@
         </is>
       </c>
       <c r="F688" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G688" t="n">
         <v>100</v>
       </c>
       <c r="H688" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I688" t="n">
         <v>100</v>
@@ -31325,13 +31325,13 @@
         </is>
       </c>
       <c r="F690" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G690" t="n">
         <v>94.44</v>
       </c>
       <c r="H690" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I690" t="n">
         <v>100</v>
@@ -31415,13 +31415,13 @@
         </is>
       </c>
       <c r="F692" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="G692" t="n">
         <v>88.89</v>
       </c>
       <c r="H692" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I692" t="n">
         <v>100</v>
@@ -31460,13 +31460,13 @@
         </is>
       </c>
       <c r="F693" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G693" t="n">
         <v>0</v>
       </c>
       <c r="H693" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I693" t="n">
         <v>100</v>
@@ -31505,13 +31505,13 @@
         </is>
       </c>
       <c r="F694" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G694" t="n">
         <v>0</v>
       </c>
       <c r="H694" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I694" t="n">
         <v>100</v>
@@ -31640,13 +31640,13 @@
         </is>
       </c>
       <c r="F697" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G697" t="n">
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I697" t="n">
         <v>100</v>
@@ -31681,13 +31681,13 @@
       </c>
       <c r="E698" t="inlineStr"/>
       <c r="F698" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G698" t="n">
         <v>27.78</v>
       </c>
       <c r="H698" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I698" t="n">
         <v>100</v>
@@ -31816,13 +31816,13 @@
         </is>
       </c>
       <c r="F701" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G701" t="n">
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
@@ -31906,13 +31906,13 @@
         </is>
       </c>
       <c r="F703" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G703" t="n">
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I703" t="n">
         <v>100</v>
@@ -31951,13 +31951,13 @@
         </is>
       </c>
       <c r="F704" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G704" t="n">
         <v>72.22</v>
       </c>
       <c r="H704" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I704" t="n">
         <v>100</v>
@@ -32041,13 +32041,13 @@
         </is>
       </c>
       <c r="F706" t="n">
-        <v>6.82</v>
+        <v>0</v>
       </c>
       <c r="G706" t="n">
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>27.27</v>
+        <v>0</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
@@ -32131,13 +32131,13 @@
         </is>
       </c>
       <c r="F708" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G708" t="n">
         <v>94.44</v>
       </c>
       <c r="H708" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I708" t="n">
         <v>100</v>
@@ -32172,13 +32172,13 @@
       </c>
       <c r="E709" t="inlineStr"/>
       <c r="F709" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G709" t="n">
         <v>27.78</v>
       </c>
       <c r="H709" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I709" t="n">
         <v>100</v>
@@ -32217,13 +32217,13 @@
         </is>
       </c>
       <c r="F710" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G710" t="n">
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I710" t="n">
         <v>100</v>
@@ -32352,13 +32352,13 @@
         </is>
       </c>
       <c r="F713" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G713" t="n">
         <v>100</v>
       </c>
       <c r="H713" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I713" t="n">
         <v>100</v>
@@ -32397,13 +32397,13 @@
         </is>
       </c>
       <c r="F714" t="n">
-        <v>69.77</v>
+        <v>92.5</v>
       </c>
       <c r="G714" t="n">
         <v>100</v>
       </c>
       <c r="H714" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I714" t="n">
         <v>100</v>
@@ -32487,13 +32487,13 @@
         </is>
       </c>
       <c r="F716" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G716" t="n">
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I716" t="n">
         <v>100</v>
@@ -32532,13 +32532,13 @@
         </is>
       </c>
       <c r="F717" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G717" t="n">
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I717" t="n">
         <v>100</v>
@@ -32577,13 +32577,13 @@
         </is>
       </c>
       <c r="F718" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G718" t="n">
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I718" t="n">
         <v>100</v>
@@ -32622,13 +32622,13 @@
         </is>
       </c>
       <c r="F719" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G719" t="n">
         <v>0</v>
       </c>
       <c r="H719" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -32712,13 +32712,13 @@
         </is>
       </c>
       <c r="F721" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G721" t="n">
         <v>27.78</v>
       </c>
       <c r="H721" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I721" t="n">
         <v>100</v>
@@ -32802,13 +32802,13 @@
         </is>
       </c>
       <c r="F723" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G723" t="n">
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I723" t="n">
         <v>100</v>
@@ -32847,13 +32847,13 @@
         </is>
       </c>
       <c r="F724" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G724" t="n">
         <v>0</v>
       </c>
       <c r="H724" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I724" t="n">
         <v>100</v>
@@ -32892,13 +32892,13 @@
         </is>
       </c>
       <c r="F725" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="G725" t="n">
         <v>0</v>
       </c>
       <c r="H725" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I725" t="n">
         <v>100</v>
@@ -32937,13 +32937,13 @@
         </is>
       </c>
       <c r="F726" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G726" t="n">
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I726" t="n">
         <v>100</v>
@@ -32982,13 +32982,13 @@
         </is>
       </c>
       <c r="F727" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G727" t="n">
         <v>0</v>
       </c>
       <c r="H727" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I727" t="n">
         <v>100</v>
@@ -33072,13 +33072,13 @@
         </is>
       </c>
       <c r="F729" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G729" t="n">
         <v>0</v>
       </c>
       <c r="H729" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I729" t="n">
         <v>100</v>
@@ -33117,13 +33117,13 @@
         </is>
       </c>
       <c r="F730" t="n">
-        <v>60.61</v>
+        <v>83.33</v>
       </c>
       <c r="G730" t="n">
         <v>33.33</v>
       </c>
       <c r="H730" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I730" t="n">
         <v>100</v>
@@ -33252,13 +33252,13 @@
         </is>
       </c>
       <c r="F733" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G733" t="n">
         <v>94.44</v>
       </c>
       <c r="H733" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I733" t="n">
         <v>100</v>
@@ -33297,13 +33297,13 @@
         </is>
       </c>
       <c r="F734" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="G734" t="n">
         <v>0</v>
       </c>
       <c r="H734" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
@@ -33342,13 +33342,13 @@
         </is>
       </c>
       <c r="F735" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G735" t="n">
         <v>0</v>
       </c>
       <c r="H735" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I735" t="n">
         <v>100</v>
@@ -33387,13 +33387,13 @@
         </is>
       </c>
       <c r="F736" t="n">
-        <v>67.42</v>
+        <v>83.33</v>
       </c>
       <c r="G736" t="n">
         <v>33.33</v>
       </c>
       <c r="H736" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I736" t="n">
         <v>100</v>
@@ -33432,13 +33432,13 @@
         </is>
       </c>
       <c r="F737" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G737" t="n">
         <v>27.78</v>
       </c>
       <c r="H737" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I737" t="n">
         <v>100</v>
@@ -33518,13 +33518,13 @@
       </c>
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G739" t="n">
         <v>27.78</v>
       </c>
       <c r="H739" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I739" t="n">
         <v>100</v>
@@ -33608,13 +33608,13 @@
         </is>
       </c>
       <c r="F741" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="G741" t="n">
         <v>0</v>
       </c>
       <c r="H741" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I741" t="n">
         <v>100</v>
@@ -33653,13 +33653,13 @@
         </is>
       </c>
       <c r="F742" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G742" t="n">
         <v>0</v>
       </c>
       <c r="H742" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I742" t="n">
         <v>100</v>
@@ -33698,13 +33698,13 @@
         </is>
       </c>
       <c r="F743" t="n">
-        <v>59.04</v>
+        <v>77.22</v>
       </c>
       <c r="G743" t="n">
         <v>88.89</v>
       </c>
       <c r="H743" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I743" t="n">
         <v>20</v>
@@ -33743,13 +33743,13 @@
         </is>
       </c>
       <c r="F744" t="n">
-        <v>77.53</v>
+        <v>88.89</v>
       </c>
       <c r="G744" t="n">
         <v>55.56</v>
       </c>
       <c r="H744" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I744" t="n">
         <v>100</v>
@@ -33788,13 +33788,13 @@
         </is>
       </c>
       <c r="F745" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G745" t="n">
         <v>27.78</v>
       </c>
       <c r="H745" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I745" t="n">
         <v>100</v>
@@ -33833,13 +33833,13 @@
         </is>
       </c>
       <c r="F746" t="n">
-        <v>60.61</v>
+        <v>83.33</v>
       </c>
       <c r="G746" t="n">
         <v>33.33</v>
       </c>
       <c r="H746" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I746" t="n">
         <v>100</v>
@@ -33968,13 +33968,13 @@
         </is>
       </c>
       <c r="F749" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G749" t="n">
         <v>94.44</v>
       </c>
       <c r="H749" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I749" t="n">
         <v>100</v>
@@ -34009,13 +34009,13 @@
       </c>
       <c r="E750" t="inlineStr"/>
       <c r="F750" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G750" t="n">
         <v>0</v>
       </c>
       <c r="H750" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I750" t="n">
         <v>10</v>
@@ -34054,13 +34054,13 @@
         </is>
       </c>
       <c r="F751" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="G751" t="n">
         <v>83.33</v>
       </c>
       <c r="H751" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I751" t="n">
         <v>100</v>
@@ -34099,13 +34099,13 @@
         </is>
       </c>
       <c r="F752" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G752" t="n">
         <v>0</v>
       </c>
       <c r="H752" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I752" t="n">
         <v>100</v>
@@ -34144,13 +34144,13 @@
         </is>
       </c>
       <c r="F753" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G753" t="n">
         <v>0</v>
       </c>
       <c r="H753" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I753" t="n">
         <v>100</v>
@@ -34189,13 +34189,13 @@
         </is>
       </c>
       <c r="F754" t="n">
-        <v>67.42</v>
+        <v>83.33</v>
       </c>
       <c r="G754" t="n">
         <v>33.33</v>
       </c>
       <c r="H754" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I754" t="n">
         <v>100</v>
@@ -34234,13 +34234,13 @@
         </is>
       </c>
       <c r="F755" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G755" t="n">
         <v>27.78</v>
       </c>
       <c r="H755" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I755" t="n">
         <v>100</v>
@@ -34324,13 +34324,13 @@
         </is>
       </c>
       <c r="F757" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G757" t="n">
         <v>88.89</v>
       </c>
       <c r="H757" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I757" t="n">
         <v>100</v>
@@ -34369,13 +34369,13 @@
         </is>
       </c>
       <c r="F758" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G758" t="n">
         <v>0</v>
       </c>
       <c r="H758" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I758" t="n">
         <v>100</v>
@@ -34459,13 +34459,13 @@
         </is>
       </c>
       <c r="F760" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G760" t="n">
         <v>0</v>
       </c>
       <c r="H760" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I760" t="n">
         <v>100</v>
@@ -34549,13 +34549,13 @@
         </is>
       </c>
       <c r="F762" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G762" t="n">
         <v>100</v>
       </c>
       <c r="H762" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I762" t="n">
         <v>100</v>
@@ -34594,13 +34594,13 @@
         </is>
       </c>
       <c r="F763" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G763" t="n">
         <v>100</v>
       </c>
       <c r="H763" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I763" t="n">
         <v>100</v>
@@ -34639,13 +34639,13 @@
         </is>
       </c>
       <c r="F764" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G764" t="n">
         <v>72.22</v>
       </c>
       <c r="H764" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I764" t="n">
         <v>100</v>
@@ -34774,13 +34774,13 @@
         </is>
       </c>
       <c r="F767" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G767" t="n">
         <v>0</v>
       </c>
       <c r="H767" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I767" t="n">
         <v>100</v>
@@ -34905,13 +34905,13 @@
       </c>
       <c r="E770" t="inlineStr"/>
       <c r="F770" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G770" t="n">
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I770" t="n">
         <v>10</v>
@@ -34950,13 +34950,13 @@
         </is>
       </c>
       <c r="F771" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G771" t="n">
         <v>0</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I771" t="n">
         <v>100</v>
@@ -34995,13 +34995,13 @@
         </is>
       </c>
       <c r="F772" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="G772" t="n">
         <v>100</v>
       </c>
       <c r="H772" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I772" t="n">
         <v>100</v>
@@ -35040,13 +35040,13 @@
         </is>
       </c>
       <c r="F773" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G773" t="n">
         <v>100</v>
       </c>
       <c r="H773" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I773" t="n">
         <v>100</v>
@@ -35130,13 +35130,13 @@
         </is>
       </c>
       <c r="F775" t="n">
-        <v>67.42</v>
+        <v>83.33</v>
       </c>
       <c r="G775" t="n">
         <v>33.33</v>
       </c>
       <c r="H775" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I775" t="n">
         <v>100</v>
@@ -35265,13 +35265,13 @@
         </is>
       </c>
       <c r="F778" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="G778" t="n">
         <v>0</v>
       </c>
       <c r="H778" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="I778" t="n">
         <v>100</v>
@@ -35310,13 +35310,13 @@
         </is>
       </c>
       <c r="F779" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G779" t="n">
         <v>0</v>
       </c>
       <c r="H779" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I779" t="n">
         <v>100</v>
@@ -35355,13 +35355,13 @@
         </is>
       </c>
       <c r="F780" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G780" t="n">
         <v>0</v>
       </c>
       <c r="H780" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I780" t="n">
         <v>100</v>
@@ -35400,13 +35400,13 @@
         </is>
       </c>
       <c r="F781" t="n">
-        <v>58.86</v>
+        <v>72.5</v>
       </c>
       <c r="G781" t="n">
         <v>0</v>
       </c>
       <c r="H781" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I781" t="n">
         <v>100</v>
@@ -35441,13 +35441,13 @@
       </c>
       <c r="E782" t="inlineStr"/>
       <c r="F782" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G782" t="n">
         <v>0</v>
       </c>
       <c r="H782" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I782" t="n">
         <v>10</v>
@@ -35486,13 +35486,13 @@
         </is>
       </c>
       <c r="F783" t="n">
-        <v>69.77</v>
+        <v>92.5</v>
       </c>
       <c r="G783" t="n">
         <v>100</v>
       </c>
       <c r="H783" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I783" t="n">
         <v>100</v>
@@ -35531,13 +35531,13 @@
         </is>
       </c>
       <c r="F784" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G784" t="n">
         <v>100</v>
       </c>
       <c r="H784" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I784" t="n">
         <v>100</v>
@@ -35621,13 +35621,13 @@
         </is>
       </c>
       <c r="F786" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="G786" t="n">
         <v>100</v>
       </c>
       <c r="H786" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="I786" t="n">
         <v>100</v>
@@ -35711,13 +35711,13 @@
         </is>
       </c>
       <c r="F788" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G788" t="n">
         <v>0</v>
       </c>
       <c r="H788" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I788" t="n">
         <v>100</v>
@@ -35801,13 +35801,13 @@
         </is>
       </c>
       <c r="F790" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G790" t="n">
         <v>72.22</v>
       </c>
       <c r="H790" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I790" t="n">
         <v>100</v>
@@ -35846,13 +35846,13 @@
         </is>
       </c>
       <c r="F791" t="n">
-        <v>56.44</v>
+        <v>79.17</v>
       </c>
       <c r="G791" t="n">
         <v>16.67</v>
       </c>
       <c r="H791" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I791" t="n">
         <v>100</v>
@@ -35891,13 +35891,13 @@
         </is>
       </c>
       <c r="F792" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G792" t="n">
         <v>0</v>
       </c>
       <c r="H792" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
@@ -35981,13 +35981,13 @@
         </is>
       </c>
       <c r="F794" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G794" t="n">
         <v>0</v>
       </c>
       <c r="H794" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I794" t="n">
         <v>100</v>
@@ -36022,13 +36022,13 @@
       </c>
       <c r="E795" t="inlineStr"/>
       <c r="F795" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="G795" t="n">
         <v>0</v>
       </c>
       <c r="H795" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I795" t="n">
         <v>10</v>
@@ -36067,13 +36067,13 @@
         </is>
       </c>
       <c r="F796" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G796" t="n">
         <v>0</v>
       </c>
       <c r="H796" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I796" t="n">
         <v>100</v>
@@ -36112,13 +36112,13 @@
         </is>
       </c>
       <c r="F797" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G797" t="n">
         <v>27.78</v>
       </c>
       <c r="H797" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I797" t="n">
         <v>100</v>
@@ -36198,13 +36198,13 @@
       </c>
       <c r="E799" t="inlineStr"/>
       <c r="F799" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G799" t="n">
         <v>27.78</v>
       </c>
       <c r="H799" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I799" t="n">
         <v>100</v>
@@ -36288,13 +36288,13 @@
         </is>
       </c>
       <c r="F801" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G801" t="n">
         <v>72.22</v>
       </c>
       <c r="H801" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I801" t="n">
         <v>100</v>
@@ -36333,13 +36333,13 @@
         </is>
       </c>
       <c r="F802" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G802" t="n">
         <v>88.89</v>
       </c>
       <c r="H802" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I802" t="n">
         <v>100</v>
@@ -36378,13 +36378,13 @@
         </is>
       </c>
       <c r="F803" t="n">
-        <v>65.23</v>
+        <v>67.5</v>
       </c>
       <c r="G803" t="n">
         <v>0</v>
       </c>
       <c r="H803" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I803" t="n">
         <v>100</v>
@@ -36423,13 +36423,13 @@
         </is>
       </c>
       <c r="F804" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="G804" t="n">
         <v>0</v>
       </c>
       <c r="H804" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I804" t="n">
         <v>100</v>
@@ -36468,13 +36468,13 @@
         </is>
       </c>
       <c r="F805" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="G805" t="n">
         <v>27.78</v>
       </c>
       <c r="H805" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I805" t="n">
         <v>100</v>
@@ -36513,13 +36513,13 @@
         </is>
       </c>
       <c r="F806" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G806" t="n">
         <v>100</v>
       </c>
       <c r="H806" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I806" t="n">
         <v>100</v>
@@ -36558,13 +36558,13 @@
         </is>
       </c>
       <c r="F807" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G807" t="n">
         <v>88.89</v>
       </c>
       <c r="H807" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I807" t="n">
         <v>100</v>
@@ -36603,13 +36603,13 @@
         </is>
       </c>
       <c r="F808" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G808" t="n">
         <v>72.22</v>
       </c>
       <c r="H808" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I808" t="n">
         <v>100</v>
@@ -36648,13 +36648,13 @@
         </is>
       </c>
       <c r="F809" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G809" t="n">
         <v>0</v>
       </c>
       <c r="H809" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I809" t="n">
         <v>100</v>
@@ -36693,13 +36693,13 @@
         </is>
       </c>
       <c r="F810" t="n">
-        <v>69.77</v>
+        <v>92.5</v>
       </c>
       <c r="G810" t="n">
         <v>100</v>
       </c>
       <c r="H810" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I810" t="n">
         <v>100</v>
@@ -36738,13 +36738,13 @@
         </is>
       </c>
       <c r="F811" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G811" t="n">
         <v>94.44</v>
       </c>
       <c r="H811" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I811" t="n">
         <v>100</v>
@@ -36783,13 +36783,13 @@
         </is>
       </c>
       <c r="F812" t="n">
-        <v>69.77</v>
+        <v>92.5</v>
       </c>
       <c r="G812" t="n">
         <v>100</v>
       </c>
       <c r="H812" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I812" t="n">
         <v>100</v>
@@ -36828,13 +36828,13 @@
         </is>
       </c>
       <c r="F813" t="n">
-        <v>4.54</v>
+        <v>0</v>
       </c>
       <c r="G813" t="n">
         <v>0</v>
       </c>
       <c r="H813" t="n">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="I813" t="n">
         <v>0</v>
@@ -36873,13 +36873,13 @@
         </is>
       </c>
       <c r="F814" t="n">
-        <v>52.27</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="G814" t="n">
         <v>100</v>
       </c>
       <c r="H814" t="n">
-        <v>9.09</v>
+        <v>72.73</v>
       </c>
       <c r="I814" t="n">
         <v>60</v>
@@ -36918,13 +36918,13 @@
         </is>
       </c>
       <c r="F815" t="n">
-        <v>42.27</v>
+        <v>58.18</v>
       </c>
       <c r="G815" t="n">
         <v>0</v>
       </c>
       <c r="H815" t="n">
-        <v>9.09</v>
+        <v>72.73</v>
       </c>
       <c r="I815" t="n">
         <v>100</v>
@@ -37008,13 +37008,13 @@
         </is>
       </c>
       <c r="F817" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="G817" t="n">
         <v>94.44</v>
       </c>
       <c r="H817" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="I817" t="n">
         <v>100</v>
@@ -37053,13 +37053,13 @@
         </is>
       </c>
       <c r="F818" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G818" t="n">
         <v>88.89</v>
       </c>
       <c r="H818" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I818" t="n">
         <v>100</v>
@@ -37143,13 +37143,13 @@
         </is>
       </c>
       <c r="F820" t="n">
-        <v>45.68</v>
+        <v>52.5</v>
       </c>
       <c r="G820" t="n">
         <v>0</v>
       </c>
       <c r="H820" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I820" t="n">
         <v>30</v>
@@ -37188,13 +37188,13 @@
         </is>
       </c>
       <c r="F821" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G821" t="n">
         <v>100</v>
       </c>
       <c r="H821" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I821" t="n">
         <v>100</v>
@@ -37368,13 +37368,13 @@
         </is>
       </c>
       <c r="F825" t="n">
-        <v>59.04</v>
+        <v>77.22</v>
       </c>
       <c r="G825" t="n">
         <v>88.89</v>
       </c>
       <c r="H825" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I825" t="n">
         <v>20</v>
@@ -37413,13 +37413,13 @@
         </is>
       </c>
       <c r="F826" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G826" t="n">
         <v>88.89</v>
       </c>
       <c r="H826" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I826" t="n">
         <v>100</v>
@@ -37454,13 +37454,13 @@
       </c>
       <c r="E827" t="inlineStr"/>
       <c r="F827" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="G827" t="n">
         <v>27.78</v>
       </c>
       <c r="H827" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I827" t="n">
         <v>100</v>
@@ -37544,13 +37544,13 @@
         </is>
       </c>
       <c r="F829" t="n">
-        <v>80.43000000000001</v>
+        <v>98.61</v>
       </c>
       <c r="G829" t="n">
         <v>94.44</v>
       </c>
       <c r="H829" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="I829" t="n">
         <v>100</v>
@@ -37634,13 +37634,13 @@
         </is>
       </c>
       <c r="F831" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G831" t="n">
         <v>0</v>
       </c>
       <c r="H831" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I831" t="n">
         <v>100</v>
@@ -37679,13 +37679,13 @@
         </is>
       </c>
       <c r="F832" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="G832" t="n">
         <v>27.78</v>
       </c>
       <c r="H832" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="I832" t="n">
         <v>100</v>
@@ -37769,13 +37769,13 @@
         </is>
       </c>
       <c r="F834" t="n">
-        <v>69.77</v>
+        <v>92.5</v>
       </c>
       <c r="G834" t="n">
         <v>100</v>
       </c>
       <c r="H834" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I834" t="n">
         <v>100</v>
@@ -37859,13 +37859,13 @@
         </is>
       </c>
       <c r="F836" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G836" t="n">
         <v>0</v>
       </c>
       <c r="H836" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I836" t="n">
         <v>0</v>
@@ -37904,13 +37904,13 @@
         </is>
       </c>
       <c r="F837" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G837" t="n">
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I837" t="n">
         <v>100</v>
@@ -37949,13 +37949,13 @@
         </is>
       </c>
       <c r="F838" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="G838" t="n">
         <v>100</v>
       </c>
       <c r="H838" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I838" t="n">
         <v>100</v>
@@ -37994,13 +37994,13 @@
         </is>
       </c>
       <c r="F839" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G839" t="n">
         <v>88.89</v>
       </c>
       <c r="H839" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I839" t="n">
         <v>100</v>
@@ -38039,13 +38039,13 @@
         </is>
       </c>
       <c r="F840" t="n">
-        <v>69.77</v>
+        <v>92.5</v>
       </c>
       <c r="G840" t="n">
         <v>100</v>
       </c>
       <c r="H840" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I840" t="n">
         <v>100</v>
@@ -38174,13 +38174,13 @@
         </is>
       </c>
       <c r="F843" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G843" t="n">
         <v>0</v>
       </c>
       <c r="H843" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I843" t="n">
         <v>0</v>
@@ -38219,13 +38219,13 @@
         </is>
       </c>
       <c r="F844" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G844" t="n">
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I844" t="n">
         <v>0</v>
@@ -38264,13 +38264,13 @@
         </is>
       </c>
       <c r="F845" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="G845" t="n">
         <v>0</v>
       </c>
       <c r="H845" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="I845" t="n">
         <v>100</v>
@@ -38399,13 +38399,13 @@
         </is>
       </c>
       <c r="F848" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="G848" t="n">
         <v>88.89</v>
       </c>
       <c r="H848" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I848" t="n">
         <v>100</v>
@@ -38489,13 +38489,13 @@
         </is>
       </c>
       <c r="F850" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="G850" t="n">
         <v>0</v>
       </c>
       <c r="H850" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="I850" t="n">
         <v>100</v>
@@ -38579,13 +38579,13 @@
         </is>
       </c>
       <c r="F852" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="G852" t="n">
         <v>100</v>
       </c>
       <c r="H852" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="I852" t="n">
         <v>60</v>
@@ -38714,13 +38714,13 @@
         </is>
       </c>
       <c r="F855" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="G855" t="n">
         <v>72.22</v>
       </c>
       <c r="H855" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="I855" t="n">
         <v>100</v>
@@ -38759,13 +38759,13 @@
         </is>
       </c>
       <c r="F856" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G856" t="n">
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I856" t="n">
         <v>100</v>
@@ -38804,13 +38804,13 @@
         </is>
       </c>
       <c r="F857" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G857" t="n">
         <v>0</v>
       </c>
       <c r="H857" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="I857" t="n">
         <v>100</v>
